--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -62,6 +62,30 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BLOKIUM DIU 100/25MG 15 TAB.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>DOLPHIN 25 MG 10 SUPP.</t>
   </si>
   <si>
@@ -74,7 +98,16 @@
     <t>38.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
@@ -98,9 +131,6 @@
     <t>240.00</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -113,6 +143,21 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -170,10 +215,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>Wednesday, 11 June, 2025 9:52 AM</t>
+    <t>Wednesday, 11 June, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -864,7 +906,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -873,14 +915,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -890,14 +932,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -906,14 +948,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -923,14 +965,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -939,14 +981,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -956,14 +998,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -972,31 +1014,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1005,31 +1047,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1038,31 +1080,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1071,31 +1113,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1104,31 +1146,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1137,66 +1179,198 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>173.55000000000001</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>54</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>55</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>56</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>58</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>59</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>51</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>60</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>61</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>62</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>59</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>51</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>63</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>59</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>51</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>52</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>67</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>51</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>31</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>327.55000000000001</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>68</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>69</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>70</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1434,30 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -158,6 +158,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -188,9 +200,6 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -215,7 +224,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 10:42 AM</t>
+    <t>Wednesday, 11 June, 2025 11:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1159,15 +1168,15 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>18</v>
@@ -1179,20 +1188,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1225,7 +1234,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1252,13 +1261,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1285,21 +1294,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
@@ -1311,66 +1320,99 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>327.55000000000001</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>68</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
         <v>69</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
         <v>70</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>55</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>31</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="P23" s="13">
+        <v>449.55000000000001</v>
+      </c>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" customHeight="1">
+      <c t="s" r="A24" s="14">
+        <v>71</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c t="s" r="G24" s="15">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c t="s" r="K24" s="17">
+        <v>73</v>
+      </c>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1454,10 +1496,15 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="K24:Q24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
     <t>1:5</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -65,15 +80,24 @@
     <t>BLOKIUM DIU 100/25MG 15 TAB.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
     <t>25.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DIPROSALIC LOTION 30 ML</t>
   </si>
   <si>
@@ -161,9 +185,6 @@
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>122.00</t>
   </si>
   <si>
@@ -197,21 +218,27 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>3.00</t>
-  </si>
-  <si>
     <t>3.0000</t>
   </si>
   <si>
@@ -224,7 +251,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 11:00 AM</t>
+    <t>Wednesday, 11 June, 2025 11:25 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -915,7 +942,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -924,14 +951,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -948,7 +975,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -981,7 +1008,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1014,7 +1041,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1077,7 +1104,7 @@
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1089,14 +1116,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1106,14 +1133,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1122,14 +1149,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,14 +1166,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1155,14 +1182,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1172,14 +1199,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1188,31 +1215,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1221,31 +1248,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,20 +1281,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1278,7 +1305,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1294,24 +1321,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1320,31 +1347,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1353,66 +1380,165 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>62</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>70</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" ht="24.75" customHeight="1">
-      <c r="P23" s="13">
-        <v>449.55000000000001</v>
-      </c>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" ht="16.5" customHeight="1">
-      <c t="s" r="A24" s="14">
-        <v>71</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c t="s" r="G24" s="15">
-        <v>72</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
-      <c t="s" r="K24" s="17">
-        <v>73</v>
-      </c>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>12</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>62</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>63</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>64</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>78</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>79</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>62</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>39</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>574.42999999999995</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>80</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>81</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>82</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1501,10 +1627,25 @@
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="K24:Q24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -170,9 +182,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
@@ -251,7 +260,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 11:25 AM</t>
+    <t>Wednesday, 11 June, 2025 11:26 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1170,10 +1179,10 @@
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1182,14 +1191,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1199,11 +1208,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1239,7 +1248,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1248,14 +1257,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1265,14 +1274,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1288,21 +1297,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1314,28 +1323,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1347,20 +1356,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1371,7 +1380,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1393,7 +1402,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1404,7 +1413,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1426,18 +1435,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1446,7 +1455,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1459,15 +1468,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1479,66 +1488,99 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>574.42999999999995</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>80</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>81</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>82</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>65</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>39</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>619.42999999999995</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>83</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>84</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>85</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1642,10 +1684,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -260,7 +260,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 11:26 AM</t>
+    <t>Wednesday, 11 June, 2025 11:45 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CHICKS GROWEE SYRUP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>290.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -149,48 +161,48 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
     <t>62.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -206,9 +218,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -251,6 +260,9 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -260,7 +272,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 11:45 AM</t>
+    <t>Wednesday, 11 June, 2025 11:56 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1000,13 +1012,13 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1017,7 +1029,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1050,7 +1062,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1149,7 +1161,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1182,7 +1194,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1212,10 +1224,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1224,14 +1236,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1241,11 +1253,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1264,7 +1276,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1274,14 +1286,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1297,7 +1309,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1307,14 +1319,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1323,28 +1335,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1356,28 +1368,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1389,20 +1401,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1413,7 +1425,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1435,7 +1447,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1446,7 +1458,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1468,18 +1480,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1488,7 +1500,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1501,15 +1513,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1521,66 +1533,132 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>619.42999999999995</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>83</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>84</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>12</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>26</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>69</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>85</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>86</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>26</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>43</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>957.42999999999995</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>87</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>88</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>89</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1689,10 +1767,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 11:56 AM</t>
+    <t>Wednesday, 11 June, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -86,6 +98,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CHICKS GROWEE SYRUP</t>
   </si>
   <si>
@@ -134,15 +158,21 @@
     <t>38.0000</t>
   </si>
   <si>
+    <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
     <t>3:3</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -194,12 +224,6 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -212,6 +236,27 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8676:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -248,10 +293,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -272,7 +314,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 12:29 PM</t>
+    <t>Wednesday, 11 June, 2025 1:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -946,7 +988,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -956,14 +998,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -972,14 +1014,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -996,7 +1038,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1005,20 +1047,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1062,7 +1104,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1078,13 +1120,13 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
@@ -1128,7 +1170,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1194,7 +1236,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1210,7 +1252,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1220,14 +1262,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1236,14 +1278,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1253,14 +1295,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1269,14 +1311,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1286,14 +1328,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1302,14 +1344,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1319,14 +1361,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1335,14 +1377,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1356,10 +1398,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1368,31 +1410,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1401,31 +1443,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1434,7 +1476,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1447,18 +1489,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1467,31 +1509,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1500,28 +1542,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1533,28 +1575,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1566,28 +1608,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1599,66 +1641,231 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>93</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>34</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>77</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>95</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>12</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>34</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>91</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>957.42999999999995</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>87</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>88</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>89</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>97</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>12</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>34</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>91</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>98</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>12</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>34</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>84</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>99</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>100</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>34</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>18</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1209.4300000000001</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>101</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>102</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>103</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1777,10 +1984,35 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -239,13 +248,22 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8676:0</t>
+    <t>8673:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -314,7 +332,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 1:11 PM</t>
+    <t>Wednesday, 11 June, 2025 1:20 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1450,7 +1468,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1460,14 +1478,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1476,14 +1494,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1493,14 +1511,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1516,7 +1534,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1526,11 +1544,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1542,14 +1560,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1566,7 +1584,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1582,21 +1600,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1608,28 +1626,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1641,14 +1659,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1658,14 +1676,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1707,7 +1725,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1740,7 +1758,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1773,7 +1791,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1790,11 +1808,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1806,14 +1824,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1823,49 +1841,115 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1209.4300000000001</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>101</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
-        <v>102</v>
-      </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
-        <v>103</v>
-      </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>104</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>12</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>34</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>90</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>105</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>106</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>34</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>18</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1436.4300000000001</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>107</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>108</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>109</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2009,10 +2093,20 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -326,13 +326,16 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 1:20 PM</t>
+    <t>Wednesday, 11 June, 2025 2:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1878,10 +1881,10 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1890,14 +1893,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1919,13 +1922,13 @@
     </row>
     <row r="36" ht="25.5" customHeight="1">
       <c r="P36" s="13">
-        <v>1436.4300000000001</v>
+        <v>1451.4300000000001</v>
       </c>
       <c r="Q36" s="13"/>
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c t="s" r="A37" s="14">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -1933,13 +1936,13 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
       <c t="s" r="G37" s="15">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
       <c t="s" r="K37" s="17">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -122,6 +122,18 @@
     <t>290.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -149,13 +161,16 @@
     <t>DOLPHIN 25 MG 10 SUPP.</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>38.00</t>
   </si>
   <si>
-    <t>38.0000</t>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
@@ -191,9 +206,6 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
@@ -335,7 +347,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 2:06 PM</t>
+    <t>Wednesday, 11 June, 2025 3:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1191,7 +1203,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1224,7 +1236,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1273,7 +1285,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1283,14 +1295,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1299,14 +1311,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1316,11 +1328,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1332,14 +1344,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1349,14 +1361,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1365,14 +1377,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1382,14 +1394,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1398,14 +1410,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1419,10 +1431,10 @@
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1431,14 +1443,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1448,11 +1460,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>25</v>
@@ -1471,7 +1483,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1481,14 +1493,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1514,14 +1526,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1530,14 +1542,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1547,14 +1559,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1563,14 +1575,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1587,7 +1599,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1603,7 +1615,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1613,14 +1625,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1646,11 +1658,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1662,20 +1674,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1735,7 +1747,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1745,14 +1757,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1761,7 +1773,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1778,11 +1790,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -1794,7 +1806,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1811,14 +1823,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1827,7 +1839,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1844,11 +1856,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1860,7 +1872,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1877,14 +1889,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1910,49 +1922,82 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>110</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>111</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>34</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>18</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1451.4300000000001</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>108</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
-        <v>109</v>
-      </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
-        <v>110</v>
-      </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1503.4300000000001</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>112</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>113</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>114</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2106,10 +2151,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 3:45 PM</t>
+    <t>Wednesday, 11 June, 2025 3:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -347,7 +347,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 3:56 PM</t>
+    <t>Wednesday, 11 June, 2025 3:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1912,7 +1915,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1922,14 +1925,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1938,14 +1941,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1955,49 +1958,82 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>111</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>112</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>34</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>18</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>59</v>
       </c>
-      <c t="s" r="Q36" s="12">
+      <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1503.4300000000001</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
-        <v>112</v>
-      </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1523.4300000000001</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
         <v>113</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
         <v>114</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>115</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2156,10 +2192,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 3:57 PM</t>
+    <t>Wednesday, 11 June, 2025 4:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -146,6 +146,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DIPROSALIC LOTION 30 ML</t>
   </si>
   <si>
@@ -212,6 +224,12 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -257,6 +275,18 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -329,12 +359,12 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
     <t>3.0000</t>
   </si>
   <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
     <t>صابون CAMAY</t>
   </si>
   <si>
@@ -350,7 +380,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 4:52 PM</t>
+    <t>Wednesday, 11 June, 2025 4:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1272,7 +1302,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,7 +1335,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1314,14 +1344,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1338,7 +1368,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1347,14 +1377,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1364,11 +1394,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1380,14 +1410,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1397,14 +1427,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1420,7 +1450,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1430,14 +1460,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1446,14 +1476,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1467,10 +1497,10 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1479,20 +1509,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1500,7 +1530,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>25</v>
@@ -1512,14 +1542,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1533,10 +1563,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1545,14 +1575,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1562,14 +1592,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1578,14 +1608,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1595,11 +1625,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1611,14 +1641,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1628,14 +1658,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1644,14 +1674,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,11 +1691,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1677,14 +1707,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1701,7 +1731,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1723,7 +1753,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1734,7 +1764,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1750,21 +1780,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1776,31 +1806,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1809,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1826,14 +1856,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1842,14 +1872,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1859,11 +1889,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1875,7 +1905,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1892,14 +1922,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1908,14 +1938,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1925,14 +1955,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1941,7 +1971,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1958,14 +1988,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1974,14 +2004,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -1991,49 +2021,148 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1523.4300000000001</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>113</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>114</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
-        <v>115</v>
-      </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>118</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>103</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>34</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>108</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>119</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>12</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>34</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>104</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>121</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>122</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>34</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>18</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1587.26</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>123</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>124</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>125</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2197,10 +2326,25 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 4:55 PM</t>
+    <t>Wednesday, 11 June, 2025 5:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -251,6 +251,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
     <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
   </si>
   <si>
@@ -368,19 +377,28 @@
     <t>صابون CAMAY</t>
   </si>
   <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:11 PM</t>
+    <t>Wednesday, 11 June, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1632,7 +1650,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1648,7 +1666,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,14 +1676,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1674,14 +1692,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1691,14 +1709,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1714,7 +1732,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1724,14 +1742,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,14 +1758,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1775,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,14 +1791,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1797,7 +1815,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1846,21 +1864,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1872,14 +1890,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1889,11 +1907,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1905,14 +1923,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1929,7 +1947,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1955,11 +1973,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -1971,7 +1989,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -1988,14 +2006,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>54</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2004,7 +2022,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2021,14 +2039,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2037,14 +2055,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2054,11 +2072,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2070,14 +2088,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2087,14 +2105,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2103,14 +2121,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2120,49 +2138,115 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1587.26</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>123</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>124</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>126</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>12</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>34</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>107</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>125</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>127</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>128</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>34</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>18</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1622.76</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>129</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>130</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>131</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2341,10 +2425,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -398,7 +398,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:19 PM</t>
+    <t>Wednesday, 11 June, 2025 5:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ACTRAPID HM 100 I.U./ML 5*3ML PENFILLS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>338.00</t>
+  </si>
+  <si>
+    <t>338.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -158,6 +167,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>DIPROSALIC LOTION 30 ML</t>
   </si>
   <si>
@@ -194,6 +212,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>396.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -218,9 +245,6 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
@@ -338,12 +362,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>25:0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -387,6 +414,18 @@
   </si>
   <si>
     <t>30.0000</t>
+  </si>
+  <si>
+    <t>غيار جروح غير لاصق10*10</t>
+  </si>
+  <si>
+    <t>60:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1089,7 +1128,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1098,14 +1137,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1115,14 +1154,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1131,14 +1170,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1148,14 +1187,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1171,7 +1210,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1181,11 +1220,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1197,28 +1236,28 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1230,28 +1269,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1263,14 +1302,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1280,14 +1319,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1296,14 +1335,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1313,14 +1352,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1329,14 +1368,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1346,14 +1385,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1362,14 +1401,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1379,14 +1418,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1395,14 +1434,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1412,11 +1451,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1428,14 +1467,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1445,14 +1484,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q19" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1468,7 +1507,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1478,14 +1517,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1494,31 +1533,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1527,31 +1566,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1581,10 +1620,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1593,14 +1632,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1610,14 +1649,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1626,7 +1665,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1639,18 +1678,18 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1659,14 +1698,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1676,14 +1715,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1692,14 +1731,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1709,14 +1748,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1732,7 +1771,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1749,7 +1788,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1765,7 +1804,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1775,14 +1814,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1791,14 +1830,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1808,14 +1847,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1824,14 +1863,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1841,11 +1880,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1857,14 +1896,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1874,14 +1913,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1890,31 +1929,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1923,28 +1962,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -1956,31 +1995,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1989,31 +2028,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2022,31 +2061,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2062,21 +2101,21 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2088,31 +2127,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2121,31 +2160,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2154,7 +2193,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2167,18 +2206,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2187,66 +2226,231 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1622.76</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>129</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>130</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>114</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>37</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>120</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>131</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>132</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>37</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>133</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>135</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>136</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>37</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>137</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>139</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>12</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>37</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>115</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>140</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>141</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>37</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>21</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2433.7600000000002</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>142</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>143</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>144</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2435,10 +2639,35 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -437,7 +437,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:21 PM</t>
+    <t>Wednesday, 11 June, 2025 5:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -284,6 +284,15 @@
     <t>5.5000</t>
   </si>
   <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
   </si>
   <si>
@@ -437,7 +446,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:30 PM</t>
+    <t>Wednesday, 11 June, 2025 5:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1804,7 +1813,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1837,7 +1846,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1847,14 +1856,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1863,14 +1872,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1880,14 +1889,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1903,7 +1912,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1913,14 +1922,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1929,14 +1938,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1946,14 +1955,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1962,14 +1971,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1986,7 +1995,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2035,21 +2044,21 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2061,14 +2070,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2078,11 +2087,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2094,14 +2103,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2111,11 +2120,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2134,7 +2143,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2151,7 +2160,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2177,11 +2186,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>23</v>
@@ -2193,7 +2202,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2210,14 +2219,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2226,7 +2235,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2243,14 +2252,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2259,14 +2268,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2276,11 +2285,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2292,14 +2301,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2309,11 +2318,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2325,14 +2334,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2342,11 +2351,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2358,14 +2367,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2375,14 +2384,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2391,14 +2400,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2408,49 +2417,82 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>143</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>144</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>37</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>21</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>72</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2433.7600000000002</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>142</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>143</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
-        <v>144</v>
-      </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2454.7600000000002</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>145</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>146</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>147</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2664,10 +2706,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -392,7 +392,10 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -422,9 +425,6 @@
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>غيار جروح غير لاصق10*10</t>
   </si>
   <si>
@@ -446,7 +446,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:34 PM</t>
+    <t>Wednesday, 11 June, 2025 5:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2193,7 +2193,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2223,7 +2223,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>23</v>
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>60</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2334,14 +2334,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2351,11 +2351,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>60</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="49" ht="25.5" customHeight="1">
       <c r="P49" s="13">
-        <v>2454.7600000000002</v>
+        <v>2475.7600000000002</v>
       </c>
       <c r="Q49" s="13"/>
     </row>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -98,6 +98,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>BLOKIUM DIU 100/25MG 15 TAB.</t>
   </si>
   <si>
@@ -236,9 +245,6 @@
     <t>5:2</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
     <t>17.8200</t>
   </si>
   <si>
@@ -446,7 +452,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:35 PM</t>
+    <t>Wednesday, 11 June, 2025 5:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1219,7 +1225,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1236,7 +1242,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1252,7 +1258,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1262,11 +1268,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1278,28 +1284,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1311,28 +1317,28 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1344,14 +1350,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1361,14 +1367,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1377,14 +1383,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1394,11 +1400,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>28</v>
@@ -1410,14 +1416,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1434,7 +1440,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1450,7 +1456,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1460,11 +1466,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1476,14 +1482,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1493,14 +1499,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1509,14 +1515,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1526,14 +1532,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1555,7 +1561,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1582,17 +1588,17 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
@@ -1625,14 +1631,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1641,14 +1647,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1658,14 +1664,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1681,24 +1687,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1714,21 +1720,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>28</v>
@@ -1740,14 +1746,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1757,11 +1763,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -1773,14 +1779,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1790,11 +1796,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>28</v>
@@ -1806,14 +1812,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1823,14 +1829,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1839,14 +1845,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1856,11 +1862,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1872,14 +1878,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1889,14 +1895,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1912,7 +1918,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1922,14 +1928,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1938,14 +1944,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1955,14 +1961,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1971,14 +1977,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,14 +1994,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2004,14 +2010,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2021,14 +2027,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2037,14 +2043,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2054,11 +2060,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2070,28 +2076,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2103,28 +2109,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2143,21 +2149,21 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2169,31 +2175,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2202,7 +2208,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2215,18 +2221,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>130</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2248,18 +2254,18 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2268,7 +2274,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2281,18 +2287,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2308,21 +2314,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>117</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2334,28 +2340,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2367,28 +2373,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2400,31 +2406,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2433,66 +2439,99 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2475.7600000000002</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>145</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>146</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>40</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>21</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2502.7600000000002</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>147</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>148</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>149</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2711,10 +2750,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -116,6 +116,27 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>BRINGO TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>CERELAC قمح وتفاح بدون لبن</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -131,9 +152,6 @@
     <t>CHICKS GROWEE SYRUP</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>290.00</t>
   </si>
   <si>
@@ -248,6 +266,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -452,7 +479,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:36 PM</t>
+    <t>Wednesday, 11 June, 2025 5:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1291,7 +1318,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1301,11 +1328,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1317,7 +1344,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1330,15 +1357,15 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1350,14 +1377,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1367,11 +1394,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1383,31 +1410,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1416,14 +1443,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1433,14 +1460,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1449,14 +1476,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1466,14 +1493,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1482,14 +1509,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1499,14 +1526,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1515,14 +1542,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1532,14 +1559,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1548,14 +1575,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1565,11 +1592,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1581,31 +1608,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1621,7 +1648,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1631,7 +1658,7 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
@@ -1654,24 +1681,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1687,7 +1714,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1697,14 +1724,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1713,28 +1740,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>28</v>
@@ -1746,14 +1773,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1763,11 +1790,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -1779,14 +1806,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1796,14 +1823,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1825,7 +1852,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1833,7 +1860,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>28</v>
@@ -1845,14 +1872,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1866,10 +1893,10 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1878,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1902,7 +1929,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1918,7 +1945,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1928,14 +1955,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1944,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1961,11 +1988,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1977,14 +2004,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2001,7 +2028,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2017,7 +2044,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2027,14 +2054,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2043,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2060,11 +2087,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2076,14 +2103,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2093,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2109,31 +2136,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2142,28 +2169,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2182,13 +2209,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2215,24 +2242,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>130</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2248,24 +2275,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2281,24 +2308,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2307,7 +2334,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2320,18 +2347,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2340,31 +2367,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2373,31 +2400,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2406,28 +2433,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2439,31 +2466,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2472,66 +2499,165 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2502.7600000000002</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>147</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>148</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>149</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>150</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>39</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>151</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>153</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>12</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>39</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>129</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>154</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>155</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>39</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>21</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2639.7600000000002</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>156</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>157</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>158</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2755,10 +2881,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -71,6 +71,12 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>AMBEZIM-G 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -83,6 +89,18 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>ANTODINE 40MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>61.3800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -125,6 +143,18 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>65.3400</t>
+  </si>
+  <si>
     <t>CERELAC قمح وتفاح بدون لبن</t>
   </si>
   <si>
@@ -248,6 +278,24 @@
     <t>396.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -479,7 +527,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:47 PM</t>
+    <t>Wednesday, 11 June, 2025 5:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1186,7 +1234,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1196,14 +1244,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1212,14 +1260,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1229,14 +1277,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1245,7 +1293,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1262,14 +1310,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1278,14 +1326,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1295,14 +1343,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1318,7 +1366,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1335,7 +1383,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1351,21 +1399,21 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1377,14 +1425,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1394,11 +1442,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1410,31 +1458,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1443,28 +1491,28 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1476,14 +1524,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1493,14 +1541,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1509,31 +1557,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1542,14 +1590,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1559,11 +1607,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1575,14 +1623,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1592,14 +1640,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1608,14 +1656,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1625,14 +1673,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1641,7 +1689,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1658,11 +1706,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1674,28 +1722,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1707,14 +1755,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1724,14 +1772,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1740,14 +1788,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1757,14 +1805,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1773,31 +1821,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1806,14 +1854,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,14 +1871,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1839,31 +1887,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1872,14 +1920,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1889,14 +1937,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1905,14 +1953,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,14 +1970,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1938,7 +1986,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1955,14 +2003,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1971,14 +2019,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,14 +2036,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2004,7 +2052,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2017,18 +2065,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2044,7 +2092,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,14 +2102,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2070,14 +2118,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2087,14 +2135,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2103,14 +2151,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2120,14 +2168,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2136,14 +2184,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2160,7 +2208,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2176,7 +2224,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2209,7 +2257,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,14 +2267,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2235,28 +2283,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2268,31 +2316,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2308,24 +2356,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,31 +2382,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2374,24 +2422,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2400,31 +2448,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2433,28 +2481,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2466,28 +2514,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2499,31 +2547,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2532,31 +2580,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2565,7 +2613,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2578,18 +2626,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2598,66 +2646,231 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2639.7600000000002</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>156</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
-        <v>157</v>
-      </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
-        <v>158</v>
-      </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>161</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>144</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>49</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>150</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>162</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>163</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>49</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>164</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>165</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>166</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>49</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>167</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>169</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>12</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>49</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>145</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>170</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>171</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>49</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>23</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2937.48</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>172</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>173</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>174</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2896,10 +3109,35 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -62,6 +62,15 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AFROMED 30 CAPS</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>195.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -344,6 +353,18 @@
     <t>240.00</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>111.7200</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -383,6 +404,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -527,7 +557,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:55 PM</t>
+    <t>Wednesday, 11 June, 2025 5:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1234,7 +1264,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1244,11 +1274,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1260,14 +1290,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1277,14 +1307,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1293,7 +1323,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1310,14 +1340,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1326,14 +1356,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1343,14 +1373,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1359,14 +1389,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1376,14 +1406,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1399,7 +1429,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1416,7 +1446,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1465,7 +1495,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1475,14 +1505,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1491,31 +1521,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1524,28 +1554,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1557,20 +1587,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1597,21 +1627,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1623,14 +1653,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1640,14 +1670,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1656,14 +1686,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1673,14 +1703,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1689,14 +1719,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1713,7 +1743,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1729,7 +1759,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1739,11 +1769,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1755,14 +1785,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1772,14 +1802,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1788,14 +1818,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1805,14 +1835,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1834,7 +1864,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1867,7 +1897,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1927,7 +1957,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1937,7 +1967,7 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -1970,14 +2000,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1993,7 +2023,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2003,14 +2033,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2026,7 +2056,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2036,14 +2066,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2052,31 +2082,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2085,20 +2115,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2106,10 +2136,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2139,10 +2169,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2151,14 +2181,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2168,14 +2198,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2191,7 +2221,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2201,14 +2231,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2217,7 +2247,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2234,14 +2264,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2250,14 +2280,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2267,14 +2297,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2283,14 +2313,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2300,11 +2330,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2316,14 +2346,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2333,14 +2363,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2349,14 +2379,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2366,14 +2396,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2382,14 +2412,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2399,11 +2429,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2415,14 +2445,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2439,7 +2469,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2461,7 +2491,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2472,7 +2502,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2488,21 +2518,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2514,28 +2544,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2547,31 +2577,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2580,31 +2610,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>135</v>
+        <v>42</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2613,31 +2643,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2646,7 +2676,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2659,18 +2689,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2679,31 +2709,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2712,31 +2742,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2745,28 +2775,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2778,31 +2808,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2811,66 +2841,165 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2937.48</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>172</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>173</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>174</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>176</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>52</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>177</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>179</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>12</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>52</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>155</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q59" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>180</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>181</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>52</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>26</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="P61" s="13">
+        <v>3392.1999999999998</v>
+      </c>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c t="s" r="A62" s="14">
+        <v>182</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c t="s" r="G62" s="15">
+        <v>183</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c t="s" r="K62" s="17">
+        <v>184</v>
+      </c>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="282">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3134,10 +3263,25 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="K62:Q62"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -359,10 +359,10 @@
     <t>42.00</t>
   </si>
   <si>
-    <t>111.7200</t>
-  </si>
-  <si>
-    <t>2:4</t>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>2:3</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -557,7 +557,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:58 PM</t>
+    <t>Wednesday, 11 June, 2025 5:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2188,7 +2188,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="61" ht="25.5" customHeight="1">
       <c r="P61" s="13">
-        <v>3392.1999999999998</v>
+        <v>3385.48</v>
       </c>
       <c r="Q61" s="13"/>
     </row>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -557,7 +557,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 5:59 PM</t>
+    <t>Wednesday, 11 June, 2025 6:00 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -338,6 +338,18 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:20</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -557,7 +569,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 6:00 PM</t>
+    <t>Wednesday, 11 June, 2025 6:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2122,7 +2134,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2132,11 +2144,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>37</v>
@@ -2148,28 +2160,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>37</v>
@@ -2181,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2198,14 +2210,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>117</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2221,7 +2233,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2231,14 +2243,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>37</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2254,7 +2266,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2264,11 +2276,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>37</v>
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2297,14 +2309,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2313,14 +2325,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2330,11 +2342,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2363,11 +2375,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2412,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2469,7 +2481,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2502,7 +2514,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2518,7 +2530,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2528,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2544,7 +2556,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2561,11 +2573,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2577,20 +2589,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2627,11 +2639,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2660,11 +2672,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>42</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2693,14 +2705,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>165</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>28</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2742,7 +2754,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2775,7 +2787,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2825,11 +2837,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2858,11 +2870,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2874,14 +2886,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2891,11 +2903,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2914,7 +2926,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2957,49 +2969,82 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>184</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>185</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>52</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>26</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
         <v>100</v>
       </c>
-      <c t="s" r="Q60" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" ht="25.5" customHeight="1">
-      <c r="P61" s="13">
-        <v>3385.48</v>
-      </c>
-      <c r="Q61" s="13"/>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c t="s" r="A62" s="14">
-        <v>182</v>
-      </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c t="s" r="G62" s="15">
-        <v>183</v>
-      </c>
-      <c r="H62" s="15"/>
-      <c r="I62" s="15"/>
-      <c r="J62" s="16"/>
-      <c t="s" r="K62" s="17">
-        <v>184</v>
-      </c>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="17"/>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>3397.48</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>186</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>187</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>188</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="282">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3278,10 +3323,15 @@
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -569,7 +569,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 6:03 PM</t>
+    <t>Wednesday, 11 June, 2025 6:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t xml:space="preserve">ANTODINE20    6 AMP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>25.7400</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -167,9 +179,6 @@
     <t>CERELAC قمح وتفاح بدون لبن</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -209,6 +218,15 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CORTIPLEX B6 ADULT 3 AMP.</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -350,6 +368,24 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>MOFLOX 400MG 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>39.50</t>
+  </si>
+  <si>
+    <t>39.5000</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -398,6 +434,12 @@
     <t>5.5000</t>
   </si>
   <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
   </si>
   <si>
@@ -524,12 +566,18 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>6.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -569,7 +617,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 6:14 PM</t>
+    <t>Wednesday, 11 June, 2025 6:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1408,13 +1456,13 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1425,7 +1473,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1434,14 +1482,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1458,7 +1506,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1467,14 +1515,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1484,14 +1532,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1500,7 +1548,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1517,11 +1565,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1533,14 +1581,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1557,7 +1605,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1573,13 +1621,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1590,7 +1638,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1606,21 +1654,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1632,20 +1680,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1672,21 +1720,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1698,14 +1746,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,14 +1763,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1731,14 +1779,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1748,14 +1796,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1764,14 +1812,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1829,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1797,14 +1845,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1814,14 +1862,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1830,14 +1878,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1847,14 +1895,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1863,14 +1911,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,11 +1928,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1896,31 +1944,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1975,7 +2023,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2002,7 +2050,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,7 +2060,7 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2035,7 +2083,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2045,14 +2093,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2068,7 +2116,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,14 +2126,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2101,7 +2149,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2111,14 +2159,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2127,20 +2175,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2151,7 +2199,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2167,24 +2215,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>37</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2206,7 +2254,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2214,10 +2262,10 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2226,14 +2274,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2243,14 +2291,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2266,7 +2314,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,14 +2324,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2292,7 +2340,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2305,18 +2353,18 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2325,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2342,14 +2390,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2358,14 +2406,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,14 +2423,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,14 +2439,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2415,7 +2463,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2431,7 +2479,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2441,14 +2489,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2457,14 +2505,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2474,14 +2522,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2497,7 +2545,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2555,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2571,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,14 +2588,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2556,14 +2604,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,11 +2621,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2589,14 +2637,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2654,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,28 +2670,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2655,31 +2703,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>43</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,7 +2736,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2701,18 +2749,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,31 +2769,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,31 +2802,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,31 +2835,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>172</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,28 +2868,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2853,28 +2901,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2886,31 +2934,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2919,31 +2967,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2952,7 +3000,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2965,18 +3013,18 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2985,66 +3033,231 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>3397.48</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>186</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>187</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>188</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>191</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>172</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>34</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>178</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>192</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>193</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>34</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>194</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>195</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>196</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>34</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>197</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>198</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>199</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>34</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>173</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>200</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>201</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>34</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>26</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3623.1500000000001</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>202</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>203</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>204</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3328,10 +3541,35 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -176,6 +176,18 @@
     <t>65.3400</t>
   </si>
   <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>CERELAC قمح وتفاح بدون لبن</t>
   </si>
   <si>
@@ -263,9 +275,6 @@
     <t>DIPROSALIC LOTION 30 ML</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>43.00</t>
   </si>
   <si>
@@ -437,7 +446,7 @@
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
-    <t>35.6400</t>
+    <t>107.4600</t>
   </si>
   <si>
     <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
@@ -524,69 +533,78 @@
     <t>96.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>25:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
     <t>8:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>25:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -611,13 +629,16 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 6:17 PM</t>
+    <t>Wednesday, 11 June, 2025 6:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,7 +1681,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1671,7 +1692,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1680,20 +1701,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1720,21 +1741,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1746,20 +1767,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1786,7 +1807,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1796,14 +1817,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1812,14 +1833,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1836,7 +1857,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1885,7 +1906,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1895,14 +1916,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1911,14 +1932,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1951,7 +1972,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1961,14 +1982,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1977,14 +1998,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1994,14 +2015,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2023,7 +2044,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2056,7 +2077,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2116,7 +2137,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2126,7 +2147,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2159,14 +2180,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2182,7 +2203,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,7 +2213,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2215,7 +2236,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2225,14 +2246,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>88</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2241,31 +2262,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>41</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2274,20 +2295,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2331,7 +2352,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2347,13 +2368,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2361,10 +2382,10 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2373,20 +2394,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2394,7 +2415,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>41</v>
@@ -2413,7 +2434,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2423,14 +2444,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2439,14 +2460,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2456,14 +2477,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2472,14 +2493,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2512,7 +2533,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2522,14 +2543,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2538,14 +2559,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2555,14 +2576,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>43</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2578,7 +2599,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2611,7 +2632,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2644,7 +2665,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,14 +2675,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2670,14 +2691,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2687,14 +2708,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2710,7 +2731,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,14 +2741,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2736,14 +2757,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2753,14 +2774,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>84</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2769,14 +2790,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2793,7 +2814,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2809,7 +2830,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2842,21 +2863,21 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2868,31 +2889,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2908,7 +2929,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,14 +2939,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2934,14 +2955,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,14 +2972,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2984,14 +3005,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>186</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3000,7 +3021,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3017,14 +3038,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3099,14 +3120,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,11 +3137,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,11 +3170,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3215,49 +3236,148 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3623.1500000000001</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>202</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
-        <v>203</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
-        <v>204</v>
-      </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>205</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>12</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>34</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>179</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>206</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>191</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>34</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>26</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>173</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>207</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>208</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>34</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>26</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>4236.9700000000003</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>209</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>210</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>211</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3566,10 +3686,25 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -71,6 +71,15 @@
     <t>195.0000</t>
   </si>
   <si>
+    <t>ALBOTHYL 1.8% VAG. JEL 40 GM</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -167,13 +176,16 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>2:2</t>
+    <t>2:1</t>
   </si>
   <si>
     <t>99.00</t>
   </si>
   <si>
-    <t>65.3400</t>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>0:3</t>
   </si>
   <si>
     <t>CEFZIM 1 GM VIAL</t>
@@ -239,6 +251,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>DALACIN C 300MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -434,6 +455,12 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -638,7 +665,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 6:33 PM</t>
+    <t>Wednesday, 11 June, 2025 6:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1345,7 +1372,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1378,7 +1405,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1388,11 +1415,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1404,14 +1431,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1421,14 +1448,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1437,7 +1464,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1454,14 +1481,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1470,31 +1497,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1503,31 +1530,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1536,14 +1563,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1553,14 +1580,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1576,7 +1603,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1593,7 +1620,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1642,7 +1669,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1652,14 +1679,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1668,14 +1695,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1714,7 +1741,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1725,7 +1752,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1734,20 +1761,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1774,21 +1801,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1800,20 +1827,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1840,7 +1867,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1850,14 +1877,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1866,14 +1893,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1890,7 +1917,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1906,7 +1933,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1916,14 +1943,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1932,14 +1959,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1956,7 +1983,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1972,7 +1999,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1982,14 +2009,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1998,14 +2025,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2022,7 +2049,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2031,14 +2058,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2048,11 +2075,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2064,20 +2091,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2088,7 +2115,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2097,7 +2124,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2114,11 +2141,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2130,7 +2157,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2143,15 +2170,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2163,14 +2190,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2180,11 +2207,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2196,14 +2223,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2213,14 +2240,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2229,14 +2256,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2246,14 +2273,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2262,14 +2289,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2279,14 +2306,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>91</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2295,31 +2322,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2328,14 +2355,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2345,14 +2372,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>41</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2368,24 +2395,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2394,31 +2421,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2427,14 +2454,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2444,14 +2471,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2460,31 +2487,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>136</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2514,10 +2541,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2526,14 +2553,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2543,14 +2570,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>143</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2566,7 +2593,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2576,14 +2603,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>131</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2592,14 +2619,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2609,11 +2636,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2625,7 +2652,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2642,14 +2669,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2658,14 +2685,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2675,14 +2702,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2698,7 +2725,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2708,14 +2735,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2724,14 +2751,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2741,11 +2768,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2757,14 +2784,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2781,7 +2808,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2797,7 +2824,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2807,14 +2834,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2823,14 +2850,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2840,11 +2867,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2856,14 +2883,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2873,14 +2900,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2889,14 +2916,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2913,7 +2940,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2929,24 +2956,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>91</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2955,28 +2982,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>182</v>
+        <v>98</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>46</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2995,13 +3022,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3012,7 +3039,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3028,24 +3055,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>188</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3054,31 +3081,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>190</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3094,24 +3121,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>193</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3120,7 +3147,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3133,18 +3160,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3153,31 +3180,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3186,31 +3213,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>202</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3219,24 +3246,24 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3259,24 +3286,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3285,31 +3312,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>26</v>
+        <v>209</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3318,66 +3345,165 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>4236.9700000000003</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>209</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>210</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>211</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>214</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>12</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>37</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>188</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>215</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>200</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>37</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>29</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>216</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>217</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>37</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>29</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="P73" s="13">
+        <v>4519.6400000000003</v>
+      </c>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c t="s" r="A74" s="14">
+        <v>218</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c t="s" r="G74" s="15">
+        <v>219</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c t="s" r="K74" s="17">
+        <v>220</v>
+      </c>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="342">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3701,10 +3827,25 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="K74:Q74"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -233,13 +233,16 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>23:0</t>
+    <t>22:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>33.0000</t>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>CORTIPLEX B6 ADULT 3 AMP.</t>
@@ -305,16 +308,13 @@
     <t>DOLPHIN 25 MG 10 SUPP.</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>1:1</t>
   </si>
   <si>
     <t>38.00</t>
   </si>
   <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>1:1</t>
+    <t>76.0000</t>
   </si>
   <si>
     <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
@@ -665,7 +665,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 6:40 PM</t>
+    <t>Wednesday, 11 June, 2025 6:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1884,7 +1884,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1910,11 +1910,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>35</v>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1943,11 +1943,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1959,14 +1959,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1976,11 +1976,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>44</v>
@@ -1992,14 +1992,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2009,11 +2009,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>44</v>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2075,11 +2075,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -2091,14 +2091,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2108,14 +2108,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2362,7 +2362,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2372,14 +2372,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2626,7 +2626,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2841,7 +2841,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2956,7 +2956,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2989,7 +2989,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3039,7 +3039,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3072,7 +3072,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3399,7 +3399,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="73" ht="24.75" customHeight="1">
       <c r="P73" s="13">
-        <v>4519.6400000000003</v>
+        <v>4571.6400000000003</v>
       </c>
       <c r="Q73" s="13"/>
     </row>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -80,6 +80,18 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>ALKAPRESS 5MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>7.6800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -188,6 +197,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
     <t>CEFZIM 1 GM VIAL</t>
   </si>
   <si>
@@ -425,9 +446,6 @@
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>240.00</t>
   </si>
   <si>
@@ -608,64 +626,64 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>18.0000</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>صابون ديتول اوريجنيال 115 جم</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>غيار جروح غير لاصق10*10</t>
+  </si>
+  <si>
+    <t>60:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>صابون ديتول اوريجنيال 115 جم</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>غيار جروح غير لاصق10*10</t>
-  </si>
-  <si>
-    <t>60:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 6:41 PM</t>
+    <t>Wednesday, 11 June, 2025 7:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1405,7 +1423,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1415,11 +1433,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1431,14 +1449,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1448,11 +1466,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1464,14 +1482,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1481,14 +1499,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1537,24 +1555,24 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1570,13 +1588,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1587,7 +1605,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1596,14 +1614,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1620,7 +1638,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1636,7 +1654,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1653,7 +1671,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1702,7 +1720,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1712,14 +1730,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1728,14 +1746,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1745,14 +1763,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>62</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1761,20 +1779,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1785,7 +1803,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1801,7 +1819,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1811,14 +1829,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>68</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>69</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1840,7 +1858,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1884,7 +1902,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1893,31 +1911,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1926,14 +1944,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1950,7 +1968,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1959,14 +1977,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1983,7 +2001,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1999,7 +2017,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2009,14 +2027,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2025,14 +2043,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2049,7 +2067,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2065,7 +2083,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2075,14 +2093,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2091,14 +2109,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2115,7 +2133,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2131,7 +2149,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2164,24 +2182,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2190,7 +2208,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2207,11 +2225,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2223,7 +2241,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2236,15 +2254,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2256,14 +2274,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2273,11 +2291,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2289,14 +2307,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2306,14 +2324,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2322,14 +2340,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2339,14 +2357,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2355,14 +2373,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2372,14 +2390,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>77</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2388,31 +2406,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2421,14 +2439,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2438,14 +2456,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2461,24 +2479,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2487,31 +2505,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>69</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2520,14 +2538,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2537,14 +2555,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2553,31 +2571,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>143</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2593,7 +2611,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2603,14 +2621,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2619,14 +2637,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2636,14 +2654,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2659,7 +2677,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2702,14 +2720,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>46</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>138</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2718,14 +2736,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2791,7 +2809,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2824,7 +2842,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2834,14 +2852,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2850,14 +2868,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2867,11 +2885,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2900,14 +2918,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2966,14 +2984,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2982,14 +3000,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3006,7 +3024,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3022,7 +3040,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3039,7 +3057,7 @@
         <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3055,24 +3073,24 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>187</v>
+        <v>84</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3081,31 +3099,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>191</v>
+        <v>69</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>50</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3121,24 +3139,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3147,31 +3165,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3187,24 +3205,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>197</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3226,18 +3244,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3246,7 +3264,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3259,18 +3277,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>203</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3286,24 +3304,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3312,28 +3330,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3358,15 +3376,15 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3378,31 +3396,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3418,24 +3436,24 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3444,66 +3462,132 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
-      <c r="P73" s="13">
-        <v>4571.6400000000003</v>
-      </c>
-      <c r="Q73" s="13"/>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c t="s" r="A74" s="14">
-        <v>218</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c t="s" r="G74" s="15">
-        <v>219</v>
-      </c>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="16"/>
-      <c t="s" r="K74" s="17">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
         <v>220</v>
       </c>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>221</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>41</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>33</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>222</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>223</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>41</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>33</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>4650.8400000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>224</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>225</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>226</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="342">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3842,10 +3926,20 @@
     <mergeCell ref="H72:K72"/>
     <mergeCell ref="L72:M72"/>
     <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -254,90 +254,90 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>21:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>66.0000</t>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>CORTIPLEX B6 ADULT 3 AMP.</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DALACIN C 300MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
   </si>
   <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>CORTIPLEX B6 ADULT 3 AMP.</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DALACIN C 300MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>DIPROSALIC LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
     <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
   </si>
   <si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>7.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -1968,7 +1971,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1977,7 +1980,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1994,11 +1997,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>39</v>
@@ -2010,7 +2013,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2027,11 +2030,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2043,14 +2046,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2060,11 +2063,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -2076,14 +2079,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2093,11 +2096,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2109,7 +2112,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2126,11 +2129,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2142,7 +2145,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2159,11 +2162,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2175,14 +2178,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2192,14 +2195,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>84</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2446,7 +2449,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2456,14 +2459,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2710,7 +2713,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2925,7 +2928,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3040,7 +3043,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3073,7 +3076,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3123,7 +3126,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3156,7 +3159,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3469,7 +3472,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3483,10 +3486,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3502,7 +3505,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3512,14 +3515,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3528,14 +3531,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3549,45 +3552,78 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>223</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>224</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>41</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>33</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>123</v>
       </c>
-      <c t="s" r="Q74" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>4650.8400000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>224</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="P76" s="13">
+        <v>4713.8400000000001</v>
+      </c>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c t="s" r="A77" s="14">
         <v>225</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c t="s" r="G77" s="15">
         <v>226</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c t="s" r="K77" s="17">
+        <v>227</v>
+      </c>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+      <c r="O77" s="17"/>
+      <c r="P77" s="17"/>
+      <c r="Q77" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="357">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3936,10 +3972,15 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="G77:I77"/>
+    <mergeCell ref="K77:Q77"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -686,7 +686,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 7:12 PM</t>
+    <t>Wednesday, 11 June, 2025 7:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3472,7 +3472,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3486,10 +3486,10 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>108</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3593,7 +3593,7 @@
     </row>
     <row r="76" ht="25.5" customHeight="1">
       <c r="P76" s="13">
-        <v>4713.8400000000001</v>
+        <v>4743.8400000000001</v>
       </c>
       <c r="Q76" s="13"/>
     </row>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -686,7 +686,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 7:13 PM</t>
+    <t>Wednesday, 11 June, 2025 7:14 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -236,12 +245,6 @@
     <t>29:0</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>CHICKS GROWEE SYRUP</t>
   </si>
   <si>
@@ -383,6 +386,15 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -464,13 +476,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:16</t>
+    <t>0:15</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>7.0500</t>
+    <t>14.1000</t>
   </si>
   <si>
     <t>ROWATINEX 45 CAPSULES</t>
@@ -686,7 +698,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 7:14 PM</t>
+    <t>Wednesday, 11 June, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,7 +1537,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1542,7 +1554,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1551,7 +1563,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1568,14 +1580,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1584,31 +1596,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1617,31 +1629,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1650,14 +1662,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1690,7 +1702,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1707,7 +1719,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1756,7 +1768,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1766,14 +1778,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1782,14 +1794,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1799,14 +1811,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1815,14 +1827,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1839,7 +1851,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1848,7 +1860,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1861,18 +1873,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>72</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1888,21 +1900,21 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1914,28 +1926,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1947,31 +1959,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1980,14 +1992,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1997,14 +2009,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2013,7 +2025,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2030,14 +2042,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2079,14 +2091,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2096,11 +2108,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2112,14 +2124,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2129,14 +2141,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2162,11 +2174,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2228,14 +2240,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2244,7 +2256,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2257,15 +2269,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2277,7 +2289,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2290,15 +2302,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2310,7 +2322,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2327,11 +2339,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2343,14 +2355,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2360,11 +2372,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>33</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2376,14 +2388,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2393,14 +2405,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2409,14 +2421,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2426,14 +2438,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>108</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2475,28 +2487,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2508,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2525,14 +2537,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2541,31 +2553,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2574,28 +2586,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2624,14 +2636,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2647,13 +2659,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2661,10 +2673,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>149</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2690,11 +2702,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>24</v>
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2723,14 +2735,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2739,14 +2751,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2772,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2789,14 +2801,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>49</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2805,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2822,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2838,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2855,14 +2867,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2871,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2888,11 +2900,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2904,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2921,14 +2933,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2937,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2954,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2970,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2987,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3003,14 +3015,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3020,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3036,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3053,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3069,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3086,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3102,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3119,14 +3131,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3135,31 +3147,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3168,31 +3180,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>197</v>
+        <v>72</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>53</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3201,7 +3213,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3214,18 +3226,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3234,31 +3246,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3267,31 +3279,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>203</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3313,15 +3325,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>207</v>
@@ -3346,18 +3358,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3366,31 +3378,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3406,21 +3418,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3432,28 +3444,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3465,31 +3477,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3498,31 +3510,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>100</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3531,31 +3543,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>109</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>188</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3564,66 +3576,132 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
-      <c r="P76" s="13">
-        <v>4743.8400000000001</v>
-      </c>
-      <c r="Q76" s="13"/>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c t="s" r="A77" s="14">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>225</v>
       </c>
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c t="s" r="G77" s="15">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
         <v>226</v>
       </c>
-      <c r="H77" s="15"/>
-      <c r="I77" s="15"/>
-      <c r="J77" s="16"/>
-      <c t="s" r="K77" s="17">
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>44</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>36</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>227</v>
       </c>
-      <c r="L77" s="17"/>
-      <c r="M77" s="17"/>
-      <c r="N77" s="17"/>
-      <c r="O77" s="17"/>
-      <c r="P77" s="17"/>
-      <c r="Q77" s="17"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>228</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>44</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>36</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="P78" s="13">
+        <v>4859.8900000000003</v>
+      </c>
+      <c r="Q78" s="13"/>
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c t="s" r="A79" s="14">
+        <v>229</v>
+      </c>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c t="s" r="G79" s="15">
+        <v>230</v>
+      </c>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c t="s" r="K79" s="17">
+        <v>231</v>
+      </c>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="357">
+  <mergeCells count="367">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3977,10 +4055,20 @@
     <mergeCell ref="H75:K75"/>
     <mergeCell ref="L75:M75"/>
     <mergeCell ref="N75:O75"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="G77:I77"/>
-    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="G79:I79"/>
+    <mergeCell ref="K79:Q79"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 7:17 PM</t>
+    <t>Wednesday, 11 June, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -455,6 +455,9 @@
     <t>62.00</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -534,9 +537,6 @@
   </si>
   <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>62.0000</t>
   </si>
   <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
@@ -2659,7 +2659,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2673,10 +2673,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2735,14 +2735,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2751,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,11 +2768,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>42</v>
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2834,11 +2834,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2850,7 +2850,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>66</v>
@@ -2883,7 +2883,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2900,11 +2900,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2933,11 +2933,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2966,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2982,7 +2982,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>109</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="78" ht="24.75" customHeight="1">
       <c r="P78" s="13">
-        <v>4859.8900000000003</v>
+        <v>4890.8900000000003</v>
       </c>
       <c r="Q78" s="13"/>
     </row>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -104,9 +104,6 @@
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:-1</t>
-  </si>
-  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -698,7 +695,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 7:24 PM</t>
+    <t>Wednesday, 11 June, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1504,7 +1501,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1530,7 +1527,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1547,11 +1544,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1563,7 +1560,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1580,14 +1577,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1596,7 +1593,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1613,14 +1610,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1629,31 +1626,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1662,14 +1659,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1679,11 +1676,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>24</v>
@@ -1695,7 +1692,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1712,11 +1709,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -1728,7 +1725,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1745,11 +1742,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1761,7 +1758,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1778,11 +1775,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1794,14 +1791,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1811,14 +1808,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>63</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>64</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1827,14 +1824,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,11 +1841,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>24</v>
@@ -1860,7 +1857,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1877,14 +1874,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>72</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1893,7 +1890,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1906,15 +1903,15 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1926,14 +1923,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1943,11 +1940,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1959,7 +1956,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1972,15 +1969,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1992,14 +1989,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2009,14 +2006,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,7 +2022,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2042,14 +2039,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2058,7 +2055,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2075,11 +2072,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2091,14 +2088,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,11 +2105,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2124,14 +2121,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,11 +2138,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -2157,7 +2154,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2174,11 +2171,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2190,14 +2187,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2207,11 +2204,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2223,14 +2220,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2240,14 +2237,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>109</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2256,7 +2253,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2273,11 +2270,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2289,7 +2286,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2302,15 +2299,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2322,7 +2319,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2339,11 +2336,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2355,7 +2352,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2372,11 +2369,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2388,14 +2385,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,11 +2402,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2421,14 +2418,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,14 +2435,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2454,14 +2451,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,11 +2468,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2487,7 +2484,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2504,11 +2501,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2520,14 +2517,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2534,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,28 +2550,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2586,7 +2583,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2603,11 +2600,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2619,7 +2616,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2636,11 +2633,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2652,7 +2649,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2665,15 +2662,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2685,14 +2682,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2702,11 +2699,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>24</v>
@@ -2718,7 +2715,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2735,14 +2732,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>153</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>154</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,14 +2748,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2768,14 +2765,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2784,14 +2781,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,11 +2798,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2817,7 +2814,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2834,11 +2831,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2850,7 +2847,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2867,14 +2864,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,14 +2880,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,11 +2897,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2916,7 +2913,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2933,11 +2930,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2949,7 +2946,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2966,11 +2963,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2982,14 +2979,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +2996,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,7 +3012,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3032,11 +3029,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3048,14 +3045,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,11 +3062,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
@@ -3081,14 +3078,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3098,14 +3095,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3114,14 +3111,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,11 +3128,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3147,14 +3144,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,11 +3161,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3180,14 +3177,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,14 +3194,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,31 +3210,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3246,28 +3243,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3279,28 +3276,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3312,7 +3309,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3325,18 +3322,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,7 +3342,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3358,18 +3355,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,7 +3375,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3391,18 +3388,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>211</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3411,7 +3408,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3424,15 +3421,15 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3444,28 +3441,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3477,28 +3474,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3510,28 +3507,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3543,31 +3540,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3576,7 +3573,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3589,18 +3586,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,31 +3606,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,28 +3639,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3677,7 +3674,7 @@
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c t="s" r="A79" s="14">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -3685,13 +3682,13 @@
       <c r="E79" s="14"/>
       <c r="F79" s="14"/>
       <c t="s" r="G79" s="15">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="16"/>
       <c t="s" r="K79" s="17">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L79" s="17"/>
       <c r="M79" s="17"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -191,16 +191,16 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>99.00</t>
   </si>
   <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>0:3</t>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>1:1</t>
   </si>
   <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
@@ -326,18 +326,12 @@
     <t>DOLPHIN 25 MG 10 SUPP.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>38.00</t>
   </si>
   <si>
     <t>76.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
   </si>
   <si>
@@ -428,6 +422,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>MOFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -695,7 +698,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 7:30 PM</t>
+    <t>Wednesday, 11 June, 2025 7:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2227,7 +2230,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,14 +2240,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2253,7 +2256,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2270,11 +2273,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2286,7 +2289,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2303,11 +2306,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2319,7 +2322,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2336,11 +2339,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2352,7 +2355,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2369,11 +2372,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2406,7 +2409,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2418,7 +2421,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2435,11 +2438,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>37</v>
@@ -2451,14 +2454,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2472,7 +2475,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2484,7 +2487,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2501,11 +2504,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>24</v>
@@ -2517,14 +2520,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2538,10 +2541,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2550,14 +2553,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2567,11 +2570,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>24</v>
@@ -2583,14 +2586,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2600,11 +2603,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>24</v>
@@ -2616,7 +2619,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2633,14 +2636,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2649,28 +2652,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2682,31 +2685,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2715,14 +2718,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2732,14 +2735,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>153</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2748,14 +2751,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,14 +2768,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>41</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2781,14 +2784,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2798,14 +2801,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,14 +2817,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2831,14 +2834,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2847,14 +2850,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2867,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,14 +2883,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2897,14 +2900,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>51</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2913,14 +2916,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2930,11 +2933,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2946,14 +2949,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,11 +2966,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2979,14 +2982,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,14 +2999,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3019,7 +3022,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3029,14 +3032,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,14 +3048,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,14 +3065,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3078,14 +3081,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,14 +3098,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3111,14 +3114,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,14 +3131,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,14 +3147,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,11 +3164,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3177,14 +3180,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,14 +3197,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,31 +3213,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,14 +3246,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,14 +3263,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,14 +3279,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3293,11 +3296,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>54</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3309,14 +3312,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3326,14 +3329,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3342,7 +3345,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3359,14 +3362,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3392,14 +3395,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,7 +3411,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3425,14 +3428,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>211</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,14 +3444,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3458,11 +3461,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3474,14 +3477,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3491,11 +3494,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3507,14 +3510,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3524,11 +3527,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3540,14 +3543,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3557,14 +3560,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>58</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3580,7 +3583,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3590,14 +3593,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3613,7 +3616,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3623,14 +3626,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>191</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3639,14 +3642,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3660,45 +3663,78 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
-      <c r="P78" s="13">
-        <v>4890.8900000000003</v>
-      </c>
-      <c r="Q78" s="13"/>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c t="s" r="A79" s="14">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
         <v>228</v>
       </c>
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c t="s" r="G79" s="15">
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>43</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>35</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>4996.0600000000004</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
         <v>229</v>
       </c>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="16"/>
-      <c t="s" r="K79" s="17">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
         <v>230</v>
       </c>
-      <c r="L79" s="17"/>
-      <c r="M79" s="17"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="17"/>
-      <c r="P79" s="17"/>
-      <c r="Q79" s="17"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>231</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="367">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4062,10 +4098,15 @@
     <mergeCell ref="H77:K77"/>
     <mergeCell ref="L77:M77"/>
     <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="G79:I79"/>
-    <mergeCell ref="K79:Q79"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -698,7 +698,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 7:33 PM</t>
+    <t>Wednesday, 11 June, 2025 7:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>7.6800</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -200,9 +212,6 @@
     <t>130.6800</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -410,6 +419,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -464,6 +482,12 @@
     <t>240.00</t>
   </si>
   <si>
+    <t>QUADRIDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>RANI-F 20MG 6 SACHETS</t>
   </si>
   <si>
@@ -593,9 +617,6 @@
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
-    <t>84.00</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -698,7 +719,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 7:52 PM</t>
+    <t>Wednesday, 11 June, 2025 7:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,7 +1723,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1712,11 +1733,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>24</v>
@@ -1728,14 +1749,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1745,14 +1766,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1761,7 +1782,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1778,11 +1799,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1794,14 +1815,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1818,7 +1839,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1827,14 +1848,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1844,14 +1865,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1860,14 +1881,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1884,7 +1905,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1893,7 +1914,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1906,18 +1927,18 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>74</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1933,21 +1954,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1959,28 +1980,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1999,24 +2020,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2025,14 +2046,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2049,7 +2070,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2082,7 +2103,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2098,7 +2119,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2108,14 +2129,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2124,14 +2145,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2141,11 +2162,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>24</v>
@@ -2157,14 +2178,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2181,7 +2202,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2197,7 +2218,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2230,7 +2251,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2247,7 +2268,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2263,7 +2284,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2280,7 +2301,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2302,7 +2323,7 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2335,7 +2356,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2395,7 +2416,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2405,7 +2426,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2428,7 +2449,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2438,14 +2459,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2461,7 +2482,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2471,14 +2492,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2494,7 +2515,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2504,7 +2525,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2527,7 +2548,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2537,14 +2558,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2553,31 +2574,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2586,14 +2607,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2603,14 +2624,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2619,20 +2640,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2659,7 +2680,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2676,7 +2697,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2692,13 +2713,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2709,7 +2730,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2725,7 +2746,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2739,10 +2760,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2751,7 +2772,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2764,18 +2785,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2791,7 +2812,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2801,14 +2822,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2817,14 +2838,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2834,11 +2855,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>48</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2850,14 +2871,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2867,14 +2888,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2883,14 +2904,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2900,14 +2921,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2916,14 +2937,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2933,11 +2954,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2973,7 +2994,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2989,7 +3010,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2999,14 +3020,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>55</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3015,14 +3036,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3032,14 +3053,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3048,14 +3069,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3065,11 +3086,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3081,14 +3102,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3105,7 +3126,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3121,7 +3142,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3131,14 +3152,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3147,14 +3168,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3164,11 +3185,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3180,14 +3201,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3197,14 +3218,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3213,14 +3234,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>71</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3230,14 +3251,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3246,31 +3267,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3279,28 +3300,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>54</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3312,31 +3333,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>137</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3345,14 +3366,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3362,14 +3383,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>207</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3378,14 +3399,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3395,14 +3416,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>207</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3418,7 +3439,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3428,14 +3449,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>211</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3461,14 +3482,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3477,14 +3498,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3494,14 +3515,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3517,7 +3538,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3527,14 +3548,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3550,7 +3571,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3560,11 +3581,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3576,14 +3597,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3593,14 +3614,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>58</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3609,14 +3630,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3626,14 +3647,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3642,14 +3663,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3659,14 +3680,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3675,14 +3696,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3692,49 +3713,148 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>4996.0600000000004</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
-        <v>229</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
-        <v>230</v>
-      </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
         <v>231</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>12</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>43</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>205</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>233</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>43</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>35</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>235</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>43</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>35</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>5154.79</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>236</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>237</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>238</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4103,10 +4223,25 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -149,16 +149,28 @@
     <t>25.7400</t>
   </si>
   <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>0:15</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>28.6000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
-    <t>1:5</t>
+    <t>1:4</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>7.6800</t>
+    <t>15.3600</t>
   </si>
   <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
@@ -260,6 +272,15 @@
     <t>290.0000</t>
   </si>
   <si>
+    <t>CLEAR AIR 10MG 14 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -302,12 +323,12 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>1:4</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -398,10 +419,10 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>17.8200</t>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
   </si>
   <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
@@ -458,6 +479,12 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
     <t>OMIT-C MOUTH SPRAY 60 ML</t>
   </si>
   <si>
@@ -482,6 +509,18 @@
     <t>240.00</t>
   </si>
   <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
     <t>QUADRIDERM CREAM 30 GM</t>
   </si>
   <si>
@@ -503,9 +542,6 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>0:15</t>
-  </si>
-  <si>
     <t>141.00</t>
   </si>
   <si>
@@ -596,6 +632,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
   </si>
   <si>
@@ -641,33 +686,39 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
+    <t>24:0</t>
+  </si>
+  <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -707,6 +758,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
     <t>محلول رينجر</t>
   </si>
   <si>
@@ -716,10 +770,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>Wednesday, 11 June, 2025 7:57 PM</t>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>Wednesday, 11 June, 2025 8:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1707,7 +1761,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1740,7 +1794,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1756,7 +1810,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1766,11 +1820,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>24</v>
@@ -1782,14 +1836,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1799,14 +1853,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1815,7 +1869,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1832,11 +1886,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1848,14 +1902,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1872,7 +1926,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1905,7 +1959,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1921,7 +1975,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1931,14 +1985,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>74</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1960,7 +2014,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1971,7 +2025,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1980,28 +2034,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2013,28 +2067,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2046,20 +2100,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2070,7 +2124,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2103,7 +2157,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2119,7 +2173,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2129,14 +2183,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2145,14 +2199,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2169,7 +2223,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2185,7 +2239,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2195,14 +2249,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2211,14 +2265,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2235,7 +2289,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2251,7 +2305,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2261,14 +2315,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2277,7 +2331,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2294,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2310,7 +2364,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2327,11 +2381,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2343,28 +2397,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2376,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2393,14 +2447,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2409,7 +2463,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2426,11 +2480,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2442,28 +2496,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2475,14 +2529,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2492,14 +2546,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2508,14 +2562,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2525,14 +2579,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2541,14 +2595,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2558,14 +2612,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2574,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2591,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2607,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2624,14 +2678,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2640,28 +2694,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2673,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2690,14 +2744,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2706,7 +2760,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2723,14 +2777,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2739,31 +2793,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2772,7 +2826,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2785,18 +2839,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2805,14 +2859,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2822,11 +2876,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -2838,14 +2892,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2855,14 +2909,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>48</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2871,14 +2925,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2888,14 +2942,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2904,31 +2958,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2937,14 +2991,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2954,14 +3008,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2970,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2987,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3003,7 +3057,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3020,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3036,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3053,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3069,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3086,14 +3140,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3102,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3119,11 +3173,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3135,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3152,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3185,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3201,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3218,14 +3272,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3234,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3251,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3267,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3284,11 +3338,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3300,14 +3354,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3317,14 +3371,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3333,14 +3387,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3350,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3366,31 +3420,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3399,31 +3453,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3432,28 +3486,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3465,31 +3519,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3498,31 +3552,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>214</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3538,24 +3592,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>218</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3564,14 +3618,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3581,14 +3635,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3597,14 +3651,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3614,11 +3668,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3630,14 +3684,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3647,14 +3701,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3663,14 +3717,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3684,10 +3738,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q77" s="12">
         <v>229</v>
-      </c>
-      <c t="s" r="Q77" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3703,7 +3757,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3713,14 +3767,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3729,7 +3783,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3750,10 +3804,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>37</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3762,14 +3816,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3779,14 +3833,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>74</v>
+        <v>219</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3795,14 +3849,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3812,49 +3866,313 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>124</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>5154.79</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>236</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>237</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
         <v>238</v>
       </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>239</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>43</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>226</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>240</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>241</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>43</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>242</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>243</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>244</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>43</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>245</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>68</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>43</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>220</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>248</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>12</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>43</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>220</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>110</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>12</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>43</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>226</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>251</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>43</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>35</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>252</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>253</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>43</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>35</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>5578.9700000000003</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>254</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>255</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>256</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4238,10 +4556,50 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -314,18 +314,21 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>8:2</t>
+    <t>8:1</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>11.8800</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -563,6 +566,18 @@
     <t>5.5000</t>
   </si>
   <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -713,24 +728,27 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -773,7 +791,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:01 PM</t>
+    <t>Wednesday, 11 June, 2025 8:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2289,7 +2307,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2319,7 +2337,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2331,7 +2349,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2348,11 +2366,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2364,7 +2382,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2381,11 +2399,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2397,7 +2415,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2414,11 +2432,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2430,7 +2448,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2447,11 +2465,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>68</v>
@@ -2463,7 +2481,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2480,11 +2498,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2496,7 +2514,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2513,11 +2531,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2529,7 +2547,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2546,11 +2564,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2562,7 +2580,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2579,11 +2597,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2595,14 +2613,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2616,7 +2634,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2628,7 +2646,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2645,11 +2663,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>37</v>
@@ -2661,14 +2679,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2682,7 +2700,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>41</v>
@@ -2694,7 +2712,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2711,11 +2729,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>24</v>
@@ -2727,7 +2745,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2744,11 +2762,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>68</v>
@@ -2760,7 +2778,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2777,11 +2795,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2793,14 +2811,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2810,11 +2828,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>24</v>
@@ -2826,7 +2844,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2843,11 +2861,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
@@ -2859,7 +2877,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2876,11 +2894,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -2892,7 +2910,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2909,11 +2927,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2925,7 +2943,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2942,11 +2960,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2958,7 +2976,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2975,11 +2993,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2991,7 +3009,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3008,11 +3026,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>24</v>
@@ -3024,14 +3042,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3041,11 +3059,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>41</v>
@@ -3057,7 +3075,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3078,7 +3096,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3090,7 +3108,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3107,14 +3125,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3123,7 +3141,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3140,11 +3158,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>41</v>
@@ -3156,7 +3174,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3173,7 +3191,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3189,7 +3207,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3206,11 +3224,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3222,14 +3240,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,14 +3257,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3255,14 +3273,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,14 +3290,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>59</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3288,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,11 +3323,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3321,14 +3339,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,11 +3356,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3354,14 +3372,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,14 +3389,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>32</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3420,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3488,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3486,14 +3504,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3521,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,14 +3537,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3536,11 +3554,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3552,7 +3570,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3569,11 +3587,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3585,14 +3603,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3602,14 +3620,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3618,28 +3636,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>145</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>68</v>
@@ -3651,14 +3669,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3686,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>63</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3702,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,14 +3719,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>229</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,7 +3768,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3767,14 +3785,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3783,7 +3801,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3800,14 +3818,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3816,7 +3834,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3833,14 +3851,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>188</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,7 +3867,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3866,14 +3884,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3882,14 +3900,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,11 +3917,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,11 +3950,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3948,14 +3966,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,11 +3983,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3981,14 +3999,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>68</v>
+        <v>250</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,14 +4016,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>220</v>
+        <v>251</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,14 +4049,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4047,7 +4065,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4064,14 +4082,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4080,14 +4098,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,14 +4115,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>35</v>
+        <v>231</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4113,14 +4131,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4134,45 +4152,78 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q89" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>258</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>259</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>43</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>35</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q90" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>5578.9700000000003</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>254</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>255</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
-        <v>256</v>
-      </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>5607.7200000000003</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
+        <v>260</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>261</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>262</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4596,10 +4647,15 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -338,6 +338,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
     <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
   </si>
   <si>
@@ -464,6 +473,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>LEVOTAVIN 500 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -479,9 +497,6 @@
     <t>184.00</t>
   </si>
   <si>
-    <t>92.0000</t>
-  </si>
-  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -614,6 +629,15 @@
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -743,9 +767,6 @@
     <t>صابون CAMAY</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -791,7 +812,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:03 PM</t>
+    <t>Wednesday, 11 June, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2389,7 +2410,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2422,7 +2443,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2455,7 +2476,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2472,7 +2493,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2488,7 +2509,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2505,7 +2526,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2527,7 +2548,7 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2560,7 +2581,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2620,7 +2641,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>131</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2630,7 +2651,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2653,7 +2674,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2663,14 +2684,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>35</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2686,7 +2707,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2696,14 +2717,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2719,7 +2740,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2729,14 +2750,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2752,7 +2773,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2762,14 +2783,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2778,14 +2799,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2795,14 +2816,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2818,24 +2839,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2844,20 +2865,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2901,7 +2922,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2917,7 +2938,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2931,7 +2952,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2943,7 +2964,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2960,14 +2981,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2983,13 +3004,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2997,10 +3018,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3009,14 +3030,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3026,14 +3047,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3049,24 +3070,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3075,14 +3096,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3092,14 +3113,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3108,14 +3129,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3132,7 +3153,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>176</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3141,14 +3162,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3158,14 +3179,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3174,14 +3195,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3191,14 +3212,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3214,7 +3235,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3231,7 +3252,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3247,7 +3268,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>55</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3257,14 +3278,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3273,14 +3294,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3290,14 +3311,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>72</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3306,14 +3327,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3330,7 +3351,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3346,7 +3367,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3356,14 +3377,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3372,14 +3393,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,11 +3410,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3405,14 +3426,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3422,14 +3443,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3438,14 +3459,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3455,11 +3476,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3471,14 +3492,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>37</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3488,14 +3509,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3504,14 +3525,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3521,14 +3542,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3537,14 +3558,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3554,11 +3575,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3570,14 +3591,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3587,14 +3608,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3603,14 +3624,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>68</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3620,14 +3641,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3636,14 +3657,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,14 +3674,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>145</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3676,24 +3697,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>68</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3702,28 +3723,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>68</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3742,21 +3763,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>68</v>
@@ -3768,14 +3789,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3789,10 +3810,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>234</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3808,7 +3829,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,11 +3839,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3834,14 +3855,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3851,14 +3872,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>239</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3884,14 +3905,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>224</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,7 +3921,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3917,11 +3938,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3933,14 +3954,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3950,14 +3971,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3966,14 +3987,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3983,14 +4004,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4006,7 +4027,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4016,11 +4037,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4032,14 +4053,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4049,14 +4070,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>66</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4065,14 +4086,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4082,14 +4103,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4098,14 +4119,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4115,11 +4136,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4131,14 +4152,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>257</v>
+        <v>68</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4148,11 +4169,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>78</v>
@@ -4164,14 +4185,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4181,49 +4202,148 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>35</v>
+        <v>233</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q90" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>262</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>12</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>43</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>239</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>263</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>264</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>43</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>35</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>265</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>266</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>43</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>35</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>177</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>68</v>
       </c>
     </row>
-    <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>5607.7200000000003</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>260</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
-        <v>261</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>262</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5819.7200000000003</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>267</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>268</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>269</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4652,10 +4772,25 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -104,6 +104,9 @@
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>AMRIZOLE 125MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
@@ -188,6 +191,9 @@
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>54.00</t>
   </si>
   <si>
@@ -215,9 +221,6 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -284,7 +287,7 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>21:0</t>
+    <t>31:0</t>
   </si>
   <si>
     <t>33.00</t>
@@ -326,6 +329,9 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:2</t>
+  </si>
+  <si>
     <t>11.8800</t>
   </si>
   <si>
@@ -773,9 +779,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -812,7 +815,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:04 PM</t>
+    <t>Wednesday, 11 June, 2025 8:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1618,7 +1621,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1644,7 +1647,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1661,11 +1664,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1677,7 +1680,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1694,14 +1697,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1710,14 +1713,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1727,14 +1730,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1743,31 +1746,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1776,14 +1779,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1793,14 +1796,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1809,14 +1812,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1826,14 +1829,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1842,14 +1845,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1859,11 +1862,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>24</v>
@@ -1875,14 +1878,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1892,11 +1895,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -1908,7 +1911,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1925,11 +1928,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1941,7 +1944,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1974,14 +1977,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1991,14 +1994,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2007,14 +2010,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2024,11 +2027,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>24</v>
@@ -2040,7 +2043,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2057,14 +2060,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2073,7 +2076,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2086,15 +2089,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2106,14 +2109,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2123,11 +2126,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2139,7 +2142,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2152,15 +2155,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2172,7 +2175,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2189,11 +2192,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>24</v>
@@ -2205,14 +2208,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2222,14 +2225,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2238,7 +2241,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2255,14 +2258,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2271,7 +2274,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2288,11 +2291,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2304,14 +2307,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2321,14 +2324,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2337,14 +2340,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2354,11 +2357,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>24</v>
@@ -2370,14 +2373,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2387,11 +2390,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>24</v>
@@ -2403,7 +2406,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2420,11 +2423,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2436,7 +2439,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2453,11 +2456,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2469,14 +2472,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2486,11 +2489,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2502,14 +2505,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2519,14 +2522,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2535,7 +2538,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2552,11 +2555,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2568,7 +2571,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2581,15 +2584,15 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2601,7 +2604,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2618,11 +2621,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2634,7 +2637,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2651,11 +2654,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2667,14 +2670,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2684,11 +2687,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2700,14 +2703,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2717,14 +2720,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2733,14 +2736,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2750,14 +2753,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2766,7 +2769,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2783,11 +2786,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>24</v>
@@ -2799,14 +2802,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2816,14 +2819,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2832,7 +2835,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2849,11 +2852,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2865,28 +2868,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>24</v>
@@ -2898,7 +2901,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2915,11 +2918,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2931,7 +2934,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2948,11 +2951,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>24</v>
@@ -2964,7 +2967,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2981,11 +2984,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -2997,14 +3000,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3014,11 +3017,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>24</v>
@@ -3030,7 +3033,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3047,11 +3050,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3063,7 +3066,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3076,15 +3079,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3096,14 +3099,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3113,11 +3116,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -3129,14 +3132,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3146,14 +3149,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3162,7 +3165,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3179,11 +3182,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3195,7 +3198,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3212,14 +3215,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3228,14 +3231,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3245,14 +3248,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3261,14 +3264,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3278,11 +3281,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3294,7 +3297,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3311,11 +3314,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3327,14 +3330,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3344,11 +3347,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3360,7 +3363,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3377,14 +3380,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3393,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3410,11 +3413,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3426,7 +3429,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3443,11 +3446,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3459,7 +3462,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3476,11 +3479,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3492,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3509,14 +3512,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3525,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3542,11 +3545,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3558,7 +3561,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3575,11 +3578,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3608,11 +3611,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>24</v>
@@ -3624,14 +3627,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3641,14 +3644,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3657,7 +3660,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3690,14 +3693,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3707,11 +3710,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3723,14 +3726,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3740,11 +3743,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3756,14 +3759,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3773,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3789,31 +3792,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3822,28 +3825,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3855,31 +3858,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3888,7 +3891,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3901,18 +3904,18 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3921,7 +3924,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3934,15 +3937,15 @@
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3954,7 +3957,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3967,18 +3970,18 @@
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3987,7 +3990,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4000,18 +4003,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4020,7 +4023,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4033,15 +4036,15 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4053,28 +4056,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4086,28 +4089,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>60</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4119,28 +4122,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4152,31 +4155,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4185,7 +4188,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4198,18 +4201,18 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4218,7 +4221,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4231,15 +4234,15 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4251,31 +4254,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4284,31 +4287,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>68</v>
+        <v>31</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4319,7 +4322,7 @@
     </row>
     <row r="95" ht="16.5" customHeight="1">
       <c t="s" r="A95" s="14">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
@@ -4327,13 +4330,13 @@
       <c r="E95" s="14"/>
       <c r="F95" s="14"/>
       <c t="s" r="G95" s="15">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="16"/>
       <c t="s" r="K95" s="17">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L95" s="17"/>
       <c r="M95" s="17"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -287,13 +287,13 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>31:0</t>
+    <t>30:0</t>
   </si>
   <si>
     <t>33.00</t>
   </si>
   <si>
-    <t>99.0000</t>
+    <t>132.0000</t>
   </si>
   <si>
     <t>CORTIPLEX B6 ADULT 3 AMP.</t>
@@ -458,6 +458,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -815,7 +824,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:10 PM</t>
+    <t>Wednesday, 11 June, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2232,7 +2241,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2875,24 +2884,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2901,20 +2910,20 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2925,7 +2934,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2941,7 +2950,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2958,7 +2967,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2974,7 +2983,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2988,7 +2997,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -3000,14 +3009,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3017,11 +3026,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>24</v>
@@ -3033,14 +3042,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3073,13 +3082,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3106,13 +3115,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3120,10 +3129,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3153,10 +3162,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3165,14 +3174,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>53</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>53</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3231,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3248,14 +3257,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>185</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3271,7 +3280,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3285,10 +3294,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>37</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3297,14 +3306,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3314,14 +3323,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3337,7 +3346,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3363,14 +3372,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3380,14 +3389,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3396,14 +3405,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,14 +3422,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>61</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3436,7 +3445,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3469,7 +3478,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3502,7 +3511,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3512,14 +3521,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3528,14 +3537,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,14 +3554,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3568,7 +3577,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,7 +3587,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>121</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3601,7 +3610,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,14 +3620,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3627,14 +3636,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,14 +3653,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3660,14 +3669,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3684,7 +3693,7 @@
         <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3700,7 +3709,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3733,7 +3742,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3766,7 +3775,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,28 +3801,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>234</v>
+        <v>79</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>31</v>
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,14 +3851,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>65</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3858,14 +3867,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,14 +3884,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>64</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3898,7 +3907,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>244</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3945,10 +3954,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>247</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3974,14 +3983,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,7 +3999,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4007,14 +4016,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>234</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4023,7 +4032,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4040,14 +4049,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4056,14 +4065,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>60</v>
+        <v>212</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,11 +4115,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>60</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4143,7 +4152,7 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>31</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>68</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4221,7 +4230,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>254</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,14 +4280,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4308,45 +4317,78 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q93" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>269</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>270</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>44</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>36</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>31</v>
       </c>
     </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5819.7200000000003</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>268</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>269</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>270</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5907.7200000000003</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>271</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>272</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>273</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4790,10 +4832,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -191,520 +191,520 @@
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>BLOKIUM DIU 100/25MG 15 TAB.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>BRINGO TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>130.6800</t>
+  </si>
+  <si>
+    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>19.2000</t>
+  </si>
+  <si>
+    <t>CEFZIM 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>59.00</t>
+  </si>
+  <si>
+    <t>236.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>CERELAC قمح وتفاح بدون لبن</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>29:0</t>
+  </si>
+  <si>
+    <t>CHICKS GROWEE SYRUP</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>290.0000</t>
+  </si>
+  <si>
+    <t>CLEAR AIR 10MG 14 TAB</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>132.0000</t>
+  </si>
+  <si>
+    <t>CORTIPLEX B6 ADULT 3 AMP.</t>
+  </si>
+  <si>
+    <t>31.50</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DALACIN C 300MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>114.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>5:2</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>396.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>5:1</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>IVYROSPAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:20</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LEVOTAVIN 500 MG 7 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>MOFLOX 400MG 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>184.00</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>OMIT-C MOUTH SPRAY 60 ML</t>
+  </si>
+  <si>
+    <t>39.50</t>
+  </si>
+  <si>
+    <t>39.5000</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>752.00</t>
+  </si>
+  <si>
+    <t>75.2000</t>
+  </si>
+  <si>
+    <t>QUADRIDERM CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>SILDEN 50 MG 4 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>5.5000</t>
+  </si>
+  <si>
+    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>12.8700</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>107.4600</t>
+  </si>
+  <si>
+    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>38.0000</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8673:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>XITHRONE 500MG 5 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
     <t>5:0</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>BLOKIUM DIU 100/25MG 15 TAB.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>BRINGO TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>BRUFEN 600MG 30 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>130.6800</t>
-  </si>
-  <si>
-    <t>CATAFLAM 75MG/3ML 6 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>19.2000</t>
-  </si>
-  <si>
-    <t>CEFZIM 1 GM VIAL</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
-    <t>236.0000</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>CERELAC قمح وتفاح بدون لبن</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CETAL 250MG/5ML 60ML SUSP</t>
-  </si>
-  <si>
-    <t>29:0</t>
-  </si>
-  <si>
-    <t>CHICKS GROWEE SYRUP</t>
-  </si>
-  <si>
-    <t>290.00</t>
-  </si>
-  <si>
-    <t>290.0000</t>
-  </si>
-  <si>
-    <t>CLEAR AIR 10MG 14 TAB</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>132.0000</t>
-  </si>
-  <si>
-    <t>CORTIPLEX B6 ADULT 3 AMP.</t>
-  </si>
-  <si>
-    <t>31.50</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DALACIN C 300MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>114.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>DIPROSALIC LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>396.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>5:1</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>IVYROSPAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>84.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:20</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LEVOTAVIN 500 MG 7 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
-  </si>
-  <si>
-    <t>145.00</t>
-  </si>
-  <si>
-    <t>72.5000</t>
-  </si>
-  <si>
-    <t>MOFLOX 400MG 10 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>184.00</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>OMIT-C MOUTH SPRAY 60 ML</t>
-  </si>
-  <si>
-    <t>39.50</t>
-  </si>
-  <si>
-    <t>39.5000</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>752.00</t>
-  </si>
-  <si>
-    <t>75.2000</t>
-  </si>
-  <si>
-    <t>QUADRIDERM CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>141.00</t>
-  </si>
-  <si>
-    <t>14.1000</t>
-  </si>
-  <si>
-    <t>ROWATINEX 45 CAPSULES</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>SILDEN 50 MG 4 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>5.5000</t>
-  </si>
-  <si>
-    <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>12.8700</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>107.4600</t>
-  </si>
-  <si>
-    <t>SPASMOPYRALGIN 10 TABLETS 1 STRIP</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>TAMSULIN PLUS 6/0.4MG 20 MR TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>148.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>UROSOLVINE EFF. GRAN. 12 SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>38.0000</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8673:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>XITHRONE 500MG 5 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>ZITHROMAX 1200MG/30ML (200MG/5ML) SUSP.</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
     <t>96.00</t>
@@ -1911,7 +1911,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -3379,7 +3379,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,11 +3389,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>73</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3455,11 +3455,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3488,11 +3488,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3504,7 +3504,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3521,11 +3521,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3570,14 +3570,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3620,11 +3620,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3636,14 +3636,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,11 +3653,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3669,14 +3669,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,11 +3686,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>79</v>
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3719,11 +3719,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3752,11 +3752,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3768,14 +3768,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>237</v>
@@ -4105,7 +4105,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4138,7 +4138,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="95" ht="24.75" customHeight="1">
       <c r="P95" s="13">
-        <v>5907.7200000000003</v>
+        <v>5934.7200000000003</v>
       </c>
       <c r="Q95" s="13"/>
     </row>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -101,6 +101,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 5/160MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>AMBEZIM-G 30 F.C. TABS.</t>
   </si>
   <si>
@@ -314,6 +323,15 @@
     <t>114.0000</t>
   </si>
   <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>54.4500</t>
+  </si>
+  <si>
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
@@ -767,7 +785,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1630,7 +1648,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1640,11 +1658,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1673,11 +1691,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1696,7 +1714,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1713,7 +1731,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1722,14 +1740,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1739,14 +1757,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>40</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>41</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1755,31 +1773,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1788,31 +1806,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1821,14 +1839,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1838,14 +1856,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1854,14 +1872,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1871,14 +1889,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1904,14 +1922,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1920,14 +1938,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1993,7 +2011,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2010,7 +2028,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2026,7 +2044,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2036,14 +2054,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2076,7 +2094,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2085,7 +2103,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2098,18 +2116,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>82</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2125,21 +2143,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2151,28 +2169,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2191,13 +2209,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2208,7 +2226,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2224,7 +2242,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2274,7 +2292,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2307,7 +2325,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2323,7 +2341,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2333,14 +2351,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2366,14 +2384,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2382,14 +2400,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2406,7 +2424,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2422,7 +2440,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2455,7 +2473,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2472,7 +2490,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2521,7 +2539,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2538,7 +2556,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2554,7 +2572,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2587,13 +2605,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2604,7 +2622,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2659,7 +2677,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2686,7 +2704,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2696,7 +2714,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2719,7 +2737,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2736,7 +2754,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2762,14 +2780,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2785,7 +2803,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2802,7 +2820,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2818,7 +2836,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2828,14 +2846,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2844,14 +2862,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2917,24 +2935,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2943,7 +2961,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2960,11 +2978,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2976,20 +2994,20 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3030,10 +3048,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3059,11 +3077,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>24</v>
@@ -3075,7 +3093,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3108,31 +3126,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3148,7 +3166,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3162,10 +3180,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3174,20 +3192,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3198,7 +3216,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3214,7 +3232,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3224,14 +3242,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3247,7 +3265,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3257,14 +3275,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>186</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3280,7 +3298,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3290,14 +3308,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>56</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3323,14 +3341,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3339,14 +3357,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3356,14 +3374,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3389,14 +3407,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3412,7 +3430,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3422,14 +3440,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3438,14 +3456,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3455,14 +3473,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3511,7 +3529,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3544,7 +3562,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3554,14 +3572,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>33</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3587,11 +3605,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>36</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3653,14 +3671,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>127</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,14 +3704,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3702,14 +3720,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3735,14 +3753,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3759,7 +3777,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3775,7 +3793,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3785,11 +3803,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3818,14 +3836,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3847,7 +3865,7 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3858,7 +3876,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3874,24 +3892,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>65</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3913,7 +3931,7 @@
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
@@ -3921,10 +3939,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3933,31 +3951,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>247</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3973,24 +3991,24 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4012,18 +4030,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4032,7 +4050,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4045,18 +4063,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,7 +4083,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4078,18 +4096,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>258</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4098,31 +4116,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>211</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4131,28 +4149,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4164,24 +4182,24 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
@@ -4204,24 +4222,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>31</v>
+        <v>237</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4230,31 +4248,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>116</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4263,20 +4281,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4284,10 +4302,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>257</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4296,31 +4314,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>36</v>
+        <v>244</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4329,66 +4347,132 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>250</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5934.7200000000003</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>271</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>272</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
         <v>273</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>274</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>47</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>39</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>275</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>276</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>47</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>39</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>188</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>6073.1700000000001</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>277</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>278</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>279</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4837,10 +4921,20 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -842,7 +842,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:12 PM</t>
+    <t>Wednesday, 11 June, 2025 8:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -293,6 +293,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">COFDIETIN  CAPS</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -452,6 +458,15 @@
     <t>78.0000</t>
   </si>
   <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -473,9 +488,6 @@
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>IVYROSPAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -536,6 +548,15 @@
     <t>152.00</t>
   </si>
   <si>
+    <t>NOVALGIN 500MG/ML 3 AMP. FOR I.M./I.V. INJ.</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>20.2500</t>
+  </si>
+  <si>
     <t>OMIT-C MOUTH SPRAY 60 ML</t>
   </si>
   <si>
@@ -656,6 +677,9 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -842,7 +866,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:23 PM</t>
+    <t>Wednesday, 11 June, 2025 8:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2275,24 +2299,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2318,14 +2342,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>45</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2334,7 +2358,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2351,14 +2375,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2367,14 +2391,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2384,14 +2408,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2400,14 +2424,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2417,11 +2441,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>45</v>
@@ -2433,14 +2457,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2450,14 +2474,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2466,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2483,11 +2507,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>24</v>
@@ -2499,14 +2523,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2516,14 +2540,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2532,14 +2556,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2549,11 +2573,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2582,11 +2606,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2615,14 +2639,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2631,14 +2655,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2648,14 +2672,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2664,7 +2688,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2677,15 +2701,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2697,7 +2721,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2710,15 +2734,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2730,7 +2754,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2747,11 +2771,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2780,11 +2804,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2796,14 +2820,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2813,14 +2837,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2829,14 +2853,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2846,14 +2870,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2862,7 +2886,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2895,14 +2919,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2912,14 +2936,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2935,7 +2959,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2952,7 +2976,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2968,7 +2992,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2978,14 +3002,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2994,31 +3018,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3027,7 +3051,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3044,11 +3068,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3060,28 +3084,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>24</v>
@@ -3093,7 +3117,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3110,14 +3134,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3143,11 +3167,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -3180,10 +3204,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3192,31 +3216,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3225,14 +3249,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3242,14 +3266,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3275,14 +3299,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3291,28 +3315,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>56</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3324,14 +3348,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3341,14 +3365,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>192</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3357,14 +3381,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3374,11 +3398,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>45</v>
@@ -3390,14 +3414,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3407,11 +3431,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>56</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3423,14 +3447,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3440,14 +3464,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3456,14 +3480,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3473,14 +3497,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3489,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3506,14 +3530,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>64</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3522,14 +3546,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3539,14 +3563,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3555,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3572,14 +3596,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3588,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3605,14 +3629,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3621,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3638,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>180</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3661,7 +3685,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3671,7 +3695,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>127</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3694,7 +3718,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3727,7 +3751,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3737,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3753,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3770,14 +3794,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>36</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3786,14 +3810,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3803,11 +3827,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3819,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3836,11 +3860,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3852,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3869,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3885,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3902,14 +3926,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>159</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3918,31 +3942,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3951,28 +3975,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>247</v>
+        <v>34</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>67</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3984,31 +4008,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4017,31 +4041,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>253</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4050,14 +4074,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4067,14 +4091,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4083,14 +4107,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4100,14 +4124,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>137</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>258</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4116,14 +4140,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4133,14 +4157,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>208</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>243</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4149,7 +4173,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4166,14 +4190,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>261</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4189,7 +4213,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4199,11 +4223,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4215,14 +4239,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4232,14 +4256,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4248,14 +4272,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4265,14 +4289,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4281,14 +4305,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4298,14 +4322,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4314,14 +4338,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4331,14 +4355,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>122</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4354,7 +4378,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4364,11 +4388,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4380,14 +4404,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4397,14 +4421,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>39</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4413,14 +4437,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4430,49 +4454,181 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q96" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>279</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>12</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>47</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>252</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>280</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>12</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>47</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>258</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>271</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>281</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>282</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>47</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>39</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>283</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>284</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>47</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>39</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q100" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>6073.1700000000001</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
-        <v>277</v>
-      </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
-        <v>278</v>
-      </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
-        <v>279</v>
-      </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>6387.4200000000001</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>285</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>286</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>287</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4931,10 +5087,30 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -311,6 +311,15 @@
     <t>132.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>CORTIPLEX B6 ADULT 3 AMP.</t>
   </si>
   <si>
@@ -467,6 +476,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -557,6 +575,15 @@
     <t>20.2500</t>
   </si>
   <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>411.00</t>
+  </si>
+  <si>
+    <t>135.6300</t>
+  </si>
+  <si>
     <t>OMIT-C MOUTH SPRAY 60 ML</t>
   </si>
   <si>
@@ -575,6 +602,12 @@
     <t>62.0000</t>
   </si>
   <si>
+    <t>PEPZOL 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
     <t>PRONTOGEST 100MG/2ML 10 IM AMPOULE</t>
   </si>
   <si>
@@ -866,7 +899,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:33 PM</t>
+    <t>Wednesday, 11 June, 2025 8:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2365,7 +2398,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2382,7 +2415,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2415,7 +2448,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2431,7 +2464,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2448,7 +2481,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2464,7 +2497,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2474,11 +2507,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>45</v>
@@ -2490,14 +2523,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2507,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2530,7 +2563,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2540,7 +2573,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2563,7 +2596,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2580,7 +2613,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2596,7 +2629,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2629,7 +2662,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2662,7 +2695,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2679,7 +2712,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2695,7 +2728,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2712,7 +2745,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2734,7 +2767,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2767,7 +2800,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2827,7 +2860,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2837,7 +2870,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>39</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2860,7 +2893,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>39</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2893,7 +2926,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2910,7 +2943,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2926,7 +2959,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,14 +2969,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2959,7 +2992,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2992,7 +3025,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3002,14 +3035,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3018,14 +3051,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3035,14 +3068,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3051,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3068,14 +3101,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3091,24 +3124,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3117,7 +3150,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3134,11 +3167,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3150,20 +3183,20 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3204,10 +3237,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3216,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3233,11 +3266,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
@@ -3249,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3266,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3282,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3299,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3322,13 +3355,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3355,7 +3388,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3369,7 +3402,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3381,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3405,7 +3438,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3421,21 +3454,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>56</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3447,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>60</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>199</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3480,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3497,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3513,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>59</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3553,7 +3586,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,14 +3596,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>56</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3579,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3596,14 +3629,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q70" s="12">
         <v>210</v>
-      </c>
-      <c t="s" r="Q70" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3619,7 +3652,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,11 +3695,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3702,7 +3735,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3718,7 +3751,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3735,7 +3768,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3761,14 +3794,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3777,14 +3810,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,14 +3827,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3810,14 +3843,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3827,11 +3860,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3843,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3876,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>169</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3916,7 +3949,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,14 +3959,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3942,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,11 +3992,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>132</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3975,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,11 +4025,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4008,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4041,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>82</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4074,31 +4107,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4107,28 +4140,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>255</v>
+        <v>34</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>67</v>
+        <v>253</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4140,31 +4173,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>85</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4180,24 +4213,24 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>261</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4206,14 +4239,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4230,7 +4263,7 @@
         <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4246,7 +4279,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4256,14 +4289,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>266</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4279,7 +4312,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4289,14 +4322,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>215</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>251</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4305,7 +4338,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4322,14 +4355,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4338,14 +4371,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4355,11 +4388,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4371,14 +4404,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>245</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,14 +4421,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4404,14 +4437,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>275</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4421,14 +4454,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4437,14 +4470,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,14 +4487,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>71</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4470,14 +4503,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,14 +4520,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>124</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4503,14 +4536,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,11 +4553,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4536,14 +4569,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4553,14 +4586,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>39</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4569,14 +4602,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4586,49 +4619,181 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>195</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q100" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>290</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>12</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>47</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>263</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>291</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>12</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>47</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>269</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>282</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>292</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>293</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>47</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>39</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>294</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>295</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>47</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>39</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>6387.4200000000001</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>285</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>286</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>287</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>6728.0299999999997</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>296</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>297</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>298</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5107,10 +5272,30 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -272,7 +272,10 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
-    <t>29:0</t>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>62.0000</t>
   </si>
   <si>
     <t>CHICKS GROWEE SYRUP</t>
@@ -599,9 +602,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>62.0000</t>
-  </si>
-  <si>
     <t>PEPZOL 40MG 14 CAPS</t>
   </si>
   <si>
@@ -830,6 +830,9 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>زيت جونسون كبير</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -854,6 +857,15 @@
     <t>3.0000</t>
   </si>
   <si>
+    <t>شامبو جونسون وسط</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>صابون CAMAY</t>
   </si>
   <si>
@@ -884,6 +896,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>ليفه اطفال اشكال</t>
+  </si>
+  <si>
     <t>ماسك جلسات اطفال</t>
   </si>
   <si>
@@ -899,7 +914,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:43 PM</t>
+    <t>Wednesday, 11 June, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2247,10 +2262,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2259,7 +2274,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2276,11 +2291,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2292,7 +2307,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2309,11 +2324,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>24</v>
@@ -2325,7 +2340,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2346,7 +2361,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2375,11 +2390,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>82</v>
@@ -2391,7 +2406,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2408,11 +2423,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>24</v>
@@ -2424,7 +2439,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2441,11 +2456,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>45</v>
@@ -2457,7 +2472,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2474,11 +2489,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2490,7 +2505,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2507,11 +2522,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>45</v>
@@ -2523,14 +2538,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,11 +2555,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>45</v>
@@ -2556,14 +2571,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,11 +2588,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>24</v>
@@ -2589,7 +2604,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2606,11 +2621,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>24</v>
@@ -2622,7 +2637,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2639,11 +2654,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2655,7 +2670,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2672,11 +2687,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2688,7 +2703,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2705,11 +2720,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2721,7 +2736,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2738,11 +2753,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>34</v>
@@ -2754,7 +2769,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2771,11 +2786,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2787,7 +2802,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2804,11 +2819,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2820,7 +2835,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2837,11 +2852,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2853,7 +2868,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2870,11 +2885,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2886,14 +2901,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2907,7 +2922,7 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2919,7 +2934,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2936,11 +2951,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>41</v>
@@ -2952,7 +2967,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2969,11 +2984,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2985,7 +3000,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3002,11 +3017,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>24</v>
@@ -3018,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3039,7 +3054,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>45</v>
@@ -3051,7 +3066,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3068,11 +3083,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>24</v>
@@ -3084,7 +3099,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3101,11 +3116,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>34</v>
@@ -3117,7 +3132,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3134,11 +3149,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3150,7 +3165,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3167,11 +3182,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3183,14 +3198,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,11 +3215,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>24</v>
@@ -3216,7 +3231,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3233,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3249,7 +3264,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3266,11 +3281,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>24</v>
@@ -3282,7 +3297,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3299,11 +3314,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>24</v>
@@ -3315,7 +3330,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3332,11 +3347,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3348,7 +3363,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3365,11 +3380,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3381,7 +3396,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3398,11 +3413,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3414,7 +3429,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3431,11 +3446,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3447,7 +3462,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3464,11 +3479,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3534,7 +3549,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>24</v>
@@ -3926,11 +3941,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3963,7 +3978,7 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>34</v>
@@ -3992,7 +4007,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -4223,7 +4238,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4388,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4404,7 +4419,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4421,14 +4436,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,7 +4452,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4454,14 +4469,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4491,10 +4506,10 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,14 +4518,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4520,11 +4535,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4536,14 +4551,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4553,11 +4568,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4576,7 +4591,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4586,11 +4601,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4602,14 +4617,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>34</v>
+        <v>256</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4619,14 +4634,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4652,14 +4667,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,14 +4683,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4685,14 +4700,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4701,14 +4716,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4718,14 +4733,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>258</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4734,14 +4749,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4751,49 +4766,148 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>296</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>12</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>47</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>269</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>297</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>298</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>47</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>39</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>299</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>300</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>47</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>39</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>206</v>
       </c>
-      <c t="s" r="Q104" s="12">
+      <c t="s" r="Q107" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>6728.0299999999997</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>296</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
-        <v>297</v>
-      </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>298</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>6984.0299999999997</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>301</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>302</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>303</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5292,10 +5406,25 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:44 PM</t>
+    <t>Wednesday, 11 June, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:53 PM</t>
+    <t>Wednesday, 11 June, 2025 8:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:54 PM</t>
+    <t>Wednesday, 11 June, 2025 8:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -527,6 +527,24 @@
     <t>84.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -659,6 +677,15 @@
     <t>72.00</t>
   </si>
   <si>
+    <t>SHOMA CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>SILDEN 50 MG 4 F.C. TABS.</t>
   </si>
   <si>
@@ -710,6 +737,15 @@
     <t>148.0000</t>
   </si>
   <si>
+    <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
   </si>
   <si>
@@ -803,9 +839,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>بلاستر مترسيلك 2.5 سم</t>
   </si>
   <si>
@@ -830,6 +863,12 @@
     <t>10:0</t>
   </si>
   <si>
+    <t>زيت جونسون صغير</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>زيت جونسون كبير</t>
   </si>
   <si>
@@ -875,9 +914,6 @@
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>غيار جروح غير لاصق10*10</t>
   </si>
   <si>
@@ -914,7 +950,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 8:57 PM</t>
+    <t>Wednesday, 11 June, 2025 9:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3205,24 +3241,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3231,14 +3267,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3248,14 +3284,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3264,20 +3300,20 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>24</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3318,10 +3354,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3330,14 +3366,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3347,11 +3383,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3363,14 +3399,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3380,14 +3416,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3396,14 +3432,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3413,11 +3449,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3436,7 +3472,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3469,13 +3505,13 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3483,10 +3519,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3495,7 +3531,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3512,11 +3548,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>60</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3528,31 +3564,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3561,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3578,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>60</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3601,7 +3637,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3611,14 +3647,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3634,7 +3670,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3644,14 +3680,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3667,7 +3703,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3677,14 +3713,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3693,14 +3729,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3710,14 +3746,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>40</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3726,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3743,14 +3779,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,14 +3795,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3776,14 +3812,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3809,14 +3845,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3825,14 +3861,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3878,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3858,14 +3894,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3875,14 +3911,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3927,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3944,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>64</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3931,7 +3967,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,11 +3977,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3957,14 +3993,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3974,14 +4010,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>88</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3990,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4007,11 +4043,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4023,7 +4059,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4040,11 +4076,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4056,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4073,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4089,14 +4125,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4142,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>36</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4139,11 +4175,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4155,14 +4191,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,11 +4208,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4188,14 +4224,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4241,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,14 +4257,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4274,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4261,24 +4297,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4287,28 +4323,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>67</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4333,7 +4369,7 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4341,10 +4377,10 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>85</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,31 +4389,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>170</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>272</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4393,7 +4429,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,14 +4439,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4419,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>277</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,11 +4472,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4452,14 +4488,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>279</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>278</v>
+        <v>34</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4485,7 +4521,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4502,14 +4538,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>262</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,14 +4554,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4535,11 +4571,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>121</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4551,7 +4587,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4568,11 +4604,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4584,14 +4620,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4601,11 +4637,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4617,14 +4653,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,14 +4670,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>264</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4686,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,14 +4703,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>292</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4690,7 +4726,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,14 +4736,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4716,7 +4752,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4733,14 +4769,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,14 +4785,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,11 +4802,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4782,14 +4818,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>268</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,11 +4835,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4815,14 +4851,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4868,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>39</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>258</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,14 +4884,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,49 +4901,214 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>39</v>
+        <v>275</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q107" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>306</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>12</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>47</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>275</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>128</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>307</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>16</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>47</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>280</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>308</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>12</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>47</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>280</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>299</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>309</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>310</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>47</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>39</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>311</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>312</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>47</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>39</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>212</v>
+      </c>
+      <c t="s" r="Q112" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>6984.0299999999997</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>301</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>302</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>303</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>7249.0299999999997</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>313</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>314</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>315</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5421,10 +5622,35 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>15.3600</t>
   </si>
   <si>
+    <t>BENZANIL GEL 80 GM</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -362,6 +371,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DEVAROL-S 200000 I.U AMPOULE</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>34.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -791,9 +809,6 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>XITHRONE 500MG 5 F.C.TAB.</t>
   </si>
   <si>
@@ -950,7 +965,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:11 PM</t>
+    <t>Wednesday, 11 June, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2020,7 +2035,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2030,14 +2045,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2063,14 +2078,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2079,14 +2094,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2152,7 +2167,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2169,7 +2184,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2185,7 +2200,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2195,14 +2210,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2235,7 +2250,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2244,7 +2259,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2257,18 +2272,18 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>85</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2284,24 +2299,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2317,24 +2332,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2350,13 +2365,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2367,7 +2382,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2383,24 +2398,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2409,31 +2424,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2466,7 +2481,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2482,7 +2497,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2499,7 +2514,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2532,7 +2547,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2548,7 +2563,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2565,7 +2580,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2581,7 +2596,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2591,11 +2606,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>45</v>
@@ -2607,14 +2622,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2647,7 +2662,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2664,7 +2679,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2680,7 +2695,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2690,14 +2705,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2713,7 +2728,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2730,7 +2745,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2746,7 +2761,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2779,7 +2794,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2796,7 +2811,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2812,7 +2827,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2845,13 +2860,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2862,7 +2877,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2917,7 +2932,7 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2944,7 +2959,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2954,7 +2969,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2977,7 +2992,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2994,7 +3009,7 @@
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3010,7 +3025,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3020,7 +3035,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3043,7 +3058,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3060,7 +3075,7 @@
         <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3076,7 +3091,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3086,14 +3101,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3109,7 +3124,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3142,7 +3157,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3168,14 +3183,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3185,14 +3200,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3201,14 +3216,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3241,7 +3256,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3274,7 +3289,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3291,7 +3306,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3307,24 +3322,24 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3333,14 +3348,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3366,20 +3381,20 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3420,10 +3435,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3449,11 +3464,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3465,14 +3480,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3482,14 +3497,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3515,11 +3530,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3538,7 +3553,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3571,13 +3586,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3585,10 +3600,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>88</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3597,7 +3612,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3614,11 +3629,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>60</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3630,31 +3645,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3680,14 +3695,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>63</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3703,7 +3718,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3713,14 +3728,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3736,7 +3751,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3746,14 +3761,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>216</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3769,7 +3784,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3779,14 +3794,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>56</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3795,14 +3810,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3812,14 +3827,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>40</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>222</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3845,14 +3860,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3861,14 +3876,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3901,7 +3916,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3918,7 +3933,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3934,7 +3949,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3944,14 +3959,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3960,14 +3975,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3977,14 +3992,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3993,14 +4008,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4010,14 +4025,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4033,7 +4048,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4066,7 +4081,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4099,7 +4114,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4109,11 +4124,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>170</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4142,14 +4157,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>88</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4158,14 +4173,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4175,11 +4190,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4191,14 +4206,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4208,14 +4223,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4241,14 +4256,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4257,14 +4272,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4274,14 +4289,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4290,14 +4305,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>260</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4307,14 +4322,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4323,14 +4338,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4344,10 +4359,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4356,14 +4371,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4373,11 +4388,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4389,14 +4404,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4406,14 +4421,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4422,31 +4437,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4462,24 +4477,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>277</v>
+        <v>85</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>68</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4509,7 +4524,7 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>34</v>
@@ -4528,7 +4543,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4538,14 +4553,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4554,14 +4569,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4571,14 +4586,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>121</v>
+        <v>285</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4604,14 +4619,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>77</v>
+        <v>287</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>96</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4620,14 +4635,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4637,11 +4652,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>127</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4653,7 +4668,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4670,14 +4685,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>291</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4703,14 +4718,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4719,7 +4734,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4736,14 +4751,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>296</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4752,7 +4767,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4769,14 +4784,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4792,7 +4807,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4802,7 +4817,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4825,7 +4840,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>268</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4835,11 +4850,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>244</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4851,14 +4866,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4868,7 +4883,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4891,7 +4906,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4901,14 +4916,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>71</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4924,7 +4939,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>307</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4934,14 +4949,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>128</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4950,14 +4965,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4971,10 +4986,10 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4983,7 +4998,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5004,10 +5019,10 @@
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>299</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5016,14 +5031,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5033,14 +5048,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5049,14 +5064,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5066,49 +5081,115 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>212</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>314</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>315</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>47</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>39</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>275</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>316</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>317</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>47</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>39</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q114" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>7249.0299999999997</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>313</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>314</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>315</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>7291.0299999999997</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
+        <v>318</v>
+      </c>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>319</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>320</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5647,10 +5728,20 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -524,6 +524,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>HEALSEC 20MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -599,6 +608,18 @@
     <t>184.00</t>
   </si>
   <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>NASONEX 0.05% NASAL SPRAY 120 DOSES</t>
+  </si>
+  <si>
+    <t>157.00</t>
+  </si>
+  <si>
+    <t>157.0000</t>
+  </si>
+  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -632,6 +653,9 @@
     <t>39.5000</t>
   </si>
   <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>PANADOL ACUTE HEAD COLD</t>
   </si>
   <si>
@@ -845,6 +869,12 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>ZYRTEC 0.1% SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
@@ -965,7 +995,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:13 PM</t>
+    <t>Wednesday, 11 June, 2025 9:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3223,7 +3253,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3233,14 +3263,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3249,14 +3279,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3266,14 +3296,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3322,7 +3352,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3355,7 +3385,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3372,7 +3402,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3388,21 +3418,21 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3414,20 +3444,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3438,7 +3468,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3454,7 +3484,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3471,7 +3501,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3487,7 +3517,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3501,7 +3531,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3513,14 +3543,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3530,11 +3560,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3546,14 +3576,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3563,11 +3593,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3579,14 +3609,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3596,14 +3626,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3612,14 +3642,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3629,14 +3659,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3645,28 +3675,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3678,14 +3708,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3695,14 +3725,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3718,7 +3748,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3732,10 +3762,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3744,14 +3774,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3761,14 +3791,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3777,28 +3807,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>56</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3810,14 +3840,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3827,14 +3857,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3843,14 +3873,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3860,14 +3890,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3876,14 +3906,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>62</v>
+        <v>222</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3893,14 +3923,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3909,7 +3939,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3926,11 +3956,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3942,14 +3972,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3959,14 +3989,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3975,14 +4005,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3992,14 +4022,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4008,14 +4038,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4025,14 +4055,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>67</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4041,14 +4071,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4058,11 +4088,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4074,7 +4104,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4091,14 +4121,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4107,14 +4137,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4124,14 +4154,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4140,7 +4170,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4157,14 +4187,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4173,14 +4203,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4190,11 +4220,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4206,14 +4236,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4223,14 +4253,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>91</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4246,7 +4276,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>254</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4256,7 +4286,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>139</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4312,7 +4342,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4322,14 +4352,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4338,14 +4368,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4355,14 +4385,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>36</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4371,14 +4401,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4388,11 +4418,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>139</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4404,14 +4434,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4421,11 +4451,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4437,14 +4467,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4454,14 +4484,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4470,14 +4500,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>85</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4487,14 +4517,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4503,31 +4533,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4536,28 +4566,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>282</v>
+        <v>34</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4569,31 +4599,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>88</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4602,31 +4632,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>288</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4635,28 +4665,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>127</v>
+        <v>269</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4668,14 +4698,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4685,14 +4715,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>99</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4701,14 +4731,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4718,11 +4748,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>293</v>
+        <v>70</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4734,14 +4764,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>294</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4751,14 +4781,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>296</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4767,7 +4797,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4784,14 +4814,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4800,14 +4830,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4817,11 +4847,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4833,7 +4863,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4850,11 +4880,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>302</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4866,14 +4896,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4883,7 +4913,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4906,7 +4936,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4916,14 +4946,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4932,14 +4962,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>307</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4949,14 +4979,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>309</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4965,14 +4995,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4982,14 +5012,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4998,7 +5028,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5015,14 +5045,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5031,14 +5061,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>16</v>
+        <v>262</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5048,11 +5078,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5064,14 +5094,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5081,11 +5111,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5097,14 +5127,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5114,14 +5144,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5130,14 +5160,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>34</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5147,49 +5177,214 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>39</v>
+        <v>290</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q114" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>321</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>12</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>47</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>290</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>134</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>322</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>16</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>47</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>295</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>323</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>12</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>47</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>295</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>314</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>324</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>325</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>47</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>39</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
+        <v>283</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>326</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>327</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>47</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>39</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q119" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>7291.0299999999997</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>318</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>319</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>320</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="P120" s="13">
+        <v>7601.0299999999997</v>
+      </c>
+      <c r="Q120" s="13"/>
+    </row>
+    <row r="121" ht="16.5" customHeight="1">
+      <c t="s" r="A121" s="14">
+        <v>328</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c t="s" r="G121" s="15">
+        <v>329</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c t="s" r="K121" s="17">
+        <v>330</v>
+      </c>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="17"/>
+      <c r="P121" s="17"/>
+      <c r="Q121" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="577">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5738,10 +5933,35 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="P120:Q120"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:Q121"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -593,6 +593,12 @@
     <t>92.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
   </si>
   <si>
@@ -719,6 +725,15 @@
     <t>72.00</t>
   </si>
   <si>
+    <t>SEKEM ملين</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>SHOMA CREAM 60 GM</t>
   </si>
   <si>
@@ -791,6 +806,18 @@
     <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
   </si>
   <si>
+    <t>TETANUS ANTITOXIN 1500 I U 10 AMPOULES</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>-95.0000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -812,6 +839,12 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -896,9 +929,6 @@
     <t>24:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -911,9 +941,6 @@
     <t>زيت جونسون صغير</t>
   </si>
   <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>زيت جونسون كبير</t>
   </si>
   <si>
@@ -953,9 +980,6 @@
     <t>صابون CAMAY</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول اوريجنيال 115 جم</t>
   </si>
   <si>
@@ -995,7 +1019,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:15 PM</t>
+    <t>Wednesday, 11 June, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3517,7 +3541,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3527,11 +3551,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>56</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3543,14 +3567,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3560,11 +3584,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>24</v>
@@ -3583,7 +3607,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3593,14 +3617,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3609,14 +3633,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3626,11 +3650,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3642,14 +3666,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3659,14 +3683,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3682,7 +3706,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3696,10 +3720,10 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3708,14 +3732,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3725,14 +3749,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3741,14 +3765,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3758,14 +3782,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3774,14 +3798,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3791,11 +3815,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>155</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3807,28 +3831,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3847,21 +3871,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3880,7 +3904,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3890,14 +3914,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3913,7 +3937,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3923,14 +3947,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3939,14 +3963,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3956,14 +3980,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3979,7 +4003,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3989,14 +4013,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4005,14 +4029,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4022,14 +4046,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>45</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4038,14 +4062,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4055,14 +4079,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4078,7 +4102,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4092,7 +4116,7 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4104,31 +4128,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4137,14 +4161,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4154,14 +4178,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4170,14 +4194,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4187,14 +4211,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
         <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4210,7 +4234,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4227,7 +4251,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4243,7 +4267,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4253,14 +4277,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4269,14 +4293,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4286,11 +4310,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4302,14 +4326,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4319,11 +4343,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4335,14 +4359,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4352,11 +4376,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>180</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4368,14 +4392,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4385,14 +4409,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>91</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4401,14 +4425,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4418,11 +4442,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4434,14 +4458,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4451,14 +4475,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4467,14 +4491,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4484,14 +4508,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>36</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4500,14 +4524,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4517,14 +4541,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>139</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4533,14 +4557,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4550,11 +4574,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4566,14 +4590,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4583,11 +4607,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>278</v>
+        <v>127</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4599,14 +4623,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4616,14 +4640,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4632,14 +4656,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4649,14 +4673,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>179</v>
+        <v>284</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>285</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4665,14 +4689,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4682,7 +4706,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4705,24 +4729,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>289</v>
+        <v>34</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4744,15 +4768,15 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>70</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>71</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4764,28 +4788,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>294</v>
+        <v>85</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>179</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>34</v>
@@ -4797,7 +4821,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4810,18 +4834,18 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>298</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4837,7 +4861,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4847,14 +4871,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>127</v>
+        <v>301</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4863,14 +4887,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>303</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4880,11 +4904,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4896,14 +4920,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4913,14 +4937,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>304</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4929,7 +4953,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4946,14 +4970,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4962,14 +4986,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4979,14 +5003,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>297</v>
+        <v>127</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4995,7 +5019,7 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
@@ -5012,11 +5036,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5028,7 +5052,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5045,11 +5069,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5061,14 +5085,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5078,14 +5102,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5094,14 +5118,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5111,14 +5135,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5127,14 +5151,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5144,11 +5168,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5160,14 +5184,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5177,14 +5201,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5193,14 +5217,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>271</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5210,14 +5234,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5226,14 +5250,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5243,11 +5267,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>314</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5259,14 +5283,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5276,11 +5300,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5292,14 +5316,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>325</v>
+        <v>34</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5309,11 +5333,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>283</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>85</v>
@@ -5325,14 +5349,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>327</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5342,49 +5366,181 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>39</v>
+        <v>301</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q119" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>330</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>16</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>47</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>239</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>331</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>12</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>47</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>239</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="A122" s="7">
+        <v>116</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c t="s" r="C122" s="8">
+        <v>332</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c t="s" r="H122" s="9">
+        <v>333</v>
+      </c>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c t="s" r="L122" s="10">
+        <v>47</v>
+      </c>
+      <c r="M122" s="10"/>
+      <c t="s" r="N122" s="8">
+        <v>39</v>
+      </c>
+      <c r="O122" s="8"/>
+      <c t="s" r="P122" s="11">
+        <v>294</v>
+      </c>
+      <c t="s" r="Q122" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="123" ht="24.75" customHeight="1">
+      <c r="A123" s="7">
+        <v>117</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c t="s" r="C123" s="8">
+        <v>334</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
+      <c t="s" r="H123" s="9">
+        <v>335</v>
+      </c>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c t="s" r="L123" s="10">
+        <v>47</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c t="s" r="N123" s="8">
+        <v>39</v>
+      </c>
+      <c r="O123" s="8"/>
+      <c t="s" r="P123" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q123" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="120" ht="24.75" customHeight="1">
-      <c r="P120" s="13">
-        <v>7601.0299999999997</v>
-      </c>
-      <c r="Q120" s="13"/>
-    </row>
-    <row r="121" ht="16.5" customHeight="1">
-      <c t="s" r="A121" s="14">
-        <v>328</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c t="s" r="G121" s="15">
-        <v>329</v>
-      </c>
-      <c r="H121" s="15"/>
-      <c r="I121" s="15"/>
-      <c r="J121" s="16"/>
-      <c t="s" r="K121" s="17">
-        <v>330</v>
-      </c>
-      <c r="L121" s="17"/>
-      <c r="M121" s="17"/>
-      <c r="N121" s="17"/>
-      <c r="O121" s="17"/>
-      <c r="P121" s="17"/>
-      <c r="Q121" s="17"/>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="P124" s="13">
+        <v>7606.8699999999999</v>
+      </c>
+      <c r="Q124" s="13"/>
+    </row>
+    <row r="125" ht="16.5" customHeight="1">
+      <c t="s" r="A125" s="14">
+        <v>336</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c t="s" r="G125" s="15">
+        <v>337</v>
+      </c>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c t="s" r="K125" s="17">
+        <v>338</v>
+      </c>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+      <c r="O125" s="17"/>
+      <c r="P125" s="17"/>
+      <c r="Q125" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="577">
+  <mergeCells count="597">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5958,10 +6114,30 @@
     <mergeCell ref="H119:K119"/>
     <mergeCell ref="L119:M119"/>
     <mergeCell ref="N119:O119"/>
-    <mergeCell ref="P120:Q120"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="K121:Q121"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="H122:K122"/>
+    <mergeCell ref="L122:M122"/>
+    <mergeCell ref="N122:O122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="H123:K123"/>
+    <mergeCell ref="L123:M123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="P124:Q124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="G125:I125"/>
+    <mergeCell ref="K125:Q125"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -1019,7 +1019,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:35 PM</t>
+    <t>Wednesday, 11 June, 2025 9:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -1019,7 +1019,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:36 PM</t>
+    <t>Wednesday, 11 June, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -1019,7 +1019,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:42 PM</t>
+    <t>Wednesday, 11 June, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -818,6 +818,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>UNILOXAM 500MG 10 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
   </si>
   <si>
@@ -1019,7 +1028,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:43 PM</t>
+    <t>Wednesday, 11 June, 2025 9:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4498,7 +4507,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>91</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4541,14 +4550,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4564,7 +4573,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4574,7 +4583,7 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
@@ -4597,7 +4606,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4607,11 +4616,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4623,14 +4632,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>279</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4640,14 +4649,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>127</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4656,14 +4665,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4673,14 +4682,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4696,7 +4705,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4706,14 +4715,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4729,7 +4738,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4762,7 +4771,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4772,11 +4781,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4788,14 +4797,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4805,14 +4814,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>179</v>
+        <v>296</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4821,14 +4830,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4838,14 +4847,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>280</v>
+        <v>179</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4854,31 +4863,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4904,14 +4913,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>70</v>
+        <v>304</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4920,14 +4929,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4937,14 +4946,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4953,14 +4962,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4970,14 +4979,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>308</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4993,7 +5002,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5003,14 +5012,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>127</v>
+        <v>310</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>311</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5019,14 +5028,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5036,11 +5045,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>99</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5052,7 +5061,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5069,11 +5078,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>312</v>
+        <v>80</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5102,14 +5111,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>149</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>315</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5118,7 +5127,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5135,14 +5144,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5151,7 +5160,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5168,14 +5177,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5184,7 +5193,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5201,7 +5210,7 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
@@ -5224,7 +5233,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5234,11 +5243,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>239</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>240</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5250,14 +5259,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5267,11 +5276,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5283,14 +5292,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5300,11 +5309,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>262</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>327</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5316,14 +5325,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>34</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5333,14 +5342,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>74</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5349,14 +5358,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5366,14 +5375,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5382,14 +5391,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5399,14 +5408,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5415,14 +5424,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5448,14 +5457,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>333</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5465,14 +5474,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5481,14 +5490,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5502,45 +5511,78 @@
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
+        <v>297</v>
+      </c>
+      <c t="s" r="Q123" s="12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="124" ht="25.5" customHeight="1">
+      <c r="A124" s="7">
+        <v>118</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c t="s" r="C124" s="8">
+        <v>337</v>
+      </c>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c t="s" r="H124" s="9">
+        <v>338</v>
+      </c>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c t="s" r="L124" s="10">
+        <v>47</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c t="s" r="N124" s="8">
+        <v>39</v>
+      </c>
+      <c r="O124" s="8"/>
+      <c t="s" r="P124" s="11">
         <v>228</v>
       </c>
-      <c t="s" r="Q123" s="12">
+      <c t="s" r="Q124" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="124" ht="25.5" customHeight="1">
-      <c r="P124" s="13">
-        <v>7606.8699999999999</v>
-      </c>
-      <c r="Q124" s="13"/>
-    </row>
-    <row r="125" ht="16.5" customHeight="1">
-      <c t="s" r="A125" s="14">
-        <v>336</v>
-      </c>
-      <c r="B125" s="14"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c t="s" r="G125" s="15">
-        <v>337</v>
-      </c>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="16"/>
-      <c t="s" r="K125" s="17">
-        <v>338</v>
-      </c>
-      <c r="L125" s="17"/>
-      <c r="M125" s="17"/>
-      <c r="N125" s="17"/>
-      <c r="O125" s="17"/>
-      <c r="P125" s="17"/>
-      <c r="Q125" s="17"/>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="P125" s="13">
+        <v>7672.8699999999999</v>
+      </c>
+      <c r="Q125" s="13"/>
+    </row>
+    <row r="126" ht="16.5" customHeight="1">
+      <c t="s" r="A126" s="14">
+        <v>339</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c t="s" r="G126" s="15">
+        <v>340</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c t="s" r="K126" s="17">
+        <v>341</v>
+      </c>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+      <c r="O126" s="17"/>
+      <c r="P126" s="17"/>
+      <c r="Q126" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="597">
+  <mergeCells count="602">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6134,10 +6176,15 @@
     <mergeCell ref="H123:K123"/>
     <mergeCell ref="L123:M123"/>
     <mergeCell ref="N123:O123"/>
-    <mergeCell ref="P124:Q124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="G125:I125"/>
-    <mergeCell ref="K125:Q125"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="H124:K124"/>
+    <mergeCell ref="L124:M124"/>
+    <mergeCell ref="N124:O124"/>
+    <mergeCell ref="P125:Q125"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="G126:I126"/>
+    <mergeCell ref="K126:Q126"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -173,6 +173,18 @@
     <t>28.6000</t>
   </si>
   <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -197,9 +209,6 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>81.00</t>
   </si>
   <si>
@@ -239,10 +248,13 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
     <t>99.00</t>
   </si>
   <si>
-    <t>130.6800</t>
+    <t>163.3500</t>
   </si>
   <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
@@ -506,6 +518,15 @@
     <t>100.9800</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>334.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -704,9 +725,6 @@
     <t>42.00</t>
   </si>
   <si>
-    <t>105.0000</t>
-  </si>
-  <si>
     <t>2:3</t>
   </si>
   <si>
@@ -1028,7 +1046,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:48 PM</t>
+    <t>Wednesday, 11 June, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2082,7 +2100,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2098,7 +2116,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2108,14 +2126,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2124,14 +2142,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2148,7 +2166,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2164,7 +2182,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2174,14 +2192,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2190,14 +2208,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2263,7 +2281,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2280,7 +2298,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2313,7 +2331,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2329,7 +2347,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2339,14 +2357,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2368,7 +2386,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2379,7 +2397,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2388,31 +2406,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2421,31 +2439,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2454,31 +2472,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2487,31 +2505,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2520,31 +2538,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2560,7 +2578,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2570,14 +2588,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2586,14 +2604,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2603,14 +2621,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2619,7 +2637,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2636,14 +2654,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2652,14 +2670,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2669,14 +2687,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2685,14 +2703,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2725,7 +2743,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2735,14 +2753,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2751,14 +2769,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2768,14 +2786,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2784,14 +2802,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2801,11 +2819,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>24</v>
@@ -2817,14 +2835,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2834,14 +2852,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2850,14 +2868,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2867,11 +2885,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2883,14 +2901,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2900,11 +2918,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2916,14 +2934,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2933,14 +2951,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2949,14 +2967,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2966,14 +2984,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2982,7 +3000,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2995,15 +3013,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3015,7 +3033,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3028,15 +3046,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3048,7 +3066,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3065,11 +3083,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -3081,14 +3099,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3098,11 +3116,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3114,14 +3132,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3131,14 +3149,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3147,14 +3165,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3164,14 +3182,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3180,14 +3198,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3197,14 +3215,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3213,14 +3231,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3230,14 +3248,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3246,14 +3264,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3263,14 +3281,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3279,14 +3297,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>173</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3296,14 +3314,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>70</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3312,14 +3330,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3329,14 +3347,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>133</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3345,7 +3363,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3362,11 +3380,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3378,14 +3396,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3395,14 +3413,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3411,14 +3429,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3428,11 +3446,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3444,14 +3462,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3461,14 +3479,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3477,20 +3495,20 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3501,7 +3519,7 @@
         <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3517,7 +3535,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3534,7 +3552,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3550,21 +3568,21 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>24</v>
@@ -3576,14 +3594,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3593,14 +3611,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3609,14 +3627,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3626,11 +3644,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3642,14 +3660,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3659,14 +3677,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3675,7 +3693,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3692,14 +3710,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3708,14 +3726,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3725,14 +3743,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3741,14 +3759,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3758,11 +3776,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3774,14 +3792,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3791,11 +3809,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3807,14 +3825,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3824,11 +3842,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3873,28 +3891,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>91</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3906,14 +3924,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3923,11 +3941,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3939,31 +3957,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3972,14 +3990,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3989,14 +4007,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4005,14 +4023,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4022,14 +4040,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4038,14 +4056,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4055,14 +4073,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>232</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4071,14 +4089,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4088,14 +4106,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>60</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
         <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4111,7 +4129,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4125,10 +4143,10 @@
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4137,31 +4155,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4170,14 +4188,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4187,11 +4205,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4210,13 +4228,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4227,7 +4245,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4243,7 +4261,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4260,7 +4278,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4276,7 +4294,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4286,14 +4304,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>67</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4302,14 +4320,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4319,14 +4337,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4335,14 +4353,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4352,14 +4370,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4375,7 +4393,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4408,7 +4426,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4441,7 +4459,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4451,11 +4469,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4467,14 +4485,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4484,14 +4502,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4500,7 +4518,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4517,11 +4535,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4533,14 +4551,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4550,14 +4568,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>91</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>34</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4566,14 +4584,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4583,11 +4601,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>139</v>
+        <v>276</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4599,14 +4617,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4616,14 +4634,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4639,7 +4657,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>280</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4649,11 +4667,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4665,14 +4683,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4689,7 +4707,7 @@
         <v>284</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4705,7 +4723,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4715,14 +4733,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>60</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4731,14 +4749,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4755,7 +4773,7 @@
         <v>290</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4771,7 +4789,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4781,14 +4799,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4804,7 +4822,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4814,11 +4832,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4830,14 +4848,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4847,14 +4865,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
         <v>299</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4870,7 +4888,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>301</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4880,11 +4898,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4896,28 +4914,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>303</v>
+        <v>89</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>34</v>
@@ -4929,28 +4947,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>71</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4962,14 +4980,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4979,11 +4997,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>34</v>
@@ -4995,14 +5013,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5012,14 +5030,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>310</v>
+        <v>73</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>263</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5028,14 +5046,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5045,14 +5063,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>127</v>
+        <v>245</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>280</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5061,7 +5079,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5078,14 +5096,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>99</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5094,14 +5112,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5111,11 +5129,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>315</v>
+        <v>131</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5127,7 +5145,7 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
@@ -5144,14 +5162,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>287</v>
+        <v>84</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5160,7 +5178,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5177,14 +5195,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>254</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>303</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5193,7 +5211,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5210,14 +5228,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>321</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>324</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5226,7 +5244,7 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
@@ -5243,14 +5261,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>309</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5259,14 +5277,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5276,11 +5294,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>240</v>
+        <v>327</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5292,14 +5310,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5309,11 +5327,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>262</v>
+        <v>329</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5325,14 +5343,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5342,11 +5360,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5358,14 +5376,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5375,14 +5393,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>74</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5391,14 +5409,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>334</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5408,14 +5426,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>134</v>
+        <v>336</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5424,14 +5442,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5441,14 +5459,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5457,7 +5475,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5474,14 +5492,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>239</v>
+        <v>310</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>240</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5490,14 +5508,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5507,14 +5525,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5523,14 +5541,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5540,49 +5558,115 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>39</v>
+        <v>245</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q124" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" ht="24.75" customHeight="1">
+      <c r="A125" s="7">
+        <v>119</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c t="s" r="C125" s="8">
+        <v>341</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8"/>
+      <c r="G125" s="8"/>
+      <c t="s" r="H125" s="9">
+        <v>342</v>
+      </c>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c t="s" r="L125" s="10">
+        <v>47</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c t="s" r="N125" s="8">
+        <v>39</v>
+      </c>
+      <c r="O125" s="8"/>
+      <c t="s" r="P125" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q125" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" ht="25.5" customHeight="1">
+      <c r="A126" s="7">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c t="s" r="C126" s="8">
+        <v>343</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
+      <c t="s" r="H126" s="9">
+        <v>344</v>
+      </c>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c t="s" r="L126" s="10">
+        <v>47</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c t="s" r="N126" s="8">
+        <v>39</v>
+      </c>
+      <c r="O126" s="8"/>
+      <c t="s" r="P126" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q126" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="125" ht="24.75" customHeight="1">
-      <c r="P125" s="13">
-        <v>7672.8699999999999</v>
-      </c>
-      <c r="Q125" s="13"/>
-    </row>
-    <row r="126" ht="16.5" customHeight="1">
-      <c t="s" r="A126" s="14">
-        <v>339</v>
-      </c>
-      <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c t="s" r="G126" s="15">
-        <v>340</v>
-      </c>
-      <c r="H126" s="15"/>
-      <c r="I126" s="15"/>
-      <c r="J126" s="16"/>
-      <c t="s" r="K126" s="17">
-        <v>341</v>
-      </c>
-      <c r="L126" s="17"/>
-      <c r="M126" s="17"/>
-      <c r="N126" s="17"/>
-      <c r="O126" s="17"/>
-      <c r="P126" s="17"/>
-      <c r="Q126" s="17"/>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="P127" s="13">
+        <v>8144.54</v>
+      </c>
+      <c r="Q127" s="13"/>
+    </row>
+    <row r="128" ht="16.5" customHeight="1">
+      <c t="s" r="A128" s="14">
+        <v>345</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c t="s" r="G128" s="15">
+        <v>346</v>
+      </c>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c t="s" r="K128" s="17">
+        <v>347</v>
+      </c>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="602">
+  <mergeCells count="612">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6181,10 +6265,20 @@
     <mergeCell ref="H124:K124"/>
     <mergeCell ref="L124:M124"/>
     <mergeCell ref="N124:O124"/>
-    <mergeCell ref="P125:Q125"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="G126:I126"/>
-    <mergeCell ref="K126:Q126"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="H125:K125"/>
+    <mergeCell ref="L125:M125"/>
+    <mergeCell ref="N125:O125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="C126:G126"/>
+    <mergeCell ref="H126:K126"/>
+    <mergeCell ref="L126:M126"/>
+    <mergeCell ref="N126:O126"/>
+    <mergeCell ref="P127:Q127"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="G128:I128"/>
+    <mergeCell ref="K128:Q128"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -446,6 +446,15 @@
     <t>76.0000</t>
   </si>
   <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
   </si>
   <si>
@@ -464,6 +473,9 @@
     <t>396.0000</t>
   </si>
   <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -527,6 +539,15 @@
     <t>334.0000</t>
   </si>
   <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -569,9 +590,6 @@
     <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
   </si>
   <si>
-    <t>84.00</t>
-  </si>
-  <si>
     <t>84.0000</t>
   </si>
   <si>
@@ -770,6 +788,9 @@
     <t>5.5000</t>
   </si>
   <si>
+    <t>SPASMO-DIGESTIN 30 TABS.</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -1046,7 +1067,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:52 PM</t>
+    <t>Wednesday, 11 June, 2025 9:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3007,7 +3028,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3024,7 +3045,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3046,7 +3067,7 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -3079,7 +3100,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3106,7 +3127,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3116,14 +3137,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3132,14 +3153,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3149,11 +3170,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3165,14 +3186,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3182,14 +3203,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3198,14 +3219,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3215,11 +3236,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>39</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3231,14 +3252,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3248,14 +3269,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3264,14 +3285,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3281,11 +3302,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3297,14 +3318,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3314,14 +3335,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3330,14 +3351,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3347,14 +3368,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3363,14 +3384,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3380,14 +3401,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3396,14 +3417,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3413,14 +3434,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3436,7 +3457,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3453,7 +3474,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3502,7 +3523,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3512,14 +3533,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3528,14 +3549,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3545,14 +3566,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3561,31 +3582,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3611,11 +3632,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3627,7 +3648,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3644,11 +3665,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>24</v>
@@ -3660,28 +3681,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>24</v>
@@ -3693,7 +3714,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3726,7 +3747,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3743,14 +3764,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>37</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3766,7 +3787,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3783,7 +3804,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3799,7 +3820,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3813,7 +3834,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3832,7 +3853,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3842,11 +3863,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>36</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3875,14 +3896,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3891,14 +3912,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3908,14 +3929,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3924,14 +3945,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3941,11 +3962,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>159</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3957,31 +3978,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4007,11 +4028,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4023,14 +4044,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4040,14 +4061,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>39</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4063,24 +4084,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>24</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4089,7 +4110,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4106,11 +4127,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4122,14 +4143,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4139,14 +4160,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>238</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4155,14 +4176,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4172,11 +4193,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>45</v>
@@ -4188,14 +4209,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4205,11 +4226,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4221,31 +4242,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4254,14 +4275,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4271,14 +4292,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4287,14 +4308,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4304,14 +4325,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4320,31 +4341,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4353,7 +4374,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4370,14 +4391,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>70</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4386,14 +4407,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4403,14 +4424,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4419,14 +4440,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4436,14 +4457,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4452,14 +4473,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4469,14 +4490,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4485,7 +4506,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4502,14 +4523,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4518,14 +4539,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4535,11 +4556,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4551,14 +4572,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4568,14 +4589,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>274</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4584,14 +4605,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4601,11 +4622,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4617,14 +4638,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4634,14 +4655,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>95</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4650,14 +4671,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4667,11 +4688,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4683,14 +4704,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4700,14 +4721,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4716,14 +4737,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4733,11 +4754,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4749,14 +4770,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4766,14 +4787,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>289</v>
+        <v>36</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4782,14 +4803,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4799,14 +4820,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>64</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4815,14 +4836,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4832,11 +4853,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4848,14 +4869,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4865,11 +4886,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>298</v>
+        <v>131</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4881,14 +4902,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4898,14 +4919,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4914,14 +4935,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>89</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4931,14 +4952,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4947,14 +4968,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4964,11 +4985,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4980,31 +5001,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5013,28 +5034,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5046,28 +5067,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>314</v>
+        <v>89</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>92</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>34</v>
@@ -5079,7 +5100,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5092,18 +5113,18 @@
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>317</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5112,14 +5133,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5129,14 +5150,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>131</v>
+        <v>317</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5145,14 +5166,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>319</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5162,11 +5183,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5185,7 +5206,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>12</v>
+        <v>321</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5195,14 +5216,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5211,7 +5232,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5228,11 +5249,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>324</v>
@@ -5251,7 +5272,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5261,14 +5282,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>316</v>
+        <v>131</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>309</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5294,11 +5315,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>327</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5310,7 +5331,7 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
@@ -5327,11 +5348,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5343,14 +5364,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5360,14 +5381,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>246</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5383,7 +5404,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5393,14 +5414,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>316</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5416,7 +5437,7 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5426,11 +5447,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5442,14 +5463,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5459,14 +5480,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>310</v>
+        <v>336</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5482,7 +5503,7 @@
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>287</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5492,14 +5513,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5515,7 +5536,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>16</v>
+        <v>308</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5525,11 +5546,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5548,7 +5569,7 @@
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5558,11 +5579,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>246</v>
+        <v>343</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5574,14 +5595,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>342</v>
+        <v>34</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5591,11 +5612,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>89</v>
@@ -5607,14 +5628,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>344</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5624,49 +5645,181 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>39</v>
+        <v>317</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q126" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="127" ht="25.5" customHeight="1">
+      <c r="A127" s="7">
+        <v>121</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c t="s" r="C127" s="8">
+        <v>346</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c t="s" r="H127" s="9">
+        <v>16</v>
+      </c>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c t="s" r="L127" s="10">
+        <v>47</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c t="s" r="N127" s="8">
+        <v>251</v>
+      </c>
+      <c r="O127" s="8"/>
+      <c t="s" r="P127" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q127" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" ht="24.75" customHeight="1">
+      <c r="A128" s="7">
+        <v>122</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c t="s" r="C128" s="8">
+        <v>347</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c t="s" r="H128" s="9">
+        <v>12</v>
+      </c>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c t="s" r="L128" s="10">
+        <v>47</v>
+      </c>
+      <c r="M128" s="10"/>
+      <c t="s" r="N128" s="8">
+        <v>251</v>
+      </c>
+      <c r="O128" s="8"/>
+      <c t="s" r="P128" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q128" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" ht="25.5" customHeight="1">
+      <c r="A129" s="7">
+        <v>123</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c t="s" r="C129" s="8">
+        <v>348</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
+      <c t="s" r="H129" s="9">
+        <v>349</v>
+      </c>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c t="s" r="L129" s="10">
+        <v>47</v>
+      </c>
+      <c r="M129" s="10"/>
+      <c t="s" r="N129" s="8">
+        <v>39</v>
+      </c>
+      <c r="O129" s="8"/>
+      <c t="s" r="P129" s="11">
+        <v>310</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>350</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>351</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>47</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>39</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q130" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="127" ht="25.5" customHeight="1">
-      <c r="P127" s="13">
-        <v>8144.54</v>
-      </c>
-      <c r="Q127" s="13"/>
-    </row>
-    <row r="128" ht="16.5" customHeight="1">
-      <c t="s" r="A128" s="14">
-        <v>345</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c t="s" r="G128" s="15">
-        <v>346</v>
-      </c>
-      <c r="H128" s="15"/>
-      <c r="I128" s="15"/>
-      <c r="J128" s="16"/>
-      <c t="s" r="K128" s="17">
-        <v>347</v>
-      </c>
-      <c r="L128" s="17"/>
-      <c r="M128" s="17"/>
-      <c r="N128" s="17"/>
-      <c r="O128" s="17"/>
-      <c r="P128" s="17"/>
-      <c r="Q128" s="17"/>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="P131" s="13">
+        <v>8336</v>
+      </c>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>352</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>353</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>354</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="612">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6275,10 +6428,30 @@
     <mergeCell ref="H126:K126"/>
     <mergeCell ref="L126:M126"/>
     <mergeCell ref="N126:O126"/>
-    <mergeCell ref="P127:Q127"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="G128:I128"/>
-    <mergeCell ref="K128:Q128"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="H127:K127"/>
+    <mergeCell ref="L127:M127"/>
+    <mergeCell ref="N127:O127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:G128"/>
+    <mergeCell ref="H128:K128"/>
+    <mergeCell ref="L128:M128"/>
+    <mergeCell ref="N128:O128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="N129:O129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="P131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -536,7 +536,7 @@
     <t>334.00</t>
   </si>
   <si>
-    <t>334.0000</t>
+    <t>387.4400</t>
   </si>
   <si>
     <t>GAST-REG 200 MG 30 TABS.</t>
@@ -575,6 +575,9 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>IVYPRONT 0.84GM SYRUP 120 ML</t>
   </si>
   <si>
@@ -971,6 +974,12 @@
     <t>25:0</t>
   </si>
   <si>
+    <t>بيروسول 300 مل</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -1067,7 +1076,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:55 PM</t>
+    <t>Wednesday, 11 June, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3358,7 +3367,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3375,7 +3384,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3523,7 +3532,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3533,14 +3542,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3556,7 +3565,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3566,14 +3575,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3582,7 +3591,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3599,11 +3608,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3615,14 +3624,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3632,11 +3641,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3648,14 +3657,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3665,14 +3674,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3681,28 +3690,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>24</v>
@@ -3714,31 +3723,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3747,14 +3756,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3764,14 +3773,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3780,14 +3789,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3797,11 +3806,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>60</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>24</v>
@@ -3813,14 +3822,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3830,11 +3839,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>24</v>
@@ -3846,14 +3855,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3863,14 +3872,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>36</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3886,7 +3895,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3896,11 +3905,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3912,14 +3921,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3929,14 +3938,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3945,14 +3954,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3962,14 +3971,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3978,14 +3987,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3995,14 +4004,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4011,14 +4020,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4028,14 +4037,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4044,14 +4053,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4061,11 +4070,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>39</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4084,21 +4093,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>39</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4110,28 +4119,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4143,14 +4152,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4160,14 +4169,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4176,14 +4185,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4193,14 +4202,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4209,14 +4218,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4226,14 +4235,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4242,14 +4251,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4259,14 +4268,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>60</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>57</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4275,14 +4284,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4292,14 +4301,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>45</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4308,14 +4317,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4325,14 +4334,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4341,28 +4350,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4374,7 +4383,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4387,15 +4396,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4407,14 +4416,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4424,14 +4433,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4440,14 +4449,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4457,11 +4466,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>49</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>24</v>
@@ -4480,7 +4489,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4490,11 +4499,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>48</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>24</v>
@@ -4506,14 +4515,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4523,14 +4532,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4539,14 +4548,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4556,14 +4565,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4572,14 +4581,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4589,11 +4598,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4605,14 +4614,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4622,11 +4631,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4638,14 +4647,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4655,11 +4664,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4671,7 +4680,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4688,11 +4697,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>177</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>193</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4711,7 +4720,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4721,14 +4730,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>281</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4737,14 +4746,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4754,14 +4763,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4770,14 +4779,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4787,14 +4796,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>95</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4810,7 +4819,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4820,14 +4829,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4836,14 +4845,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4853,11 +4862,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4869,14 +4878,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4886,11 +4895,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4902,14 +4911,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4919,14 +4928,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>296</v>
+        <v>131</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4935,14 +4944,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4952,14 +4961,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>64</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4968,14 +4977,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4985,14 +4994,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>303</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5001,14 +5010,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5018,11 +5027,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5034,14 +5043,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>308</v>
+        <v>34</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5051,11 +5060,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5067,14 +5076,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>89</v>
+        <v>309</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5084,14 +5093,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>177</v>
+        <v>310</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5100,14 +5109,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5117,14 +5126,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>296</v>
+        <v>177</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5133,31 +5142,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5166,14 +5175,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5183,14 +5192,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>73</v>
+        <v>318</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>74</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5199,14 +5208,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5216,14 +5225,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>251</v>
+        <v>73</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5232,14 +5241,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>322</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5249,14 +5258,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>276</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>324</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5265,14 +5274,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5282,14 +5291,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>293</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5298,7 +5307,7 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
@@ -5315,14 +5324,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>84</v>
+        <v>326</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5331,14 +5340,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5348,11 +5357,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5364,7 +5373,7 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
@@ -5381,14 +5390,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>331</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5397,7 +5406,7 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
@@ -5414,14 +5423,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>267</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>316</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5447,14 +5456,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q120" s="12">
         <v>334</v>
-      </c>
-      <c t="s" r="Q120" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5480,14 +5489,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>337</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5496,14 +5505,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>287</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5513,11 +5522,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>252</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5529,14 +5538,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>308</v>
+        <v>12</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5546,11 +5555,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5562,14 +5571,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5579,11 +5588,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>342</v>
+        <v>252</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>343</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5595,14 +5604,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>34</v>
+        <v>309</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5612,14 +5621,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5628,14 +5637,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5645,14 +5654,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>138</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5661,14 +5670,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5678,14 +5687,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5694,7 +5703,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5711,14 +5720,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>251</v>
+        <v>318</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5727,14 +5736,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>349</v>
+        <v>16</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5744,14 +5753,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5767,7 +5776,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>351</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5777,49 +5786,115 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>39</v>
+        <v>252</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q130" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" ht="25.5" customHeight="1">
+      <c r="A131" s="7">
+        <v>125</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c t="s" r="C131" s="8">
+        <v>351</v>
+      </c>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c t="s" r="H131" s="9">
+        <v>352</v>
+      </c>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c t="s" r="L131" s="10">
+        <v>47</v>
+      </c>
+      <c r="M131" s="10"/>
+      <c t="s" r="N131" s="8">
+        <v>39</v>
+      </c>
+      <c r="O131" s="8"/>
+      <c t="s" r="P131" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q131" s="12">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" ht="25.5" customHeight="1">
+      <c r="A132" s="7">
+        <v>126</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c t="s" r="C132" s="8">
+        <v>353</v>
+      </c>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
+      <c t="s" r="H132" s="9">
+        <v>354</v>
+      </c>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c t="s" r="L132" s="10">
+        <v>47</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c t="s" r="N132" s="8">
+        <v>39</v>
+      </c>
+      <c r="O132" s="8"/>
+      <c t="s" r="P132" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q132" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="131" ht="25.5" customHeight="1">
-      <c r="P131" s="13">
-        <v>8336</v>
-      </c>
-      <c r="Q131" s="13"/>
-    </row>
-    <row r="132" ht="16.5" customHeight="1">
-      <c t="s" r="A132" s="14">
-        <v>352</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c t="s" r="G132" s="15">
-        <v>353</v>
-      </c>
-      <c r="H132" s="15"/>
-      <c r="I132" s="15"/>
-      <c r="J132" s="16"/>
-      <c t="s" r="K132" s="17">
-        <v>354</v>
-      </c>
-      <c r="L132" s="17"/>
-      <c r="M132" s="17"/>
-      <c r="N132" s="17"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="17"/>
-      <c r="Q132" s="17"/>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="P133" s="13">
+        <v>8509.4400000000005</v>
+      </c>
+      <c r="Q133" s="13"/>
+    </row>
+    <row r="134" ht="16.5" customHeight="1">
+      <c t="s" r="A134" s="14">
+        <v>355</v>
+      </c>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c t="s" r="G134" s="15">
+        <v>356</v>
+      </c>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c t="s" r="K134" s="17">
+        <v>357</v>
+      </c>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+      <c r="Q134" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="632">
+  <mergeCells count="642">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6448,10 +6523,20 @@
     <mergeCell ref="H130:K130"/>
     <mergeCell ref="L130:M130"/>
     <mergeCell ref="N130:O130"/>
-    <mergeCell ref="P131:Q131"/>
-    <mergeCell ref="A132:F132"/>
-    <mergeCell ref="G132:I132"/>
-    <mergeCell ref="K132:Q132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="N131:O131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="H132:K132"/>
+    <mergeCell ref="L132:M132"/>
+    <mergeCell ref="N132:O132"/>
+    <mergeCell ref="P133:Q133"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="G134:I134"/>
+    <mergeCell ref="K134:Q134"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>163.3500</t>
   </si>
   <si>
+    <t>CALDIN ZINC SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>CATAFLAM 75MG/3ML 6 AMP.</t>
   </si>
   <si>
@@ -839,12 +848,6 @@
     <t>TEARS GUARD 0.3% EYE DROPS 15 ML</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>TECHNOSPIRON 0.03/3MG 21 F.C.TAB</t>
   </si>
   <si>
@@ -1076,7 +1079,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:57 PM</t>
+    <t>Wednesday, 11 June, 2025 9:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2377,7 +2380,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2387,14 +2390,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2403,14 +2406,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2427,7 +2430,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2436,7 +2439,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2449,18 +2452,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>92</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2476,24 +2479,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2509,24 +2512,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2542,13 +2545,13 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2559,7 +2562,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2575,24 +2578,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2601,31 +2604,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2634,14 +2637,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2658,7 +2661,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2674,7 +2677,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2691,7 +2694,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2724,7 +2727,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2740,7 +2743,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2757,7 +2760,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2773,7 +2776,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2783,11 +2786,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>45</v>
@@ -2799,14 +2802,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2823,7 +2826,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2839,7 +2842,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2849,14 +2852,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2872,7 +2875,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2882,7 +2885,7 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
@@ -2905,7 +2908,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2922,7 +2925,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2938,7 +2941,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2971,7 +2974,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3004,7 +3007,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3021,7 +3024,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3037,7 +3040,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3054,7 +3057,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3070,7 +3073,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3087,7 +3090,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3109,7 +3112,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -3136,24 +3139,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3162,14 +3165,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3179,14 +3182,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3235,7 +3238,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3245,7 +3248,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>39</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3268,7 +3271,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3278,14 +3281,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>39</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3301,7 +3304,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3318,7 +3321,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3334,7 +3337,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3351,7 +3354,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3367,7 +3370,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3384,7 +3387,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3400,7 +3403,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3417,7 +3420,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3433,7 +3436,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>34</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3443,14 +3446,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3466,7 +3469,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3476,14 +3479,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>70</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3499,7 +3502,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3516,7 +3519,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3532,7 +3535,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3542,11 +3545,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3558,14 +3561,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3575,14 +3578,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3591,14 +3594,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3608,14 +3611,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3641,11 +3644,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3657,14 +3660,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3674,7 +3677,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3697,7 +3700,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3714,7 +3717,7 @@
         <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3730,21 +3733,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>24</v>
@@ -3756,20 +3759,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>12</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3780,7 +3783,7 @@
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3796,7 +3799,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3806,14 +3809,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>60</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3822,14 +3825,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3839,7 +3842,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>60</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3862,7 +3865,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3876,7 +3879,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>24</v>
@@ -3888,14 +3891,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3905,14 +3908,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>36</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>37</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3921,14 +3924,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3938,11 +3941,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3961,7 +3964,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3975,10 +3978,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>144</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3987,14 +3990,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4004,14 +4007,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4027,7 +4030,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4044,7 +4047,7 @@
         <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4060,7 +4063,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4077,7 +4080,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4093,7 +4096,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4103,11 +4106,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -4119,28 +4122,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>39</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4152,28 +4155,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>66</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4185,14 +4188,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4202,14 +4205,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4218,14 +4221,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4239,10 +4242,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4251,14 +4254,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4268,14 +4271,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4284,14 +4287,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4301,14 +4304,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4324,7 +4327,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4338,10 +4341,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q86" s="12">
         <v>248</v>
-      </c>
-      <c t="s" r="Q86" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4357,7 +4360,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4371,10 +4374,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4383,28 +4386,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4429,7 +4432,7 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
@@ -4456,7 +4459,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4473,7 +4476,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4489,7 +4492,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4499,11 +4502,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>48</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>49</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>24</v>
@@ -4515,14 +4518,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4532,11 +4535,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>48</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>24</v>
@@ -4555,7 +4558,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4565,14 +4568,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>83</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4581,14 +4584,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4598,14 +4601,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>70</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4621,7 +4624,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4654,7 +4657,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4687,7 +4690,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4730,11 +4733,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4753,7 +4756,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4763,14 +4766,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4779,14 +4782,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4796,14 +4799,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4812,14 +4815,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4829,14 +4832,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4852,7 +4855,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4862,14 +4865,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4878,14 +4881,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4895,11 +4898,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4911,14 +4914,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4928,11 +4931,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>131</v>
+        <v>292</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4944,14 +4947,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4961,14 +4964,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>297</v>
+        <v>134</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4977,14 +4980,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4994,14 +4997,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>64</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5010,14 +5013,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5027,14 +5030,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5043,14 +5046,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5060,11 +5063,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5076,14 +5079,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5093,11 +5096,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5109,14 +5112,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>89</v>
+        <v>310</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5126,14 +5129,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>177</v>
+        <v>311</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5142,14 +5145,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5159,14 +5162,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>297</v>
+        <v>180</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5175,31 +5178,31 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5208,14 +5211,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5225,14 +5228,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>73</v>
+        <v>319</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5241,14 +5244,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5258,11 +5261,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5274,14 +5277,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5291,14 +5294,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5307,14 +5310,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>325</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5324,14 +5327,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>326</v>
+        <v>255</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>277</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>327</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5340,14 +5343,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5357,14 +5360,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>131</v>
+        <v>327</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>294</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>328</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5380,7 +5383,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5390,11 +5393,11 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>103</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q118" s="12">
         <v>16</v>
@@ -5423,11 +5426,11 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>331</v>
+        <v>87</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q119" s="12">
         <v>16</v>
@@ -5439,7 +5442,7 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
@@ -5456,14 +5459,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>157</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>334</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5472,7 +5475,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5489,14 +5492,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>317</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5522,14 +5525,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5538,7 +5541,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5555,11 +5558,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5571,14 +5574,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>288</v>
+        <v>12</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5588,11 +5591,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>253</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5611,7 +5614,7 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5621,11 +5624,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5644,7 +5647,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5654,11 +5657,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>346</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5670,14 +5673,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>34</v>
+        <v>345</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5687,14 +5690,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5710,7 +5713,7 @@
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5720,14 +5723,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>41</v>
+        <v>92</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5743,7 +5746,7 @@
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5753,14 +5756,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>252</v>
+        <v>319</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>253</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5776,7 +5779,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5786,11 +5789,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5809,7 +5812,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>352</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5819,14 +5822,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>39</v>
+        <v>255</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>89</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5835,14 +5838,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5856,45 +5859,78 @@
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q132" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" ht="24.75" customHeight="1">
+      <c r="A133" s="7">
+        <v>127</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c t="s" r="C133" s="8">
+        <v>354</v>
+      </c>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c t="s" r="H133" s="9">
+        <v>355</v>
+      </c>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c t="s" r="L133" s="10">
+        <v>47</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c t="s" r="N133" s="8">
+        <v>39</v>
+      </c>
+      <c r="O133" s="8"/>
+      <c t="s" r="P133" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q133" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="133" ht="24.75" customHeight="1">
-      <c r="P133" s="13">
-        <v>8509.4400000000005</v>
-      </c>
-      <c r="Q133" s="13"/>
-    </row>
-    <row r="134" ht="16.5" customHeight="1">
-      <c t="s" r="A134" s="14">
-        <v>355</v>
-      </c>
-      <c r="B134" s="14"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c t="s" r="G134" s="15">
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="P134" s="13">
+        <v>8539.4400000000005</v>
+      </c>
+      <c r="Q134" s="13"/>
+    </row>
+    <row r="135" ht="16.5" customHeight="1">
+      <c t="s" r="A135" s="14">
         <v>356</v>
       </c>
-      <c r="H134" s="15"/>
-      <c r="I134" s="15"/>
-      <c r="J134" s="16"/>
-      <c t="s" r="K134" s="17">
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c t="s" r="G135" s="15">
         <v>357</v>
       </c>
-      <c r="L134" s="17"/>
-      <c r="M134" s="17"/>
-      <c r="N134" s="17"/>
-      <c r="O134" s="17"/>
-      <c r="P134" s="17"/>
-      <c r="Q134" s="17"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c t="s" r="K135" s="17">
+        <v>358</v>
+      </c>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+      <c r="O135" s="17"/>
+      <c r="P135" s="17"/>
+      <c r="Q135" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="642">
+  <mergeCells count="647">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6533,10 +6569,15 @@
     <mergeCell ref="H132:K132"/>
     <mergeCell ref="L132:M132"/>
     <mergeCell ref="N132:O132"/>
-    <mergeCell ref="P133:Q133"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="G134:I134"/>
-    <mergeCell ref="K134:Q134"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="H133:K133"/>
+    <mergeCell ref="L133:M133"/>
+    <mergeCell ref="N133:O133"/>
+    <mergeCell ref="P134:Q134"/>
+    <mergeCell ref="A135:F135"/>
+    <mergeCell ref="G135:I135"/>
+    <mergeCell ref="K135:Q135"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -692,6 +692,15 @@
     <t>20.2500</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>89.1000</t>
+  </si>
+  <si>
     <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
   </si>
   <si>
@@ -899,6 +908,9 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>VITAYAMI 30 F.C. TABS</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -1079,7 +1091,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 9:58 PM</t>
+    <t>Wednesday, 11 June, 2025 10:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4063,7 +4075,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4080,7 +4092,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4096,7 +4108,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4113,7 +4125,7 @@
         <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4129,7 +4141,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4139,11 +4151,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>39</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4155,28 +4167,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>39</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4188,28 +4200,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4221,14 +4233,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4238,14 +4250,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>66</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>166</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4254,14 +4266,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>241</v>
+        <v>86</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4275,10 +4287,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4287,14 +4299,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4304,14 +4316,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4320,14 +4332,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4337,14 +4349,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>248</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4360,7 +4372,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4374,10 +4386,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>251</v>
-      </c>
-      <c t="s" r="Q87" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4393,7 +4405,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4407,10 +4419,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>40</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4419,28 +4431,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4465,7 +4477,7 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4492,7 +4504,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4509,7 +4521,7 @@
         <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4525,7 +4537,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4535,11 +4547,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>48</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>24</v>
@@ -4551,14 +4563,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4568,11 +4580,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>48</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>24</v>
@@ -4591,7 +4603,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4601,14 +4613,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>70</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4617,14 +4629,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4634,14 +4646,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>270</v>
+        <v>70</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4657,7 +4669,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4690,7 +4702,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4723,7 +4735,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4733,11 +4745,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4749,7 +4761,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4766,11 +4778,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4782,14 +4794,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4799,14 +4811,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>281</v>
+        <v>180</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>283</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4815,14 +4827,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4832,14 +4844,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q101" s="12">
         <v>286</v>
-      </c>
-      <c t="s" r="Q101" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4855,7 +4867,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4865,14 +4877,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>98</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4881,14 +4893,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4898,14 +4910,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>290</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4921,7 +4933,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4931,7 +4943,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4954,7 +4966,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4964,11 +4976,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>134</v>
+        <v>295</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4980,14 +4992,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4997,14 +5009,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>134</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5013,14 +5025,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5030,14 +5042,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5046,14 +5058,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5063,14 +5075,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5079,14 +5091,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>34</v>
+        <v>305</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5096,14 +5108,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5112,14 +5124,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5129,11 +5141,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5145,14 +5157,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5162,14 +5174,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>180</v>
+        <v>311</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5178,14 +5190,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>12</v>
+        <v>314</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5195,7 +5207,7 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
@@ -5218,21 +5230,21 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>318</v>
+        <v>92</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>319</v>
+        <v>180</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>84</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>34</v>
@@ -5244,28 +5256,28 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>73</v>
+        <v>302</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5277,14 +5289,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5294,14 +5306,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5327,14 +5339,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5350,7 +5362,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>327</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5360,14 +5372,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>328</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5376,14 +5388,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>34</v>
+        <v>329</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5393,14 +5405,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>134</v>
+        <v>258</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>295</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5426,14 +5438,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>87</v>
+        <v>331</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5442,14 +5454,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5459,11 +5471,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>332</v>
+        <v>134</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5492,14 +5504,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>302</v>
+        <v>87</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>335</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5508,7 +5520,7 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
@@ -5525,14 +5537,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>318</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5541,7 +5553,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5558,14 +5570,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>338</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>16</v>
+        <v>339</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5574,7 +5586,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5591,14 +5603,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>322</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5607,14 +5619,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>289</v>
+        <v>12</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5624,11 +5636,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>256</v>
+        <v>342</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>16</v>
@@ -5647,7 +5659,7 @@
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5657,11 +5669,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>83</v>
+        <v>344</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>16</v>
@@ -5673,14 +5685,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5690,11 +5702,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>346</v>
+        <v>258</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5706,14 +5718,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5723,14 +5735,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5739,14 +5751,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>12</v>
+        <v>349</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5756,14 +5768,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>141</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5772,14 +5784,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5789,14 +5801,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5805,7 +5817,7 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
@@ -5822,14 +5834,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5838,14 +5850,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5855,14 +5867,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5871,14 +5883,14 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>355</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5888,49 +5900,115 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q133" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" ht="25.5" customHeight="1">
+      <c r="A134" s="7">
+        <v>128</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c t="s" r="C134" s="8">
+        <v>356</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c t="s" r="H134" s="9">
+        <v>357</v>
+      </c>
+      <c r="I134" s="9"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="9"/>
+      <c t="s" r="L134" s="10">
+        <v>47</v>
+      </c>
+      <c r="M134" s="10"/>
+      <c t="s" r="N134" s="8">
+        <v>39</v>
+      </c>
+      <c r="O134" s="8"/>
+      <c t="s" r="P134" s="11">
+        <v>316</v>
+      </c>
+      <c t="s" r="Q134" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="135" ht="24.75" customHeight="1">
+      <c r="A135" s="7">
+        <v>129</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c t="s" r="C135" s="8">
+        <v>358</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
+      <c t="s" r="H135" s="9">
+        <v>359</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="9"/>
+      <c t="s" r="L135" s="10">
+        <v>47</v>
+      </c>
+      <c r="M135" s="10"/>
+      <c t="s" r="N135" s="8">
+        <v>39</v>
+      </c>
+      <c r="O135" s="8"/>
+      <c t="s" r="P135" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q135" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="134" ht="25.5" customHeight="1">
-      <c r="P134" s="13">
-        <v>8539.4400000000005</v>
-      </c>
-      <c r="Q134" s="13"/>
-    </row>
-    <row r="135" ht="16.5" customHeight="1">
-      <c t="s" r="A135" s="14">
-        <v>356</v>
-      </c>
-      <c r="B135" s="14"/>
-      <c r="C135" s="14"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c t="s" r="G135" s="15">
-        <v>357</v>
-      </c>
-      <c r="H135" s="15"/>
-      <c r="I135" s="15"/>
-      <c r="J135" s="16"/>
-      <c t="s" r="K135" s="17">
-        <v>358</v>
-      </c>
-      <c r="L135" s="17"/>
-      <c r="M135" s="17"/>
-      <c r="N135" s="17"/>
-      <c r="O135" s="17"/>
-      <c r="P135" s="17"/>
-      <c r="Q135" s="17"/>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="P136" s="13">
+        <v>8717.6399999999994</v>
+      </c>
+      <c r="Q136" s="13"/>
+    </row>
+    <row r="137" ht="16.5" customHeight="1">
+      <c t="s" r="A137" s="14">
+        <v>360</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c t="s" r="G137" s="15">
+        <v>361</v>
+      </c>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c t="s" r="K137" s="17">
+        <v>362</v>
+      </c>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="647">
+  <mergeCells count="657">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6574,10 +6652,20 @@
     <mergeCell ref="H133:K133"/>
     <mergeCell ref="L133:M133"/>
     <mergeCell ref="N133:O133"/>
-    <mergeCell ref="P134:Q134"/>
-    <mergeCell ref="A135:F135"/>
-    <mergeCell ref="G135:I135"/>
-    <mergeCell ref="K135:Q135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="H134:K134"/>
+    <mergeCell ref="L134:M134"/>
+    <mergeCell ref="N134:O134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="H135:K135"/>
+    <mergeCell ref="L135:M135"/>
+    <mergeCell ref="N135:O135"/>
+    <mergeCell ref="P136:Q136"/>
+    <mergeCell ref="A137:F137"/>
+    <mergeCell ref="G137:I137"/>
+    <mergeCell ref="K137:Q137"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -392,6 +392,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DERMA WHITE CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>DEVAROL-S 200000 I.U AMPOULE</t>
   </si>
   <si>
@@ -524,12 +533,6 @@
     <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
   </si>
   <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
     <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
   </si>
   <si>
@@ -659,6 +662,15 @@
     <t>72.5000</t>
   </si>
   <si>
+    <t>MOBITIL 15MG/1.5ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>MOFLOX 400MG 10 F.C. TABS.</t>
   </si>
   <si>
@@ -815,9 +827,6 @@
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
-    <t>39.00</t>
-  </si>
-  <si>
     <t>12.8700</t>
   </si>
   <si>
@@ -1028,7 +1037,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>14:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1091,7 +1100,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 10:00 PM</t>
+    <t>Wednesday, 11 June, 2025 10:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2854,7 +2863,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2887,7 +2896,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2920,7 +2929,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2930,7 +2939,7 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2953,7 +2962,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2970,7 +2979,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2986,7 +2995,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3019,7 +3028,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3052,7 +3061,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3069,7 +3078,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3102,7 +3111,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3118,7 +3127,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3135,7 +3144,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3157,7 +3166,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -3184,24 +3193,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3210,14 +3219,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3227,14 +3236,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3283,7 +3292,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3293,7 +3302,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -3316,7 +3325,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3349,7 +3358,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3366,7 +3375,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3382,7 +3391,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3392,14 +3401,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3408,14 +3417,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3425,14 +3434,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3441,14 +3450,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3458,14 +3467,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3474,14 +3483,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3507,14 +3516,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3524,14 +3533,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>70</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3540,14 +3549,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3557,14 +3566,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3573,14 +3582,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3590,11 +3599,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3613,7 +3622,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3623,14 +3632,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3646,7 +3655,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3656,14 +3665,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3672,7 +3681,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3689,11 +3698,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3722,11 +3731,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3738,14 +3747,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3755,14 +3764,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3771,28 +3780,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>24</v>
@@ -3804,31 +3813,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3854,14 +3863,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3870,14 +3879,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3887,11 +3896,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>24</v>
@@ -3903,14 +3912,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3920,11 +3929,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3936,14 +3945,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3953,11 +3962,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3969,7 +3978,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4009,7 +4018,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4052,11 +4061,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4068,7 +4077,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4101,14 +4110,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4151,14 +4160,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4167,14 +4176,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4184,14 +4193,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4207,13 +4216,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4221,7 +4230,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4250,11 +4259,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4273,13 +4282,13 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4287,10 +4296,10 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4306,7 +4315,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4332,14 +4341,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4349,14 +4358,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>60</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4382,14 +4391,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>251</v>
+        <v>45</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4398,14 +4407,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4415,14 +4424,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4431,14 +4440,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4448,14 +4457,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4464,31 +4473,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4497,14 +4506,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4514,11 +4523,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4530,31 +4539,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4580,14 +4589,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4603,7 +4612,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4636,7 +4645,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4646,14 +4655,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4712,14 +4721,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>86</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4728,14 +4737,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4745,11 +4754,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4761,14 +4770,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4778,11 +4787,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>84</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4794,14 +4803,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4811,11 +4820,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>197</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4827,14 +4836,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4844,14 +4853,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>284</v>
+        <v>83</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>286</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4860,7 +4869,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4877,11 +4886,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4893,14 +4902,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4910,14 +4919,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>98</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>34</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4926,14 +4935,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4943,11 +4952,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>146</v>
+        <v>291</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4959,14 +4968,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4976,14 +4985,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>295</v>
+        <v>36</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4992,14 +5001,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5009,11 +5018,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5025,14 +5034,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5042,14 +5051,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5065,7 +5074,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>301</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5075,14 +5084,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>137</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5091,14 +5100,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>305</v>
+        <v>24</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5108,14 +5117,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>306</v>
+        <v>232</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>92</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5124,14 +5133,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>304</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5141,14 +5150,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5157,14 +5166,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5174,14 +5183,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>312</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5190,14 +5199,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>314</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5207,11 +5216,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5223,14 +5232,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5240,14 +5249,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>180</v>
+        <v>314</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5256,14 +5265,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5273,11 +5282,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5289,28 +5298,28 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>84</v>
+        <v>321</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>34</v>
@@ -5322,28 +5331,28 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
       <c r="K116" s="9"/>
       <c t="s" r="L116" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>73</v>
+        <v>305</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>74</v>
+        <v>323</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5355,14 +5364,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5372,14 +5381,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>76</v>
+        <v>326</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5388,14 +5397,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5405,14 +5414,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>258</v>
+        <v>73</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5421,14 +5430,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>12</v>
+        <v>330</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5438,14 +5447,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>332</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5454,14 +5463,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>34</v>
+        <v>332</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5471,14 +5480,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>298</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5487,7 +5496,7 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
@@ -5504,14 +5513,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>87</v>
+        <v>334</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>16</v>
+        <v>335</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5520,14 +5529,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5537,11 +5546,11 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>336</v>
+        <v>137</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q122" s="12">
         <v>16</v>
@@ -5553,7 +5562,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5570,14 +5579,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>306</v>
+        <v>87</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>339</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5586,7 +5595,7 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
@@ -5603,14 +5612,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>274</v>
+        <v>340</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>322</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5636,14 +5645,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q125" s="12">
         <v>342</v>
-      </c>
-      <c t="s" r="Q125" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5669,14 +5678,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>345</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5685,14 +5694,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5702,11 +5711,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>258</v>
+        <v>334</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5718,14 +5727,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5735,11 +5744,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>83</v>
+        <v>347</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>84</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5751,14 +5760,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5768,11 +5777,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5784,14 +5793,14 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5801,14 +5810,14 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5817,14 +5826,14 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>12</v>
+        <v>352</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5834,14 +5843,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>141</v>
+        <v>354</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5850,14 +5859,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5867,14 +5876,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>259</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5883,7 +5892,7 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -5900,14 +5909,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5916,14 +5925,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>357</v>
+        <v>16</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5933,14 +5942,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5956,7 +5965,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5966,49 +5975,115 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q135" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" ht="25.5" customHeight="1">
+      <c r="A136" s="7">
+        <v>130</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c t="s" r="C136" s="8">
+        <v>359</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c t="s" r="H136" s="9">
+        <v>360</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="9"/>
+      <c t="s" r="L136" s="10">
+        <v>47</v>
+      </c>
+      <c r="M136" s="10"/>
+      <c t="s" r="N136" s="8">
+        <v>39</v>
+      </c>
+      <c r="O136" s="8"/>
+      <c t="s" r="P136" s="11">
+        <v>319</v>
+      </c>
+      <c t="s" r="Q136" s="12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="137" ht="25.5" customHeight="1">
+      <c r="A137" s="7">
+        <v>131</v>
+      </c>
+      <c r="B137" s="7"/>
+      <c t="s" r="C137" s="8">
+        <v>361</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c t="s" r="H137" s="9">
+        <v>362</v>
+      </c>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c t="s" r="L137" s="10">
+        <v>47</v>
+      </c>
+      <c r="M137" s="10"/>
+      <c t="s" r="N137" s="8">
+        <v>39</v>
+      </c>
+      <c r="O137" s="8"/>
+      <c t="s" r="P137" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q137" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="136" ht="25.5" customHeight="1">
-      <c r="P136" s="13">
-        <v>8717.6399999999994</v>
-      </c>
-      <c r="Q136" s="13"/>
-    </row>
-    <row r="137" ht="16.5" customHeight="1">
-      <c t="s" r="A137" s="14">
-        <v>360</v>
-      </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="14"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c t="s" r="G137" s="15">
-        <v>361</v>
-      </c>
-      <c r="H137" s="15"/>
-      <c r="I137" s="15"/>
-      <c r="J137" s="16"/>
-      <c t="s" r="K137" s="17">
-        <v>362</v>
-      </c>
-      <c r="L137" s="17"/>
-      <c r="M137" s="17"/>
-      <c r="N137" s="17"/>
-      <c r="O137" s="17"/>
-      <c r="P137" s="17"/>
-      <c r="Q137" s="17"/>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="P138" s="13">
+        <v>8852.6399999999994</v>
+      </c>
+      <c r="Q138" s="13"/>
+    </row>
+    <row r="139" ht="16.5" customHeight="1">
+      <c t="s" r="A139" s="14">
+        <v>363</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c t="s" r="G139" s="15">
+        <v>364</v>
+      </c>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c t="s" r="K139" s="17">
+        <v>365</v>
+      </c>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+      <c r="O139" s="17"/>
+      <c r="P139" s="17"/>
+      <c r="Q139" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="657">
+  <mergeCells count="667">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6662,10 +6737,20 @@
     <mergeCell ref="H135:K135"/>
     <mergeCell ref="L135:M135"/>
     <mergeCell ref="N135:O135"/>
-    <mergeCell ref="P136:Q136"/>
-    <mergeCell ref="A137:F137"/>
-    <mergeCell ref="G137:I137"/>
-    <mergeCell ref="K137:Q137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="H136:K136"/>
+    <mergeCell ref="L136:M136"/>
+    <mergeCell ref="N136:O136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:G137"/>
+    <mergeCell ref="H137:K137"/>
+    <mergeCell ref="L137:M137"/>
+    <mergeCell ref="N137:O137"/>
+    <mergeCell ref="P138:Q138"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="G139:I139"/>
+    <mergeCell ref="K139:Q139"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -1100,7 +1100,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 10:16 PM</t>
+    <t>Wednesday, 11 June, 2025 10:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -185,6 +185,15 @@
     <t>105.0000</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
@@ -413,10 +422,7 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>5:2</t>
-  </si>
-  <si>
-    <t>11.8800</t>
+    <t>5:1</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -563,9 +569,6 @@
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
-    <t>5:1</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
@@ -1100,7 +1103,7 @@
     <t>18:0</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 10:27 PM</t>
+    <t>Wednesday, 11 June, 2025 10:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2170,7 +2173,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2180,14 +2183,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2196,14 +2199,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2220,7 +2223,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2236,7 +2239,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2253,7 +2256,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2269,7 +2272,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2279,14 +2282,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2295,14 +2298,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2368,7 +2371,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2378,14 +2381,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2394,14 +2397,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2418,7 +2421,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2434,7 +2437,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2444,14 +2447,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2460,14 +2463,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2484,7 +2487,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>92</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2493,7 +2496,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2506,18 +2509,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2533,24 +2536,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2566,24 +2569,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2599,13 +2602,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2616,7 +2619,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2632,24 +2635,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2658,31 +2661,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2691,14 +2694,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2715,7 +2718,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>24</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2731,7 +2734,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2748,7 +2751,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2781,7 +2784,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2797,7 +2800,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2814,7 +2817,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2830,7 +2833,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2840,11 +2843,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>45</v>
@@ -2856,14 +2859,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2880,7 +2883,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2896,7 +2899,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2929,7 +2932,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2939,14 +2942,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2962,7 +2965,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2972,14 +2975,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2988,14 +2991,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3005,14 +3008,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3021,14 +3024,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3038,11 +3041,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -3054,14 +3057,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3071,11 +3074,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3087,14 +3090,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3104,14 +3107,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3120,14 +3123,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3137,14 +3140,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3153,14 +3156,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3170,14 +3173,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3186,7 +3189,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3199,15 +3202,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3219,31 +3222,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3252,14 +3255,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3269,14 +3272,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3285,7 +3288,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3302,11 +3305,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3318,14 +3321,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3335,11 +3338,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3351,14 +3354,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3368,14 +3371,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3384,14 +3387,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3401,14 +3404,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3417,14 +3420,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3434,14 +3437,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3450,14 +3453,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3467,14 +3470,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3483,14 +3486,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3500,14 +3503,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3516,14 +3519,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>34</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3533,14 +3536,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>70</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3549,14 +3552,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3566,14 +3569,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>73</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3582,14 +3585,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3599,14 +3602,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3615,14 +3618,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3632,11 +3635,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3655,7 +3658,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3665,14 +3668,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3688,7 +3691,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3698,14 +3701,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3714,7 +3717,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3731,11 +3734,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3747,14 +3750,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3764,11 +3767,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3780,14 +3783,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3797,14 +3800,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3813,28 +3816,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>206</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>24</v>
@@ -3846,31 +3849,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3879,14 +3882,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3896,14 +3899,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3912,14 +3915,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3929,11 +3932,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>63</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>24</v>
@@ -3945,14 +3948,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3962,14 +3965,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3978,14 +3981,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3995,14 +3998,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4011,14 +4014,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4028,14 +4031,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>37</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4051,7 +4054,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4061,11 +4064,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -4077,14 +4080,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4094,14 +4097,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4110,14 +4113,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4127,14 +4130,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4143,14 +4146,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4160,14 +4163,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4176,14 +4179,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4193,14 +4196,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4209,14 +4212,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4226,14 +4229,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4242,14 +4245,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4259,11 +4262,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4282,21 +4285,21 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>242</v>
+        <v>39</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4308,28 +4311,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>66</v>
+        <v>243</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4341,14 +4344,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4358,14 +4361,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>69</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>169</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4374,14 +4377,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4391,14 +4394,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4407,14 +4410,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>249</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4424,14 +4427,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4440,14 +4443,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4457,14 +4460,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>63</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>255</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4473,14 +4476,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4490,14 +4493,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>45</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4506,14 +4509,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4523,14 +4526,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4539,28 +4542,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4572,7 +4575,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4585,15 +4588,15 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4605,14 +4608,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4622,14 +4625,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4638,14 +4641,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4655,11 +4658,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>48</v>
+        <v>269</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>49</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>24</v>
@@ -4678,7 +4681,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4688,11 +4691,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>24</v>
@@ -4704,14 +4707,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4721,14 +4724,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>70</v>
+        <v>219</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4737,14 +4740,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4754,14 +4757,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4770,14 +4773,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4787,11 +4790,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4803,14 +4806,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4820,11 +4823,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4836,14 +4839,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4853,11 +4856,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>83</v>
+        <v>283</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>84</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4886,11 +4889,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4909,7 +4912,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4919,14 +4922,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>287</v>
+        <v>183</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4935,14 +4938,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4952,14 +4955,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4968,14 +4971,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4985,14 +4988,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>36</v>
+        <v>292</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -5008,7 +5011,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5018,14 +5021,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5034,14 +5037,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5051,11 +5054,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -5067,14 +5070,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5084,11 +5087,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5100,14 +5103,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5117,14 +5120,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>232</v>
+        <v>139</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5140,7 +5143,7 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5150,14 +5153,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5166,14 +5169,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5183,14 +5186,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>92</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5199,14 +5202,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5216,14 +5219,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>312</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5232,14 +5235,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5249,11 +5252,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5265,14 +5268,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>317</v>
+        <v>34</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5282,11 +5285,11 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
         <v>16</v>
@@ -5298,14 +5301,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>92</v>
+        <v>318</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5315,14 +5318,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>181</v>
+        <v>319</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5331,14 +5334,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5348,14 +5351,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>305</v>
+        <v>183</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5364,31 +5367,31 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>325</v>
+        <v>12</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>84</v>
+        <v>324</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5397,14 +5400,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5414,14 +5417,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>73</v>
+        <v>327</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5430,14 +5433,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5463,14 +5466,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5480,14 +5483,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5496,14 +5499,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>12</v>
+        <v>333</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5513,14 +5516,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>335</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5529,14 +5532,14 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
@@ -5546,14 +5549,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>137</v>
+        <v>335</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>301</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>336</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5569,7 +5572,7 @@
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5579,11 +5582,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>106</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5612,11 +5615,11 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>339</v>
+        <v>90</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>340</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q124" s="12">
         <v>16</v>
@@ -5628,7 +5631,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5645,14 +5648,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>132</v>
+        <v>341</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>342</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5661,7 +5664,7 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
@@ -5678,14 +5681,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>277</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>325</v>
+        <v>343</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5711,14 +5714,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>345</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>16</v>
+        <v>296</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5727,7 +5730,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5744,11 +5747,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5760,14 +5763,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5777,11 +5780,11 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c t="s" r="Q129" s="12">
         <v>16</v>
@@ -5800,7 +5803,7 @@
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
@@ -5810,11 +5813,11 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>84</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q130" s="12">
         <v>16</v>
@@ -5833,7 +5836,7 @@
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
@@ -5843,11 +5846,11 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>353</v>
+        <v>86</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>354</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5859,14 +5862,14 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>34</v>
+        <v>353</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
@@ -5876,14 +5879,14 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c t="s" r="Q132" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1">
@@ -5899,7 +5902,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5909,14 +5912,14 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>144</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>41</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5932,7 +5935,7 @@
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5942,14 +5945,14 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>263</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5965,7 +5968,7 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -5975,11 +5978,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5998,7 +6001,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6008,14 +6011,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6024,14 +6027,14 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6045,45 +6048,78 @@
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>252</v>
+        <v>320</v>
       </c>
       <c t="s" r="Q137" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" ht="24.75" customHeight="1">
+      <c r="A138" s="7">
+        <v>132</v>
+      </c>
+      <c r="B138" s="7"/>
+      <c t="s" r="C138" s="8">
+        <v>362</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
+      <c t="s" r="H138" s="9">
+        <v>363</v>
+      </c>
+      <c r="I138" s="9"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="9"/>
+      <c t="s" r="L138" s="10">
+        <v>47</v>
+      </c>
+      <c r="M138" s="10"/>
+      <c t="s" r="N138" s="8">
+        <v>39</v>
+      </c>
+      <c r="O138" s="8"/>
+      <c t="s" r="P138" s="11">
+        <v>253</v>
+      </c>
+      <c t="s" r="Q138" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="138" ht="24.75" customHeight="1">
-      <c r="P138" s="13">
-        <v>8852.6399999999994</v>
-      </c>
-      <c r="Q138" s="13"/>
-    </row>
-    <row r="139" ht="16.5" customHeight="1">
-      <c t="s" r="A139" s="14">
-        <v>363</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c t="s" r="G139" s="15">
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="P139" s="13">
+        <v>8876.6399999999994</v>
+      </c>
+      <c r="Q139" s="13"/>
+    </row>
+    <row r="140" ht="16.5" customHeight="1">
+      <c t="s" r="A140" s="14">
         <v>364</v>
       </c>
-      <c r="H139" s="15"/>
-      <c r="I139" s="15"/>
-      <c r="J139" s="16"/>
-      <c t="s" r="K139" s="17">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c t="s" r="G140" s="15">
         <v>365</v>
       </c>
-      <c r="L139" s="17"/>
-      <c r="M139" s="17"/>
-      <c r="N139" s="17"/>
-      <c r="O139" s="17"/>
-      <c r="P139" s="17"/>
-      <c r="Q139" s="17"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c t="s" r="K140" s="17">
+        <v>366</v>
+      </c>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="667">
+  <mergeCells count="672">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6747,10 +6783,15 @@
     <mergeCell ref="H137:K137"/>
     <mergeCell ref="L137:M137"/>
     <mergeCell ref="N137:O137"/>
-    <mergeCell ref="P138:Q138"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="G139:I139"/>
-    <mergeCell ref="K139:Q139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="H138:K138"/>
+    <mergeCell ref="L138:M138"/>
+    <mergeCell ref="N138:O138"/>
+    <mergeCell ref="P139:Q139"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="G140:I140"/>
+    <mergeCell ref="K140:Q140"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -125,6 +125,15 @@
     <t>31.0000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
     <t>ANTINAL 220MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -155,9 +164,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>78.00</t>
-  </si>
-  <si>
     <t>25.7400</t>
   </si>
   <si>
@@ -422,156 +428,171 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DICETEL 100MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>38.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
+  </si>
+  <si>
+    <t>396.00</t>
+  </si>
+  <si>
+    <t>396.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>EXEEDOGAST 40 MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
+  </si>
+  <si>
+    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>387.4400</t>
+  </si>
+  <si>
+    <t>GAST-REG 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
     <t>5:1</t>
   </si>
   <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DICETEL 100MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>DINCEDATRIC 10 % ANTISEPTIC SOL. 60ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>DIPROSALIC LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>DOLPHIN 25 MG 10 SUPP.</t>
-  </si>
-  <si>
-    <t>38.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>DUSPATALIN RETARD 200 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPACOZA TRIO XR 25/5/1000  30TAB</t>
-  </si>
-  <si>
-    <t>396.00</t>
-  </si>
-  <si>
-    <t>396.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA FORTE TOPICAL GEL 25 GM</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>FLIXONASE 50 MCG/METERED NASAL SPRAY 120 DOSE</t>
-  </si>
-  <si>
-    <t>FLOWADJUST 25MG 30 PROLONGED REL. TABS.</t>
-  </si>
-  <si>
-    <t>306.00</t>
-  </si>
-  <si>
-    <t>100.9800</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>387.4400</t>
-  </si>
-  <si>
-    <t>GAST-REG 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -590,6 +611,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>HEDERA HELIX SYRAP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -608,9 +638,6 @@
     <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
   </si>
   <si>
-    <t>84.0000</t>
-  </si>
-  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -758,9 +785,6 @@
     <t>PULMICORT 0.5MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>752.00</t>
   </si>
   <si>
@@ -827,6 +851,12 @@
     <t>SPASMO-DIGESTIN 30 TABS.</t>
   </si>
   <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>51.4800</t>
+  </si>
+  <si>
     <t>SPASMOFEN 3 AMP. FOR I.M. INJ.</t>
   </si>
   <si>
@@ -917,9 +947,6 @@
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
   </si>
   <si>
-    <t>65.0000</t>
-  </si>
-  <si>
     <t>VITAYAMI 30 F.C. TABS</t>
   </si>
   <si>
@@ -965,9 +992,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -1019,9 +1043,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>10:0</t>
-  </si>
-  <si>
     <t>زيت جونسون صغير</t>
   </si>
   <si>
@@ -1040,12 +1061,21 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>17:0</t>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -1094,16 +1124,10 @@
     <t>محلول رينجر</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>Wednesday, 11 June, 2025 10:40 PM</t>
+    <t>Wednesday, 11 June, 2025 10:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2008,7 +2032,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -2025,7 +2049,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -2034,14 +2058,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -2051,14 +2075,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>45</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -2067,31 +2091,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -2100,31 +2124,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2133,14 +2157,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2150,14 +2174,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2166,14 +2190,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2183,11 +2207,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>24</v>
@@ -2199,14 +2223,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2216,14 +2240,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2232,14 +2256,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2249,14 +2273,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2265,14 +2289,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2282,14 +2306,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2298,14 +2322,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2315,14 +2339,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2331,14 +2355,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2348,11 +2372,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2364,7 +2388,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2381,11 +2405,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2463,14 +2487,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2480,14 +2504,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2513,14 +2537,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2529,7 +2553,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2542,18 +2566,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2562,31 +2586,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2595,31 +2619,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2628,31 +2652,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2661,31 +2685,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2701,24 +2725,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2727,14 +2751,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2744,14 +2768,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2777,14 +2801,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2793,7 +2817,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2810,14 +2834,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2826,14 +2850,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2843,14 +2867,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2859,14 +2883,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2876,14 +2900,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2892,14 +2916,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2909,14 +2933,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2925,14 +2949,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2942,11 +2966,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2958,14 +2982,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2975,14 +2999,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2998,7 +3022,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3008,14 +3032,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>24</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3024,14 +3048,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3041,14 +3065,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3057,14 +3081,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3074,11 +3098,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -3090,14 +3114,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3107,11 +3131,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -3123,14 +3147,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3140,14 +3164,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3173,14 +3197,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3189,14 +3213,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3206,14 +3230,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3222,7 +3246,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3235,15 +3259,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3255,31 +3279,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3305,14 +3329,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3338,14 +3362,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3404,14 +3428,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3420,14 +3444,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3437,11 +3461,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3470,14 +3494,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3486,14 +3510,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3503,14 +3527,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3519,14 +3543,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3536,11 +3560,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>24</v>
@@ -3552,14 +3576,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3569,14 +3593,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3585,14 +3609,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3602,11 +3626,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>24</v>
@@ -3618,14 +3642,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3635,14 +3659,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3651,7 +3675,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3668,14 +3692,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3684,14 +3708,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3701,14 +3725,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3717,28 +3741,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3750,14 +3774,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3767,11 +3791,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3783,14 +3807,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3800,14 +3824,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>202</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3816,14 +3840,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3833,14 +3857,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3849,31 +3873,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>207</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3882,14 +3906,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3899,11 +3923,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3915,7 +3939,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3932,7 +3956,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3955,21 +3979,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>24</v>
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3998,11 +4022,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4031,11 +4055,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>65</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>24</v>
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4064,14 +4088,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>37</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4097,11 +4121,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -4113,14 +4137,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4130,11 +4154,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>152</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>24</v>
@@ -4146,14 +4170,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4163,11 +4187,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>231</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4179,14 +4203,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4196,14 +4220,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4212,14 +4236,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4229,11 +4253,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>24</v>
@@ -4252,7 +4276,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4285,7 +4309,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4295,14 +4319,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4311,31 +4335,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4344,7 +4368,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4361,11 +4385,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>69</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4377,14 +4401,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4394,14 +4418,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4410,31 +4434,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>249</v>
+        <v>24</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4443,7 +4467,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4460,11 +4484,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4476,14 +4500,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4493,14 +4517,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>256</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4516,7 +4540,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4533,7 +4557,7 @@
         <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4549,7 +4573,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4559,11 +4583,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>261</v>
+        <v>65</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4582,13 +4606,13 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
@@ -4596,10 +4620,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q93" s="12">
         <v>264</v>
-      </c>
-      <c t="s" r="Q93" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4615,7 +4639,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4632,7 +4656,7 @@
         <v>267</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4648,7 +4672,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4662,10 +4686,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4674,31 +4698,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>49</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4707,14 +4731,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4724,14 +4748,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4740,14 +4764,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4757,14 +4781,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>73</v>
+        <v>277</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4773,14 +4797,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4790,14 +4814,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4806,14 +4830,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4823,14 +4847,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4839,14 +4863,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4856,14 +4880,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4872,14 +4896,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4889,11 +4913,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>86</v>
+        <v>287</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>87</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4905,14 +4929,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4922,11 +4946,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4938,7 +4962,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4955,14 +4979,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>290</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4971,7 +4995,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4988,11 +5012,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5004,14 +5028,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -5021,14 +5045,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -5037,14 +5061,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5054,14 +5078,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5070,7 +5094,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -5087,11 +5111,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -5103,14 +5127,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5120,14 +5144,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5136,14 +5160,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>24</v>
+        <v>306</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5153,14 +5177,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5169,14 +5193,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5186,14 +5210,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5202,14 +5226,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5219,14 +5243,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>143</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5235,14 +5259,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5252,14 +5276,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>312</v>
+        <v>242</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>313</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5268,14 +5292,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>34</v>
+        <v>314</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5292,7 +5316,7 @@
         <v>316</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5322,10 +5346,10 @@
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>320</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5334,14 +5358,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5351,14 +5375,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
         <v>322</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5374,7 +5398,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5384,11 +5408,11 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>16</v>
@@ -5400,20 +5424,20 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>326</v>
+        <v>139</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
       <c r="K118" s="9"/>
       <c t="s" r="L118" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
@@ -5421,10 +5445,10 @@
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>87</v>
+        <v>328</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5433,31 +5457,31 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>329</v>
+        <v>97</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
       <c r="K119" s="9"/>
       <c t="s" r="L119" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5466,28 +5490,28 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>331</v>
+        <v>12</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
       <c r="K120" s="9"/>
       <c t="s" r="L120" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>16</v>
@@ -5499,28 +5523,28 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q121" s="12">
         <v>34</v>
@@ -5532,31 +5556,31 @@
       </c>
       <c r="B122" s="7"/>
       <c t="s" r="C122" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
       <c r="G122" s="8"/>
       <c t="s" r="H122" s="9">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
       <c r="K122" s="9"/>
       <c t="s" r="L122" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>336</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5565,28 +5589,28 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>34</v>
+        <v>339</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
       <c r="K123" s="9"/>
       <c t="s" r="L123" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>302</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5598,31 +5622,31 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>12</v>
+        <v>341</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
       <c r="K124" s="9"/>
       <c t="s" r="L124" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>90</v>
+        <v>271</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5631,7 +5655,7 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
@@ -5644,18 +5668,18 @@
       <c r="J125" s="9"/>
       <c r="K125" s="9"/>
       <c t="s" r="L125" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>341</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>16</v>
+        <v>201</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5664,31 +5688,31 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
       <c r="K126" s="9"/>
       <c t="s" r="L126" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>310</v>
+        <v>143</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>343</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5697,7 +5721,7 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
@@ -5710,18 +5734,18 @@
       <c r="J127" s="9"/>
       <c r="K127" s="9"/>
       <c t="s" r="L127" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>335</v>
+        <v>92</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>296</v>
+        <v>16</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5730,7 +5754,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5743,15 +5767,15 @@
       <c r="J128" s="9"/>
       <c r="K128" s="9"/>
       <c t="s" r="L128" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5763,7 +5787,7 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
@@ -5776,18 +5800,18 @@
       <c r="J129" s="9"/>
       <c r="K129" s="9"/>
       <c t="s" r="L129" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>16</v>
+        <v>351</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5796,31 +5820,31 @@
       </c>
       <c r="B130" s="7"/>
       <c t="s" r="C130" s="8">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
       <c r="G130" s="8"/>
       <c t="s" r="H130" s="9">
-        <v>296</v>
+        <v>12</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
       <c r="K130" s="9"/>
       <c t="s" r="L130" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
-        <v>264</v>
+        <v>353</v>
       </c>
       <c t="s" r="Q130" s="12">
-        <v>16</v>
+        <v>354</v>
       </c>
     </row>
     <row r="131" ht="25.5" customHeight="1">
@@ -5829,28 +5853,28 @@
       </c>
       <c r="B131" s="7"/>
       <c t="s" r="C131" s="8">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
       <c r="G131" s="8"/>
       <c t="s" r="H131" s="9">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="9"/>
       <c t="s" r="L131" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>86</v>
+        <v>343</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
-        <v>87</v>
+        <v>356</v>
       </c>
       <c t="s" r="Q131" s="12">
         <v>16</v>
@@ -5862,28 +5886,28 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="8"/>
       <c t="s" r="H132" s="9">
-        <v>353</v>
+        <v>12</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
       <c r="K132" s="9"/>
       <c t="s" r="L132" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c t="s" r="Q132" s="12">
         <v>16</v>
@@ -5895,31 +5919,31 @@
       </c>
       <c r="B133" s="7"/>
       <c t="s" r="C133" s="8">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>34</v>
+        <v>306</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
       <c r="K133" s="9"/>
       <c t="s" r="L133" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q133" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="134" ht="25.5" customHeight="1">
@@ -5928,31 +5952,31 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
       <c r="K134" s="9"/>
       <c t="s" r="L134" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>327</v>
+        <v>88</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q134" s="12">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="135" ht="24.75" customHeight="1">
@@ -5961,28 +5985,28 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>16</v>
+        <v>363</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
       <c r="K135" s="9"/>
       <c t="s" r="L135" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>263</v>
+        <v>364</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>264</v>
+        <v>365</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -5994,31 +6018,31 @@
       </c>
       <c r="B136" s="7"/>
       <c t="s" r="C136" s="8">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
       <c r="K136" s="9"/>
       <c t="s" r="L136" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>263</v>
+        <v>335</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6027,31 +6051,31 @@
       </c>
       <c r="B137" s="7"/>
       <c t="s" r="C137" s="8">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>361</v>
+        <v>12</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
       <c r="K137" s="9"/>
       <c t="s" r="L137" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6060,66 +6084,165 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>363</v>
+        <v>16</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
       <c r="K138" s="9"/>
       <c t="s" r="L138" s="10">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q138" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" ht="25.5" customHeight="1">
+      <c r="A139" s="7">
+        <v>133</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c t="s" r="C139" s="8">
+        <v>369</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c t="s" r="H139" s="9">
+        <v>12</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="9"/>
+      <c t="s" r="L139" s="10">
+        <v>50</v>
+      </c>
+      <c r="M139" s="10"/>
+      <c t="s" r="N139" s="8">
+        <v>271</v>
+      </c>
+      <c r="O139" s="8"/>
+      <c t="s" r="P139" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q139" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" ht="24.75" customHeight="1">
+      <c r="A140" s="7">
+        <v>134</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c t="s" r="C140" s="8">
+        <v>370</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c t="s" r="H140" s="9">
+        <v>354</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="9"/>
+      <c t="s" r="L140" s="10">
+        <v>50</v>
+      </c>
+      <c r="M140" s="10"/>
+      <c t="s" r="N140" s="8">
+        <v>42</v>
+      </c>
+      <c r="O140" s="8"/>
+      <c t="s" r="P140" s="11">
+        <v>328</v>
+      </c>
+      <c t="s" r="Q140" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" ht="25.5" customHeight="1">
+      <c r="A141" s="7">
+        <v>135</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c t="s" r="C141" s="8">
+        <v>371</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
+      <c t="s" r="H141" s="9">
+        <v>351</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="9"/>
+      <c t="s" r="L141" s="10">
+        <v>50</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c t="s" r="N141" s="8">
+        <v>42</v>
+      </c>
+      <c r="O141" s="8"/>
+      <c t="s" r="P141" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q141" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="139" ht="25.5" customHeight="1">
-      <c r="P139" s="13">
-        <v>8876.6399999999994</v>
-      </c>
-      <c r="Q139" s="13"/>
-    </row>
-    <row r="140" ht="16.5" customHeight="1">
-      <c t="s" r="A140" s="14">
-        <v>364</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c t="s" r="G140" s="15">
-        <v>365</v>
-      </c>
-      <c r="H140" s="15"/>
-      <c r="I140" s="15"/>
-      <c r="J140" s="16"/>
-      <c t="s" r="K140" s="17">
-        <v>366</v>
-      </c>
-      <c r="L140" s="17"/>
-      <c r="M140" s="17"/>
-      <c r="N140" s="17"/>
-      <c r="O140" s="17"/>
-      <c r="P140" s="17"/>
-      <c r="Q140" s="17"/>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="P142" s="13">
+        <v>9080.7399999999998</v>
+      </c>
+      <c r="Q142" s="13"/>
+    </row>
+    <row r="143" ht="16.5" customHeight="1">
+      <c t="s" r="A143" s="14">
+        <v>372</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c t="s" r="G143" s="15">
+        <v>373</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c t="s" r="K143" s="17">
+        <v>374</v>
+      </c>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
+      <c r="P143" s="17"/>
+      <c r="Q143" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="672">
+  <mergeCells count="687">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6788,10 +6911,25 @@
     <mergeCell ref="H138:K138"/>
     <mergeCell ref="L138:M138"/>
     <mergeCell ref="N138:O138"/>
-    <mergeCell ref="P139:Q139"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="G140:I140"/>
-    <mergeCell ref="K140:Q140"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="H139:K139"/>
+    <mergeCell ref="L139:M139"/>
+    <mergeCell ref="N139:O139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="H140:K140"/>
+    <mergeCell ref="L140:M140"/>
+    <mergeCell ref="N140:O140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="H141:K141"/>
+    <mergeCell ref="L141:M141"/>
+    <mergeCell ref="N141:O141"/>
+    <mergeCell ref="P142:Q142"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="G143:I143"/>
+    <mergeCell ref="K143:Q143"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -491,6 +491,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>ELICA-M CREAM 30 GRAM</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>E-MOXCLAV 228.5MG/5ML DRY SUSP. 75 ML</t>
   </si>
   <si>
@@ -1091,6 +1100,12 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
     <t>صابون CAMAY</t>
   </si>
   <si>
@@ -1127,7 +1142,10 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 10:54 PM</t>
+    <t>مناديل شمع</t>
+  </si>
+  <si>
+    <t>Wednesday, 11 June, 2025 11:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3253,7 +3271,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3292,7 +3310,7 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -3319,24 +3337,24 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3345,14 +3363,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3362,11 +3380,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>24</v>
@@ -3385,7 +3403,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3402,7 +3420,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3451,7 +3469,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3461,7 +3479,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3484,7 +3502,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3494,14 +3512,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3517,7 +3535,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3527,14 +3545,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3543,14 +3561,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3560,14 +3578,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3583,7 +3601,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3600,7 +3618,7 @@
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3616,7 +3634,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3633,7 +3651,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3649,7 +3667,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3659,14 +3677,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3675,14 +3693,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3692,14 +3710,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3715,7 +3733,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3732,7 +3750,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3748,17 +3766,17 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3781,21 +3799,21 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3807,14 +3825,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3824,14 +3842,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3840,14 +3858,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3857,14 +3875,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3890,11 +3908,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3906,14 +3924,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3923,11 +3941,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3946,7 +3964,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3963,7 +3981,7 @@
         <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3979,21 +3997,21 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>24</v>
@@ -4005,20 +4023,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -4029,7 +4047,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -4045,7 +4063,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -4055,14 +4073,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>65</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -4071,14 +4089,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -4088,7 +4106,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>65</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -4111,7 +4129,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -4128,7 +4146,7 @@
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -4144,7 +4162,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4158,10 +4176,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4170,14 +4188,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4187,14 +4205,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>37</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4203,14 +4221,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4220,11 +4238,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>36</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4243,7 +4261,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4257,10 +4275,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4269,14 +4287,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4286,14 +4304,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4309,7 +4327,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4326,7 +4344,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4342,7 +4360,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4359,7 +4377,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4375,7 +4393,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4392,7 +4410,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4408,7 +4426,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4418,11 +4436,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>42</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4434,28 +4452,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>42</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4467,28 +4485,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>71</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4500,14 +4518,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4517,14 +4535,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>178</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4533,14 +4551,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4550,14 +4568,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4573,7 +4591,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4583,14 +4601,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>65</v>
+        <v>261</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4599,14 +4617,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4616,14 +4634,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>263</v>
+        <v>65</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>59</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4639,7 +4657,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4653,10 +4671,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>59</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>267</v>
-      </c>
-      <c t="s" r="Q94" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4672,7 +4690,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4686,10 +4704,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4698,28 +4716,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>272</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4744,7 +4762,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4771,7 +4789,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4788,7 +4806,7 @@
         <v>278</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4804,7 +4822,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4814,14 +4832,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>39</v>
+        <v>280</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4837,7 +4855,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>74</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4847,14 +4865,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4863,14 +4881,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4880,14 +4898,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4896,14 +4914,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4913,14 +4931,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>287</v>
+        <v>75</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>288</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4936,7 +4954,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4969,7 +4987,7 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -5002,7 +5020,7 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -5012,11 +5030,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>88</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>89</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -5028,7 +5046,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -5045,11 +5063,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>190</v>
+        <v>88</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -5061,14 +5079,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -5078,14 +5096,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>298</v>
+        <v>193</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>300</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5094,14 +5112,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5111,14 +5129,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>302</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>303</v>
-      </c>
-      <c t="s" r="Q108" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5134,7 +5152,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5144,14 +5162,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>36</v>
+        <v>305</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5160,14 +5178,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5177,14 +5195,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>307</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5200,7 +5218,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>12</v>
+        <v>309</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5210,7 +5228,7 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>309</v>
+        <v>155</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
@@ -5233,7 +5251,7 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5243,11 +5261,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>143</v>
+        <v>312</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>202</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5259,14 +5277,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5276,14 +5294,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5292,14 +5310,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>314</v>
+        <v>24</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5309,14 +5327,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>315</v>
+        <v>245</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>316</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5325,14 +5343,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5342,14 +5360,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>69</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>97</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5365,7 +5383,7 @@
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>16</v>
+        <v>321</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5375,14 +5393,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5398,7 +5416,7 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5431,7 +5449,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5464,7 +5482,7 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5474,14 +5492,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>190</v>
+        <v>330</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5490,14 +5508,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5507,14 +5525,14 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>315</v>
+        <v>193</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c t="s" r="Q120" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121" ht="25.5" customHeight="1">
@@ -5523,31 +5541,31 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>334</v>
+        <v>12</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
       <c r="K121" s="9"/>
       <c t="s" r="L121" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>89</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5573,14 +5591,14 @@
       </c>
       <c r="M122" s="10"/>
       <c t="s" r="N122" s="8">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q122" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5589,14 +5607,14 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
       <c r="G123" s="8"/>
       <c t="s" r="H123" s="9">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
@@ -5606,11 +5624,11 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q123" s="12">
         <v>16</v>
@@ -5622,14 +5640,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5639,14 +5657,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>271</v>
+        <v>81</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5655,14 +5673,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>12</v>
+        <v>344</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5672,14 +5690,14 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>343</v>
+        <v>274</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q125" s="12">
-        <v>201</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" ht="25.5" customHeight="1">
@@ -5688,14 +5706,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5705,14 +5723,14 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>202</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q126" s="12">
-        <v>16</v>
+        <v>204</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -5721,14 +5739,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5738,11 +5756,11 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q127" s="12">
         <v>16</v>
@@ -5754,7 +5772,7 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
@@ -5771,11 +5789,11 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>347</v>
+        <v>92</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q128" s="12">
         <v>16</v>
@@ -5804,14 +5822,14 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c t="s" r="Q129" s="12">
-        <v>351</v>
+        <v>16</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1">
@@ -5837,7 +5855,7 @@
       </c>
       <c r="M130" s="10"/>
       <c t="s" r="N130" s="8">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="O130" s="8"/>
       <c t="s" r="P130" s="11">
@@ -5870,14 +5888,14 @@
       </c>
       <c r="M131" s="10"/>
       <c t="s" r="N131" s="8">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="O131" s="8"/>
       <c t="s" r="P131" s="11">
         <v>356</v>
       </c>
       <c t="s" r="Q131" s="12">
-        <v>16</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" ht="25.5" customHeight="1">
@@ -5886,7 +5904,7 @@
       </c>
       <c r="B132" s="7"/>
       <c t="s" r="C132" s="8">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
@@ -5903,7 +5921,7 @@
       </c>
       <c r="M132" s="10"/>
       <c t="s" r="N132" s="8">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="O132" s="8"/>
       <c t="s" r="P132" s="11">
@@ -5926,7 +5944,7 @@
       <c r="F133" s="8"/>
       <c r="G133" s="8"/>
       <c t="s" r="H133" s="9">
-        <v>306</v>
+        <v>12</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
@@ -5936,11 +5954,11 @@
       </c>
       <c r="M133" s="10"/>
       <c t="s" r="N133" s="8">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="O133" s="8"/>
       <c t="s" r="P133" s="11">
-        <v>272</v>
+        <v>362</v>
       </c>
       <c t="s" r="Q133" s="12">
         <v>16</v>
@@ -5952,14 +5970,14 @@
       </c>
       <c r="B134" s="7"/>
       <c t="s" r="C134" s="8">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
       <c r="G134" s="8"/>
       <c t="s" r="H134" s="9">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
@@ -5969,11 +5987,11 @@
       </c>
       <c r="M134" s="10"/>
       <c t="s" r="N134" s="8">
-        <v>88</v>
+        <v>364</v>
       </c>
       <c r="O134" s="8"/>
       <c t="s" r="P134" s="11">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q134" s="12">
         <v>16</v>
@@ -5985,14 +6003,14 @@
       </c>
       <c r="B135" s="7"/>
       <c t="s" r="C135" s="8">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c t="s" r="H135" s="9">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
@@ -6002,11 +6020,11 @@
       </c>
       <c r="M135" s="10"/>
       <c t="s" r="N135" s="8">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="O135" s="8"/>
       <c t="s" r="P135" s="11">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q135" s="12">
         <v>16</v>
@@ -6025,7 +6043,7 @@
       <c r="F136" s="8"/>
       <c r="G136" s="8"/>
       <c t="s" r="H136" s="9">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
@@ -6035,14 +6053,14 @@
       </c>
       <c r="M136" s="10"/>
       <c t="s" r="N136" s="8">
-        <v>335</v>
+        <v>88</v>
       </c>
       <c r="O136" s="8"/>
       <c t="s" r="P136" s="11">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q136" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" ht="25.5" customHeight="1">
@@ -6058,7 +6076,7 @@
       <c r="F137" s="8"/>
       <c r="G137" s="8"/>
       <c t="s" r="H137" s="9">
-        <v>12</v>
+        <v>368</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
@@ -6068,14 +6086,14 @@
       </c>
       <c r="M137" s="10"/>
       <c t="s" r="N137" s="8">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="O137" s="8"/>
       <c t="s" r="P137" s="11">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c t="s" r="Q137" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="138" ht="24.75" customHeight="1">
@@ -6084,14 +6102,14 @@
       </c>
       <c r="B138" s="7"/>
       <c t="s" r="C138" s="8">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
       <c r="G138" s="8"/>
       <c t="s" r="H138" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
@@ -6101,14 +6119,14 @@
       </c>
       <c r="M138" s="10"/>
       <c t="s" r="N138" s="8">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="O138" s="8"/>
       <c t="s" r="P138" s="11">
-        <v>272</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q138" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139" ht="25.5" customHeight="1">
@@ -6117,7 +6135,7 @@
       </c>
       <c r="B139" s="7"/>
       <c t="s" r="C139" s="8">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
@@ -6134,14 +6152,14 @@
       </c>
       <c r="M139" s="10"/>
       <c t="s" r="N139" s="8">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="O139" s="8"/>
       <c t="s" r="P139" s="11">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q139" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="140" ht="24.75" customHeight="1">
@@ -6150,14 +6168,14 @@
       </c>
       <c r="B140" s="7"/>
       <c t="s" r="C140" s="8">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="8"/>
       <c t="s" r="H140" s="9">
-        <v>354</v>
+        <v>16</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
@@ -6167,14 +6185,14 @@
       </c>
       <c r="M140" s="10"/>
       <c t="s" r="N140" s="8">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="O140" s="8"/>
       <c t="s" r="P140" s="11">
-        <v>328</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q140" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="141" ht="25.5" customHeight="1">
@@ -6183,14 +6201,14 @@
       </c>
       <c r="B141" s="7"/>
       <c t="s" r="C141" s="8">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
       <c r="G141" s="8"/>
       <c t="s" r="H141" s="9">
-        <v>351</v>
+        <v>12</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
@@ -6200,49 +6218,148 @@
       </c>
       <c r="M141" s="10"/>
       <c t="s" r="N141" s="8">
-        <v>42</v>
+        <v>274</v>
       </c>
       <c r="O141" s="8"/>
       <c t="s" r="P141" s="11">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q141" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" ht="25.5" customHeight="1">
+      <c r="A142" s="7">
+        <v>136</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c t="s" r="C142" s="8">
+        <v>375</v>
+      </c>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c t="s" r="H142" s="9">
+        <v>357</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c t="s" r="L142" s="10">
+        <v>50</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c t="s" r="N142" s="8">
+        <v>42</v>
+      </c>
+      <c r="O142" s="8"/>
+      <c t="s" r="P142" s="11">
+        <v>331</v>
+      </c>
+      <c t="s" r="Q142" s="12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" ht="24.75" customHeight="1">
+      <c r="A143" s="7">
+        <v>137</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c t="s" r="C143" s="8">
+        <v>376</v>
+      </c>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c t="s" r="H143" s="9">
+        <v>354</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="9"/>
+      <c t="s" r="L143" s="10">
+        <v>50</v>
+      </c>
+      <c r="M143" s="10"/>
+      <c t="s" r="N143" s="8">
+        <v>42</v>
+      </c>
+      <c r="O143" s="8"/>
+      <c t="s" r="P143" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q143" s="12">
         <v>34</v>
       </c>
     </row>
-    <row r="142" ht="25.5" customHeight="1">
-      <c r="P142" s="13">
-        <v>9080.7399999999998</v>
-      </c>
-      <c r="Q142" s="13"/>
-    </row>
-    <row r="143" ht="16.5" customHeight="1">
-      <c t="s" r="A143" s="14">
-        <v>372</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="14"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c t="s" r="G143" s="15">
-        <v>373</v>
-      </c>
-      <c r="H143" s="15"/>
-      <c r="I143" s="15"/>
-      <c r="J143" s="16"/>
-      <c t="s" r="K143" s="17">
-        <v>374</v>
-      </c>
-      <c r="L143" s="17"/>
-      <c r="M143" s="17"/>
-      <c r="N143" s="17"/>
-      <c r="O143" s="17"/>
-      <c r="P143" s="17"/>
-      <c r="Q143" s="17"/>
+    <row r="144" ht="25.5" customHeight="1">
+      <c r="A144" s="7">
+        <v>138</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c t="s" r="C144" s="8">
+        <v>377</v>
+      </c>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
+      <c t="s" r="H144" s="9">
+        <v>44</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="9"/>
+      <c t="s" r="L144" s="10">
+        <v>50</v>
+      </c>
+      <c r="M144" s="10"/>
+      <c t="s" r="N144" s="8">
+        <v>99</v>
+      </c>
+      <c r="O144" s="8"/>
+      <c t="s" r="P144" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q144" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" ht="24.75" customHeight="1">
+      <c r="P145" s="13">
+        <v>9222.7399999999998</v>
+      </c>
+      <c r="Q145" s="13"/>
+    </row>
+    <row r="146" ht="16.5" customHeight="1">
+      <c t="s" r="A146" s="14">
+        <v>378</v>
+      </c>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c t="s" r="G146" s="15">
+        <v>379</v>
+      </c>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c t="s" r="K146" s="17">
+        <v>380</v>
+      </c>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+      <c r="N146" s="17"/>
+      <c r="O146" s="17"/>
+      <c r="P146" s="17"/>
+      <c r="Q146" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="687">
+  <mergeCells count="702">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6926,10 +7043,25 @@
     <mergeCell ref="H141:K141"/>
     <mergeCell ref="L141:M141"/>
     <mergeCell ref="N141:O141"/>
-    <mergeCell ref="P142:Q142"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="G143:I143"/>
-    <mergeCell ref="K143:Q143"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="C142:G142"/>
+    <mergeCell ref="H142:K142"/>
+    <mergeCell ref="L142:M142"/>
+    <mergeCell ref="N142:O142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="H143:K143"/>
+    <mergeCell ref="L143:M143"/>
+    <mergeCell ref="N143:O143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="H144:K144"/>
+    <mergeCell ref="L144:M144"/>
+    <mergeCell ref="N144:O144"/>
+    <mergeCell ref="P145:Q145"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="G146:I146"/>
+    <mergeCell ref="K146:Q146"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-06-11_00-00.xlsx
+++ b/DaySale_2025-06-11_00-00.xlsx
@@ -377,6 +377,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>C-VIT DROPS 10 GM/100 ML DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
+  </si>
+  <si>
     <t>DALACIN C 300MG 10 CAPS.</t>
   </si>
   <si>
@@ -647,6 +656,12 @@
     <t>KEMIFORGE 5/320MG 20 F.C. TAB.</t>
   </si>
   <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
     <t>LAMIFEN 1% CREAM 15 GM</t>
   </si>
   <si>
@@ -956,6 +971,15 @@
     <t>VIBRAMYCIN 100MG 10 CAPS.</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>VITAYAMI 30 F.C. TABS</t>
   </si>
   <si>
@@ -1022,9 +1046,6 @@
     <t>بلاستر مترسيلك 2 سم</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -1145,7 +1166,7 @@
     <t>مناديل شمع</t>
   </si>
   <si>
-    <t>Wednesday, 11 June, 2025 11:03 PM</t>
+    <t>Wednesday, 11 June, 2025 11:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2875,7 +2896,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2908,7 +2929,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2925,7 +2946,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2941,7 +2962,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2951,11 +2972,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>48</v>
@@ -2967,14 +2988,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2991,7 +3012,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -3007,7 +3028,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -3040,7 +3061,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -3050,14 +3071,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -3066,14 +3087,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -3083,14 +3104,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q46" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q46" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -3106,7 +3127,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -3123,7 +3144,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -3139,7 +3160,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -3172,7 +3193,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3205,7 +3226,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3222,7 +3243,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3238,7 +3259,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3255,7 +3276,7 @@
         <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3271,7 +3292,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3288,7 +3309,7 @@
         <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3304,7 +3325,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3343,7 +3364,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -3370,24 +3391,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3396,14 +3417,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3413,11 +3434,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>24</v>
@@ -3436,7 +3457,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3453,7 +3474,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3502,7 +3523,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3512,7 +3533,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>42</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3535,7 +3556,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3545,14 +3566,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3568,7 +3589,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3578,14 +3599,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3594,14 +3615,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3611,14 +3632,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3634,7 +3655,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3651,7 +3672,7 @@
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3667,7 +3688,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3684,7 +3705,7 @@
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3700,7 +3721,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3710,14 +3731,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3726,14 +3747,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3743,14 +3764,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>75</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3766,7 +3787,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3783,7 +3804,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3799,17 +3820,17 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>143</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
@@ -3832,21 +3853,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3858,14 +3879,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3875,14 +3896,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>34</v>
+        <v>16</v>
    